--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="235">
   <si>
     <t>field</t>
   </si>
@@ -712,6 +712,15 @@
   </si>
   <si>
     <t>27844801653</t>
+  </si>
+  <si>
+    <t>mobile_content</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>js</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:T206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,16 +1166,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1174,28 +1183,24 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1203,12 +1208,9 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
         <v>20</v>
       </c>
       <c r="F6">
@@ -1217,27 +1219,21 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1245,38 +1241,41 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1285,822 +1284,801 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>202</v>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>132</v>
+      <c r="K25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>230</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C42" t="s">
         <v>35</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E42" t="s">
         <v>54</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
         <v>20</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
         <v>20</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>255</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>255</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2113,20 +2091,38 @@
       <c r="M57"/>
       <c r="N57"/>
     </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
       <c r="K59"/>
@@ -2134,33 +2130,15 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
         <v>205</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61">
-        <v>200</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2173,307 +2151,310 @@
       <c r="M61"/>
       <c r="N61"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>50</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>121</v>
-      </c>
-      <c r="L63" t="s">
-        <v>122</v>
-      </c>
-      <c r="M63" t="s">
-        <v>121</v>
-      </c>
-      <c r="N63"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>2</v>
-      </c>
-      <c r="M64">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
       <c r="N64"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="K65" t="s">
-        <v>190</v>
-      </c>
-      <c r="L65" t="s">
-        <v>190</v>
-      </c>
-      <c r="M65" t="s">
-        <v>200</v>
-      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>123</v>
-      </c>
-      <c r="L66">
-        <v>234</v>
-      </c>
-      <c r="M66">
-        <v>345</v>
-      </c>
-      <c r="N66"/>
-    </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
       <c r="M67"/>
       <c r="N67"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
       </c>
       <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="M71"/>
+      <c r="K71" t="s">
+        <v>121</v>
+      </c>
+      <c r="L71" t="s">
+        <v>122</v>
+      </c>
+      <c r="M71" t="s">
+        <v>121</v>
+      </c>
       <c r="N71"/>
     </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72"/>
+    </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="M73"/>
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>190</v>
+      </c>
+      <c r="L73" t="s">
+        <v>190</v>
+      </c>
+      <c r="M73" t="s">
+        <v>200</v>
+      </c>
       <c r="N73"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="M74"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>123</v>
+      </c>
+      <c r="L74">
+        <v>234</v>
+      </c>
+      <c r="M74">
+        <v>345</v>
+      </c>
       <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75"/>
       <c r="N75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="M77"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
         <v>0</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
         <v>25</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80">
-        <v>50</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M80" t="s">
-        <v>197</v>
-      </c>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>27</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2484,154 +2465,116 @@
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="K81" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M81" t="s">
-        <v>198</v>
-      </c>
+      <c r="M81"/>
       <c r="N81"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M82">
-        <v>790790790</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M82"/>
       <c r="N82"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M83">
-        <v>210210210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M83"/>
       <c r="N83"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M84">
-        <v>210210211</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M84"/>
       <c r="N84"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L85" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M85"/>
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>129</v>
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="M87"/>
-      <c r="N87"/>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M88" t="s">
+        <v>197</v>
+      </c>
+      <c r="N88"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2643,330 +2586,371 @@
         <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M89" t="s">
+        <v>198</v>
+      </c>
+      <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M90"/>
+        <v>127</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M90">
+        <v>790790790</v>
+      </c>
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M91"/>
+        <v>149</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M91">
+        <v>210210210</v>
+      </c>
       <c r="N91"/>
     </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M92">
+        <v>210210211</v>
+      </c>
+      <c r="N92"/>
+    </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="M93"/>
+      <c r="K93" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M94"/>
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
       </c>
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="M96"/>
-      <c r="N96"/>
-    </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" t="s">
-        <v>185</v>
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="M97"/>
-      <c r="N97"/>
+      <c r="K97" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F99">
         <v>1</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>47</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="N100"/>
-    </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
+      <c r="M101"/>
       <c r="N101"/>
     </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="F103">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="M103"/>
       <c r="N103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F104">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M104"/>
       <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
+        <v>185</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M105"/>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="M106"/>
       <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
+      <c r="M107"/>
       <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D109">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
       </c>
       <c r="N109"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="F111">
         <v>1</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2975,103 +2959,94 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
       </c>
       <c r="F114">
         <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>45</v>
       </c>
       <c r="N114"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
       <c r="N115"/>
     </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="N116"/>
+    </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B117" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="K117" s="4">
-        <v>1</v>
-      </c>
-      <c r="L117" s="4">
-        <v>1</v>
-      </c>
-      <c r="M117" s="4">
-        <v>1</v>
-      </c>
       <c r="N117"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" t="s">
         <v>23</v>
       </c>
-      <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118">
-        <v>75</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N118"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>89</v>
-      </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="N119"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -3086,100 +3061,109 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>45</v>
+      </c>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>40</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="N121"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B123" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="N123"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" t="s">
         <v>24</v>
       </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="K123" s="4">
-        <v>1</v>
-      </c>
-      <c r="L123" s="4">
-        <v>1</v>
-      </c>
-      <c r="M123" s="4">
-        <v>1</v>
-      </c>
-      <c r="N123"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="N124"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>23</v>
-      </c>
-      <c r="C125" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125">
-        <v>100</v>
-      </c>
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="K125" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>109</v>
+      <c r="K125" s="4">
+        <v>1</v>
+      </c>
+      <c r="L125" s="4">
+        <v>1</v>
+      </c>
+      <c r="M125" s="4">
+        <v>1</v>
       </c>
       <c r="N125"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>75</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N126"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3188,405 +3172,404 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>40</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>33</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="N128"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B130" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130">
-        <v>50</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="N130"/>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="N129"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1</v>
+      </c>
+      <c r="L131" s="4">
+        <v>1</v>
+      </c>
+      <c r="M131" s="4">
         <v>1</v>
       </c>
       <c r="N131"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
       </c>
       <c r="N132"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N133"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
       </c>
       <c r="N134"/>
     </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="N135"/>
+    </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
       <c r="N136"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>189</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
         <v>50</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="N137"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>188</v>
-      </c>
-      <c r="C138" t="s">
-        <v>20</v>
+      <c r="F138">
+        <v>1</v>
       </c>
       <c r="N138"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
-      </c>
-      <c r="I139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>100</v>
+      </c>
+      <c r="F139">
         <v>1</v>
       </c>
       <c r="N139"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
       <c r="N140"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
       <c r="N141"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
-        <v>250</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N142"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143">
-        <v>50</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="N143"/>
-    </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C144" t="s">
         <v>24</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145"/>
     </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="N146"/>
+    </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B147" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147">
-        <v>250</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
       </c>
       <c r="N147"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="N148"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N149"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
         <v>250</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="N148"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>117</v>
-      </c>
-      <c r="C149" t="s">
-        <v>20</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="N149"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>118</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150">
-        <v>20</v>
-      </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
       </c>
       <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="M151"/>
+        <v>1</v>
+      </c>
       <c r="N151"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
-      <c r="M152"/>
       <c r="N152"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="M153"/>
+        <v>1</v>
+      </c>
       <c r="N153"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="M154"/>
-      <c r="N154"/>
-    </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>250</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="M155"/>
       <c r="N155"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="M156"/>
+        <v>0</v>
+      </c>
       <c r="N156"/>
     </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="N157"/>
+    </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B158" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M158"/>
+        <v>0</v>
+      </c>
       <c r="N158"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M159"/>
       <c r="N159"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>32</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3596,120 +3579,131 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
         <v>0</v>
       </c>
       <c r="M161"/>
       <c r="N161"/>
     </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="M162"/>
+      <c r="N162"/>
+    </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="M163"/>
       <c r="N163"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
-      <c r="K164" s="4" t="s">
-        <v>161</v>
+      <c r="G164">
+        <v>0</v>
       </c>
       <c r="M164"/>
       <c r="N164"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" t="s">
         <v>23</v>
       </c>
-      <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165">
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166">
         <v>50</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M165"/>
-      <c r="N165"/>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M166"/>
+      <c r="N166"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
+      <c r="K167" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M167"/>
+      <c r="N167"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F168">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M168"/>
+      <c r="N168"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>33</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -3717,72 +3711,81 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" t="s">
-        <v>22</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
+      <c r="M169"/>
+      <c r="N169"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
       </c>
       <c r="F171">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M171"/>
+      <c r="N171"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="G172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B174" t="s">
-        <v>225</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174">
-        <v>40</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
+      <c r="K172" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M172"/>
+      <c r="N172"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>50</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M173"/>
+      <c r="N173"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="D175">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3790,13 +3793,13 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="D176">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -3804,38 +3807,38 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
         <v>22</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -3857,179 +3860,151 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s">
         <v>12</v>
       </c>
       <c r="D182">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
-      <c r="M182"/>
-      <c r="N182"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>250</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="G183" t="s">
-        <v>157</v>
-      </c>
-      <c r="K183"/>
-      <c r="L183"/>
-      <c r="M183"/>
-      <c r="N183"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>250</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="K184"/>
-      <c r="L184"/>
-      <c r="M184"/>
-      <c r="N184"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>250</v>
       </c>
       <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="K185"/>
-      <c r="L185"/>
-      <c r="M185"/>
-      <c r="N185"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="C186" t="s">
-        <v>164</v>
-      </c>
-      <c r="D186" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="K186"/>
-      <c r="L186"/>
-      <c r="M186"/>
-      <c r="N186"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>164</v>
-      </c>
-      <c r="D187" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
-      <c r="K187"/>
-      <c r="L187"/>
-      <c r="M187"/>
-      <c r="N187"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
-      <c r="K188"/>
-      <c r="L188"/>
-      <c r="M188"/>
-      <c r="N188"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>47</v>
-      </c>
-      <c r="C189" t="s">
-        <v>22</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="K189"/>
-      <c r="L189"/>
-      <c r="M189"/>
-      <c r="N189"/>
+      <c r="G188">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="K190"/>
-      <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
     </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" t="s">
+        <v>156</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>157</v>
+      </c>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+    </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192"/>
       <c r="L192"/>
@@ -4038,13 +4013,16 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
       </c>
       <c r="K193"/>
       <c r="L193"/>
@@ -4053,16 +4031,19 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194">
-        <v>50</v>
+        <v>164</v>
+      </c>
+      <c r="D194" t="s">
+        <v>171</v>
       </c>
       <c r="F194">
         <v>1</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
       </c>
       <c r="K194"/>
       <c r="L194"/>
@@ -4071,18 +4052,15 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C195" t="s">
         <v>164</v>
       </c>
       <c r="D195" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
         <v>1</v>
       </c>
       <c r="K195"/>
@@ -4092,13 +4070,13 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196"/>
       <c r="L196"/>
@@ -4106,20 +4084,13 @@
       <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197"/>
       <c r="B197" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>164</v>
-      </c>
-      <c r="D197" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
         <v>0</v>
       </c>
       <c r="K197"/>
@@ -4128,35 +4099,165 @@
       <c r="N197"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198"/>
       <c r="B198" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>164</v>
-      </c>
-      <c r="D198" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
       </c>
       <c r="F198">
         <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
       </c>
       <c r="K198"/>
       <c r="L198"/>
       <c r="M198"/>
       <c r="N198"/>
     </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B200" t="s">
+        <v>167</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>50</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>170</v>
+      </c>
+      <c r="C203" t="s">
+        <v>164</v>
+      </c>
+      <c r="D203" t="s">
+        <v>175</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>172</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="B205" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" t="s">
+        <v>164</v>
+      </c>
+      <c r="D205" t="s">
+        <v>171</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="B206" t="s">
+        <v>176</v>
+      </c>
+      <c r="C206" t="s">
+        <v>164</v>
+      </c>
+      <c r="D206" t="s">
+        <v>171</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K45" r:id="rId1"/>
-    <hyperlink ref="K47" r:id="rId2"/>
-    <hyperlink ref="K17" r:id="rId3"/>
-    <hyperlink ref="L17" r:id="rId4"/>
-    <hyperlink ref="M17" r:id="rId5"/>
-    <hyperlink ref="K85" r:id="rId6"/>
-    <hyperlink ref="L85" r:id="rId7"/>
-    <hyperlink ref="M85" r:id="rId8"/>
-    <hyperlink ref="N17" r:id="rId9"/>
+    <hyperlink ref="K53" r:id="rId1"/>
+    <hyperlink ref="K55" r:id="rId2"/>
+    <hyperlink ref="K25" r:id="rId3"/>
+    <hyperlink ref="L25" r:id="rId4"/>
+    <hyperlink ref="M25" r:id="rId5"/>
+    <hyperlink ref="K93" r:id="rId6"/>
+    <hyperlink ref="L93" r:id="rId7"/>
+    <hyperlink ref="M93" r:id="rId8"/>
+    <hyperlink ref="N25" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="242">
   <si>
     <t>field</t>
   </si>
@@ -714,13 +714,34 @@
     <t>27844801653</t>
   </si>
   <si>
-    <t>mobile_content</t>
-  </si>
-  <si>
     <t>html</t>
   </si>
   <si>
     <t>js</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Hi, this is the home page!</t>
+  </si>
+  <si>
+    <t>Hi! Setting page here :)</t>
+  </si>
+  <si>
+    <t>2013-03-16 19:30:00</t>
+  </si>
+  <si>
+    <t>alert("home page loaded");</t>
+  </si>
+  <si>
+    <t>alert("settings page loaded");</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1107,7 @@
   <dimension ref="A1:T206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,9 +1115,7 @@
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.28515625" customWidth="1"/>
-    <col min="6" max="10" width="17" customWidth="1"/>
+    <col min="4" max="10" width="4.85546875" customWidth="1"/>
     <col min="11" max="11" width="17" style="4" customWidth="1"/>
     <col min="12" max="16" width="21.140625" style="4" customWidth="1"/>
     <col min="17" max="20" width="13.28515625" style="4" customWidth="1"/>
@@ -1166,7 +1185,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1179,6 +1198,12 @@
       </c>
       <c r="F3">
         <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1194,10 +1219,16 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1205,16 +1236,28 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="K5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="F6">
         <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1227,6 +1270,12 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="K7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1238,6 +1287,12 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1254,6 +1309,12 @@
       </c>
       <c r="G9">
         <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="247">
   <si>
     <t>field</t>
   </si>
@@ -742,6 +742,21 @@
   </si>
   <si>
     <t>alert("settings page loaded");</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>greg</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>shannon</t>
+  </si>
+  <si>
+    <t>lilith</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>125</v>
@@ -1522,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>126</v>
@@ -1574,7 +1589,7 @@
         <v>255</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>128</v>
@@ -1591,7 +1606,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1603,21 +1618,21 @@
         <v>1</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1629,105 +1644,102 @@
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
       <c r="K29" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>1</v>
+      <c r="G30" t="s">
+        <v>43</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1756,36 +1768,42 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
       <c r="K32" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>132</v>
@@ -1802,56 +1820,65 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>24</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1859,7 +1886,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1873,13 +1900,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1887,24 +1914,21 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -1921,97 +1945,97 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>55</v>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
       </c>
       <c r="F43">
         <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>110</v>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -2023,138 +2047,137 @@
         <v>1</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="K50" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
       <c r="K51" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" t="s">
-        <v>174</v>
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
       <c r="K52" s="4" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53">
-        <v>255</v>
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>184</v>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>231</v>
+      <c r="K54" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
         <v>255</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="5" t="s">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>223</v>
       </c>
       <c r="C58" t="s">
         <v>206</v>
@@ -2172,13 +2195,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2191,36 +2211,36 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>209</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>205</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62">
-        <v>200</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2233,36 +2253,36 @@
       <c r="M62"/>
       <c r="N62"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>205</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65">
-        <v>200</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2275,38 +2295,41 @@
       <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>183</v>
       </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67">
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
         <v>100</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>205</v>
-      </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="I68">
         <v>1</v>
       </c>
       <c r="K68"/>
@@ -2316,13 +2339,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2335,118 +2355,126 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>200</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>23</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71">
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
         <v>50</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
         <v>121</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L72" t="s">
         <v>122</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M72" t="s">
         <v>121</v>
-      </c>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72">
-        <v>3</v>
       </c>
       <c r="N72"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="K73" t="s">
-        <v>190</v>
-      </c>
-      <c r="L73" t="s">
-        <v>190</v>
-      </c>
-      <c r="M73" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
       </c>
       <c r="N73"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
-      <c r="K74">
-        <v>123</v>
-      </c>
-      <c r="L74">
-        <v>234</v>
-      </c>
-      <c r="M74">
-        <v>345</v>
+      <c r="K74" t="s">
+        <v>190</v>
+      </c>
+      <c r="L74" t="s">
+        <v>190</v>
+      </c>
+      <c r="M74" t="s">
+        <v>200</v>
       </c>
       <c r="N74"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
-      <c r="M75"/>
+      <c r="K75">
+        <v>123</v>
+      </c>
+      <c r="L75">
+        <v>234</v>
+      </c>
+      <c r="M75">
+        <v>345</v>
+      </c>
       <c r="N75"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
@@ -2459,79 +2487,76 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M77"/>
       <c r="N77"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="M78"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N78"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
         <v>0</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>25</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81">
-        <v>50</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="M81"/>
-      <c r="N81"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -2547,13 +2572,13 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2563,10 +2588,13 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>13</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2576,66 +2604,55 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85"/>
       <c r="N85"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
         <v>0</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>25</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88">
-        <v>50</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L88" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M88" t="s">
-        <v>197</v>
-      </c>
-      <c r="N88"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2647,43 +2664,43 @@
         <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N89"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M90">
-        <v>790790790</v>
+        <v>135</v>
+      </c>
+      <c r="M90" t="s">
+        <v>198</v>
       </c>
       <c r="N90"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2695,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M91">
-        <v>210210210</v>
+        <v>790790790</v>
       </c>
       <c r="N91"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -2719,114 +2736,122 @@
         <v>0</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M92">
-        <v>210210211</v>
+        <v>210210210</v>
       </c>
       <c r="N92"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>199</v>
+        <v>0</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M93">
+        <v>210210211</v>
       </c>
       <c r="N93"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M94"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="N94"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>23</v>
       </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97">
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
         <v>50</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M98"/>
-      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
@@ -2835,36 +2860,36 @@
         <v>1</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>220</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>24</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="M101"/>
-      <c r="N101"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>100</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2874,15 +2899,15 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="I103">
         <v>1</v>
       </c>
       <c r="M103"/>
@@ -2890,110 +2915,114 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F104">
         <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105"/>
       <c r="N105"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
+        <v>185</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106"/>
       <c r="N106"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
       <c r="M107"/>
       <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
         <v>22</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M108"/>
       <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>40</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>33</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="N109"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="N110"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>211</v>
-      </c>
-      <c r="C111" t="s">
-        <v>213</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="N111"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>212</v>
       </c>
       <c r="C112" t="s">
         <v>213</v>
@@ -3005,28 +3034,25 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3035,28 +3061,28 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N115"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -3065,64 +3091,64 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>218</v>
       </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117">
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
         <v>100</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="N117"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="N118"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>23</v>
       </c>
-      <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119">
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
         <v>50</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L119" s="4" t="s">
+      <c r="L120" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M119" s="4" t="s">
+      <c r="M120" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="N119"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
       </c>
       <c r="N120"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -3137,103 +3163,103 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="F122">
         <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>45</v>
       </c>
       <c r="N122"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
       <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>45</v>
       </c>
       <c r="N123"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="N124"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>91</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>24</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="K125" s="4">
-        <v>1</v>
-      </c>
-      <c r="L125" s="4">
-        <v>1</v>
-      </c>
-      <c r="M125" s="4">
-        <v>1</v>
-      </c>
-      <c r="N125"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126">
-        <v>75</v>
-      </c>
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>106</v>
+      <c r="K126" s="4">
+        <v>1</v>
+      </c>
+      <c r="L126" s="4">
+        <v>1</v>
+      </c>
+      <c r="M126" s="4">
+        <v>1</v>
       </c>
       <c r="N126"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N127"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
@@ -3248,97 +3274,100 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>40</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>33</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="N129"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="N130"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>32</v>
-      </c>
-      <c r="C131" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="K131" s="4">
-        <v>1</v>
-      </c>
-      <c r="L131" s="4">
-        <v>1</v>
-      </c>
-      <c r="M131" s="4">
-        <v>1</v>
-      </c>
-      <c r="N131"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>92</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4">
+        <v>1</v>
+      </c>
+      <c r="M132" s="4">
+        <v>1</v>
       </c>
       <c r="N132"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M133" s="4" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N133"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N134"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
@@ -3350,49 +3379,46 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="N136"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>40</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>33</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="N136"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="N137"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>23</v>
       </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138">
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
         <v>50</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="N138"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139">
-        <v>100</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3401,16 +3427,22 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
       </c>
       <c r="N140"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C141" t="s">
         <v>20</v>
@@ -3419,67 +3451,64 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C142" t="s">
         <v>20</v>
       </c>
       <c r="N142"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>97</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="N143"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>187</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>24</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="N144"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>189</v>
-      </c>
-      <c r="C145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145">
-        <v>50</v>
-      </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>50</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
       </c>
       <c r="N146"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
         <v>20</v>
       </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
       <c r="N147"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C148" t="s">
         <v>20</v>
@@ -3490,27 +3519,24 @@
       <c r="N148"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
       <c r="N149"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="N150"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150">
-        <v>250</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="N150"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>51</v>
       </c>
@@ -4310,14 +4336,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K53" r:id="rId1"/>
-    <hyperlink ref="K55" r:id="rId2"/>
+    <hyperlink ref="K54" r:id="rId1"/>
+    <hyperlink ref="K56" r:id="rId2"/>
     <hyperlink ref="K25" r:id="rId3"/>
     <hyperlink ref="L25" r:id="rId4"/>
     <hyperlink ref="M25" r:id="rId5"/>
-    <hyperlink ref="K93" r:id="rId6"/>
-    <hyperlink ref="L93" r:id="rId7"/>
-    <hyperlink ref="M93" r:id="rId8"/>
+    <hyperlink ref="K94" r:id="rId6"/>
+    <hyperlink ref="L94" r:id="rId7"/>
+    <hyperlink ref="M94" r:id="rId8"/>
     <hyperlink ref="N25" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17520" windowHeight="4980"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="26535" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="288">
   <si>
     <t>field</t>
   </si>
@@ -757,6 +757,129 @@
   </si>
   <si>
     <t>lilith</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>asset_type</t>
+  </si>
+  <si>
+    <t>asset_sub_type</t>
+  </si>
+  <si>
+    <t>asset_description</t>
+  </si>
+  <si>
+    <t>asset_sub_description</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>pole_length</t>
+  </si>
+  <si>
+    <t>asset_type_id</t>
+  </si>
+  <si>
+    <t>asset_sub_type_id</t>
+  </si>
+  <si>
+    <t>asset_description_id</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t>OTHER ASSETS</t>
+  </si>
+  <si>
+    <t>2013-03-30 08:15:00</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>ELECTRICITY</t>
+  </si>
+  <si>
+    <t>ROAD SIGNS</t>
+  </si>
+  <si>
+    <t>FURNITURE &amp; FITTNGS</t>
+  </si>
+  <si>
+    <t>MOTOR VEHICLES</t>
+  </si>
+  <si>
+    <t>OFFICE EQUIPMENT</t>
+  </si>
+  <si>
+    <t>COMPUTER EQUIPMENT</t>
+  </si>
+  <si>
+    <t>PLANT &amp; MACHINERY</t>
+  </si>
+  <si>
+    <t>RESERVOIR</t>
+  </si>
+  <si>
+    <t>WATERTANK</t>
+  </si>
+  <si>
+    <t>WATERTANK ON STAND</t>
+  </si>
+  <si>
+    <t>WOODEN POLE</t>
+  </si>
+  <si>
+    <t>PALLISADE FENCE</t>
+  </si>
+  <si>
+    <t>POLE NO LIGHT</t>
+  </si>
+  <si>
+    <t>STREET LIGHT</t>
+  </si>
+  <si>
+    <t>REGULATORY SIGN</t>
+  </si>
+  <si>
+    <t>WARNING SIGN</t>
+  </si>
+  <si>
+    <t>INFORMATION SIGN</t>
+  </si>
+  <si>
+    <t>STEEL</t>
+  </si>
+  <si>
+    <t>CEMENT</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>ASBESTOR</t>
+  </si>
+  <si>
+    <t>6M AND LESS</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>14M</t>
+  </si>
+  <si>
+    <t>25M</t>
+  </si>
+  <si>
+    <t>MORE THAN 25M</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T206"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,16 +1457,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1351,28 +1474,21 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1380,366 +1496,402 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="F15">
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" t="s">
         <v>255</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>40</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27">
-        <v>40</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1751,201 +1903,172 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>250</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>250</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
         <v>22</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40">
-        <v>23</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
@@ -1954,176 +2077,267 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>250</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>21</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>40</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>33</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" t="s">
-        <v>174</v>
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="K53" s="4" t="s">
-        <v>179</v>
+        <v>127</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2132,409 +2346,462 @@
         <v>255</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>184</v>
+        <v>128</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
       </c>
       <c r="D56">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>113</v>
+      <c r="K56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="K58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="K62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
       </c>
       <c r="D66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
       </c>
       <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
         <v>100</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70">
-        <v>200</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="K72" t="s">
-        <v>121</v>
-      </c>
-      <c r="L72" t="s">
-        <v>122</v>
-      </c>
-      <c r="M72" t="s">
-        <v>121</v>
-      </c>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <v>3</v>
-      </c>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74">
-        <v>250</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>190</v>
-      </c>
-      <c r="L74" t="s">
-        <v>190</v>
-      </c>
-      <c r="M74" t="s">
-        <v>200</v>
-      </c>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>123</v>
-      </c>
-      <c r="L75">
-        <v>234</v>
-      </c>
-      <c r="M75">
-        <v>345</v>
-      </c>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="M77"/>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="K78" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N78"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="M79"/>
-      <c r="N79"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>33</v>
@@ -2548,377 +2815,347 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="M80"/>
-      <c r="N80"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="M83"/>
-      <c r="N83"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="M84"/>
-      <c r="N84"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="M85"/>
-      <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" t="s">
-        <v>22</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="M86"/>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="M87"/>
-      <c r="N87"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M89" t="s">
-        <v>197</v>
-      </c>
-      <c r="N89"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
       <c r="K90" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M90" t="s">
-        <v>198</v>
-      </c>
-      <c r="N90"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
         <v>20</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L91" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M91">
-        <v>790790790</v>
-      </c>
-      <c r="N91"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92">
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M92">
-        <v>210210210</v>
-      </c>
-      <c r="N92"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93">
-        <v>20</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M93">
-        <v>210210211</v>
-      </c>
-      <c r="N93"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
         <v>255</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="N94"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" t="s">
-        <v>24</v>
-      </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M95"/>
-      <c r="N95"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="M96"/>
-      <c r="N96"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>200</v>
       </c>
       <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>182</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M100"/>
-      <c r="N100"/>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>200</v>
       </c>
       <c r="F102">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="K102"/>
+      <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103">
-        <v>100</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="M103"/>
-      <c r="N103"/>
-    </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2926,625 +3163,742 @@
       <c r="I104">
         <v>1</v>
       </c>
+      <c r="K104"/>
+      <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>200</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" t="s">
-        <v>185</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="M106"/>
-      <c r="N106"/>
-    </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>100</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="F108">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="K108"/>
+      <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>200</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110" t="s">
-        <v>33</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="N110"/>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>50</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>121</v>
+      </c>
+      <c r="L111" t="s">
+        <v>122</v>
+      </c>
+      <c r="M111" t="s">
+        <v>121</v>
+      </c>
+      <c r="N111"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="C112" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F112">
         <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
       </c>
       <c r="N112"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>250</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L113" t="s">
+        <v>190</v>
+      </c>
+      <c r="M113" t="s">
+        <v>200</v>
       </c>
       <c r="N113"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F114">
         <v>0</v>
+      </c>
+      <c r="K114">
+        <v>123</v>
+      </c>
+      <c r="L114">
+        <v>234</v>
+      </c>
+      <c r="M114">
+        <v>345</v>
       </c>
       <c r="N114"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
+      <c r="M115"/>
       <c r="N115"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F116">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M116"/>
       <c r="N116"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F117">
         <v>1</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="N117"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F118">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
         <v>50</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N120"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>85</v>
-      </c>
-      <c r="C121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
       <c r="F121">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M121"/>
       <c r="N121"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M122"/>
       <c r="N122"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M123"/>
       <c r="N123"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>40</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>33</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="N124"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>24</v>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="K126" s="4">
-        <v>1</v>
-      </c>
-      <c r="L126" s="4">
-        <v>1</v>
-      </c>
-      <c r="M126" s="4">
-        <v>1</v>
-      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="M126"/>
       <c r="N126"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127">
-        <v>75</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M127" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N127"/>
-    </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M128" t="s">
+        <v>197</v>
       </c>
       <c r="N128"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M129" t="s">
+        <v>198</v>
       </c>
       <c r="N129"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M130">
+        <v>790790790</v>
       </c>
       <c r="N130"/>
     </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M131">
+        <v>210210210</v>
+      </c>
+      <c r="N131"/>
+    </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B132" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
       </c>
       <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
-      </c>
-      <c r="L132" s="4">
-        <v>1</v>
-      </c>
-      <c r="M132" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M132">
+        <v>210210211</v>
       </c>
       <c r="N132"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="N133"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M134" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M134"/>
       <c r="N134"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="M135"/>
+      <c r="N135"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>50</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
         <v>24</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="N135"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>73</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M138"/>
+      <c r="N138"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" t="s">
         <v>24</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="N136"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>40</v>
-      </c>
-      <c r="C137" t="s">
-        <v>33</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="N137"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B139" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139">
-        <v>50</v>
-      </c>
       <c r="F139">
         <v>1</v>
       </c>
+      <c r="K139" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M139"/>
       <c r="N139"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140">
-        <v>100</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="N140"/>
-    </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="M141"/>
       <c r="N141"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>100</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="M142"/>
       <c r="N142"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
         <v>20</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="M143"/>
       <c r="N143"/>
     </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+    </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E145" t="s">
+        <v>185</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
+      <c r="M145"/>
       <c r="N145"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="M146"/>
       <c r="N146"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="M147"/>
       <c r="N147"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
       </c>
       <c r="N148"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
       </c>
       <c r="N149"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N150"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -3553,182 +3907,206 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153"/>
     </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>215</v>
+      </c>
+      <c r="C154" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="N154"/>
+    </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
       </c>
       <c r="D155">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
       </c>
       <c r="D156">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>117</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>100</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>118</v>
-      </c>
-      <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158">
-        <v>20</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="N158"/>
-    </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>50</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="M159"/>
+        <v>1</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="N159"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
       </c>
       <c r="D160">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
-      <c r="M160"/>
       <c r="N160"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
       </c>
       <c r="D161">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
-      <c r="M161"/>
       <c r="N161"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="M162"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>45</v>
+      </c>
       <c r="N162"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="M163"/>
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="N163"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>40</v>
-      </c>
-      <c r="C164" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="M164"/>
-      <c r="N164"/>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B165" t="s">
+        <v>91</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1</v>
+      </c>
+      <c r="L165" s="4">
+        <v>1</v>
+      </c>
+      <c r="M165" s="4">
+        <v>1</v>
+      </c>
+      <c r="N165"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B166" t="s">
         <v>23</v>
       </c>
@@ -3736,50 +4114,50 @@
         <v>12</v>
       </c>
       <c r="D166">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M166"/>
+        <v>105</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="N166"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
       </c>
       <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L167" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M167"/>
+        <v>0</v>
+      </c>
       <c r="N167"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
-      <c r="M168"/>
       <c r="N168"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -3798,48 +4176,42 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="M169"/>
       <c r="N169"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
-      <c r="K171" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M171"/>
+      <c r="K171" s="4">
+        <v>1</v>
+      </c>
+      <c r="L171" s="4">
+        <v>1</v>
+      </c>
+      <c r="M171" s="4">
+        <v>1</v>
+      </c>
       <c r="N171"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M172"/>
+        <v>0</v>
+      </c>
       <c r="N172"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -3850,501 +4222,1002 @@
         <v>12</v>
       </c>
       <c r="D173">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M173"/>
+        <v>107</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="N173"/>
     </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>72</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="N174"/>
+    </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F175">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N175"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D176">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>195</v>
-      </c>
-      <c r="C177" t="s">
-        <v>196</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="N176"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>50</v>
       </c>
       <c r="F178">
         <v>1</v>
       </c>
+      <c r="N178"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>100</v>
       </c>
       <c r="F179">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N179"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N180"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>96</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B182" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182">
-        <v>40</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>226</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183">
-        <v>250</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N182"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
+      <c r="N184"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
+      <c r="N185"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
         <v>20</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
+      <c r="N186"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="N187"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="N188"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N189"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B190" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
       </c>
       <c r="D190">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
-      <c r="M190"/>
       <c r="N190"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191" t="s">
-        <v>157</v>
-      </c>
-      <c r="K191"/>
-      <c r="L191"/>
-      <c r="M191"/>
+        <v>0</v>
+      </c>
       <c r="N191"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="K192"/>
-      <c r="L192"/>
-      <c r="M192"/>
+        <v>1</v>
+      </c>
       <c r="N192"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>163</v>
-      </c>
-      <c r="C193" t="s">
-        <v>24</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="K193"/>
-      <c r="L193"/>
-      <c r="M193"/>
-      <c r="N193"/>
-    </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B194" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C194" t="s">
-        <v>164</v>
-      </c>
-      <c r="D194" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>250</v>
       </c>
       <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="K194"/>
-      <c r="L194"/>
-      <c r="M194"/>
+        <v>0</v>
+      </c>
       <c r="N194"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C195" t="s">
-        <v>164</v>
-      </c>
-      <c r="D195" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>250</v>
       </c>
       <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="K195"/>
-      <c r="L195"/>
-      <c r="M195"/>
+        <v>0</v>
+      </c>
       <c r="N195"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="K196"/>
-      <c r="L196"/>
-      <c r="M196"/>
+        <v>0</v>
+      </c>
       <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
-      <c r="K197"/>
-      <c r="L197"/>
-      <c r="M197"/>
       <c r="N197"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="K198"/>
-      <c r="L198"/>
+        <v>0</v>
+      </c>
       <c r="M198"/>
       <c r="N198"/>
     </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>120</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>32</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="M199"/>
+      <c r="N199"/>
+    </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B200" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>50</v>
       </c>
       <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="K200"/>
-      <c r="L200"/>
+        <v>0</v>
+      </c>
       <c r="M200"/>
       <c r="N200"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="K201"/>
-      <c r="L201"/>
+        <v>1</v>
+      </c>
       <c r="M201"/>
       <c r="N201"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="K202"/>
-      <c r="L202"/>
+        <v>0</v>
+      </c>
       <c r="M202"/>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>164</v>
-      </c>
-      <c r="D203" t="s">
-        <v>175</v>
+        <v>33</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
       </c>
       <c r="F203">
         <v>1</v>
       </c>
       <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="K203"/>
-      <c r="L203"/>
+        <v>0</v>
+      </c>
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>172</v>
-      </c>
-      <c r="C204" t="s">
-        <v>24</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
-    </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205"/>
+      <c r="A205" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B205" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="C205" t="s">
-        <v>164</v>
-      </c>
-      <c r="D205" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>50</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="K205"/>
-      <c r="L205"/>
+      <c r="K205" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="M205"/>
       <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206"/>
       <c r="B206" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>164</v>
-      </c>
-      <c r="D206" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
-      <c r="K206"/>
-      <c r="L206"/>
+      <c r="K206" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="M206"/>
       <c r="N206"/>
     </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="M207"/>
+      <c r="N207"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="M208"/>
+      <c r="N208"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B210" t="s">
+        <v>159</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M210"/>
+      <c r="N210"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>160</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M211"/>
+      <c r="N211"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>50</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M212"/>
+      <c r="N212"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>50</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>40</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" t="s">
+        <v>196</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>40</v>
+      </c>
+      <c r="C219" t="s">
+        <v>33</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>40</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>250</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>250</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>250</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>40</v>
+      </c>
+      <c r="C227" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229" t="s">
+        <v>155</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>30</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="M229"/>
+      <c r="N229"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>35</v>
+      </c>
+      <c r="E230" t="s">
+        <v>156</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>157</v>
+      </c>
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>42</v>
+      </c>
+      <c r="C231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>163</v>
+      </c>
+      <c r="C232" t="s">
+        <v>24</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="N232"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>173</v>
+      </c>
+      <c r="C233" t="s">
+        <v>164</v>
+      </c>
+      <c r="D233" t="s">
+        <v>171</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="N233"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" t="s">
+        <v>164</v>
+      </c>
+      <c r="D234" t="s">
+        <v>165</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="N235"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="N236"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>40</v>
+      </c>
+      <c r="C237" t="s">
+        <v>33</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="N237"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B239" t="s">
+        <v>167</v>
+      </c>
+      <c r="C239" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="N239"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="N240"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>169</v>
+      </c>
+      <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241">
+        <v>50</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="N241"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>170</v>
+      </c>
+      <c r="C242" t="s">
+        <v>164</v>
+      </c>
+      <c r="D242" t="s">
+        <v>175</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="N242"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>172</v>
+      </c>
+      <c r="C243" t="s">
+        <v>24</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="N243"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+      <c r="B244" t="s">
+        <v>173</v>
+      </c>
+      <c r="C244" t="s">
+        <v>164</v>
+      </c>
+      <c r="D244" t="s">
+        <v>171</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="N244"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+      <c r="B245" t="s">
+        <v>176</v>
+      </c>
+      <c r="C245" t="s">
+        <v>164</v>
+      </c>
+      <c r="D245" t="s">
+        <v>171</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="N245"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K54" r:id="rId1"/>
-    <hyperlink ref="K56" r:id="rId2"/>
-    <hyperlink ref="K25" r:id="rId3"/>
-    <hyperlink ref="L25" r:id="rId4"/>
-    <hyperlink ref="M25" r:id="rId5"/>
-    <hyperlink ref="K94" r:id="rId6"/>
-    <hyperlink ref="L94" r:id="rId7"/>
-    <hyperlink ref="M94" r:id="rId8"/>
-    <hyperlink ref="N25" r:id="rId9"/>
+    <hyperlink ref="K93" r:id="rId1"/>
+    <hyperlink ref="K95" r:id="rId2"/>
+    <hyperlink ref="K54" r:id="rId3"/>
+    <hyperlink ref="L54" r:id="rId4"/>
+    <hyperlink ref="M54" r:id="rId5"/>
+    <hyperlink ref="K133" r:id="rId6"/>
+    <hyperlink ref="L133" r:id="rId7"/>
+    <hyperlink ref="M133" r:id="rId8"/>
+    <hyperlink ref="N54" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="329">
   <si>
     <t>field</t>
   </si>
@@ -1365,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U306"/>
+  <dimension ref="A1:U309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>283</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>284</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>285</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>286</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>253</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>254</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>255</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>287</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>292</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>291</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>290</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>293</v>
       </c>
@@ -3183,402 +3183,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B113" t="s">
         <v>25</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
         <v>100</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="K110" s="4" t="s">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="L113" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="M113" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N110" s="4" t="s">
+      <c r="N113" s="4" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111">
-        <v>100</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="K111" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N111" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>13</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L112" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N112" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
-      <c r="K115" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>202</v>
+      <c r="K115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N118" s="4" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>40</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>40</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
         <v>1</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>230</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
       <c r="K122" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
+        <v>36</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
+      <c r="G123" t="s">
+        <v>43</v>
+      </c>
       <c r="K123" s="4" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
         <v>1</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
         <v>33</v>
@@ -3590,104 +3554,137 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F127">
         <v>1</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
         <v>100</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129">
-        <v>255</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130">
-        <v>20</v>
-      </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3695,83 +3692,83 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
         <v>20</v>
       </c>
       <c r="F133">
         <v>0</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>21</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C137" t="s">
         <v>22</v>
       </c>
-      <c r="D134">
+      <c r="D137">
         <v>100</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>42</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C140" t="s">
         <v>24</v>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>49</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138">
-        <v>100</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>50</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139">
-        <v>100</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>51</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140">
-        <v>23</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -3779,148 +3776,142 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F141">
         <v>1</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F142">
         <v>1</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>23</v>
       </c>
       <c r="F143">
         <v>1</v>
-      </c>
-      <c r="G143" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" t="s">
+        <v>33</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>21</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C147" t="s">
         <v>22</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>47</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>22</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>40</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C149" t="s">
         <v>33</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B151" t="s">
         <v>57</v>
-      </c>
-      <c r="C148" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="K148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>58</v>
-      </c>
-      <c r="C149" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149">
-        <v>20</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>59</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150">
-        <v>20</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>163</v>
       </c>
       <c r="C151" t="s">
         <v>24</v>
@@ -3928,170 +3919,176 @@
       <c r="F151">
         <v>1</v>
       </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>20</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>60</v>
       </c>
-      <c r="C152" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152">
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
         <v>5</v>
       </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="K152" s="4" t="s">
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>178</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>164</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D156" t="s">
         <v>174</v>
       </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="K153" s="4" t="s">
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>98</v>
       </c>
-      <c r="C154" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154">
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157">
         <v>255</v>
       </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="K154" s="5" t="s">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="K157" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>99</v>
       </c>
-      <c r="C155" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155">
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158">
         <v>20</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="K155" s="4" t="s">
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>61</v>
       </c>
-      <c r="C156" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156">
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
         <v>255</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="K156" s="5" t="s">
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="K159" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B161" t="s">
         <v>64</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>206</v>
       </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>223</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>206</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160">
-        <v>200</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="K160"/>
-      <c r="L160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B162" t="s">
-        <v>209</v>
-      </c>
-      <c r="C162" t="s">
-        <v>205</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4127,10 +4124,10 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C165" t="s">
         <v>205</v>
@@ -4169,18 +4166,18 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="I168">
         <v>1</v>
       </c>
       <c r="K168"/>
@@ -4190,10 +4187,13 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C169" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>200</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4206,176 +4206,168 @@
       <c r="M169"/>
       <c r="N169"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>65</v>
-      </c>
-      <c r="C170" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170">
-        <v>200</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="K170"/>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>100</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="K172" t="s">
-        <v>121</v>
-      </c>
-      <c r="L172" t="s">
-        <v>122</v>
-      </c>
-      <c r="M172" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
       <c r="N172"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C173" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>200</v>
       </c>
       <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173">
-        <v>2</v>
-      </c>
-      <c r="M173">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
       <c r="N173"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>70</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174">
-        <v>250</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="K174" t="s">
-        <v>190</v>
-      </c>
-      <c r="L174" t="s">
-        <v>190</v>
-      </c>
-      <c r="M174" t="s">
-        <v>200</v>
-      </c>
-      <c r="N174"/>
-    </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B175" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>123</v>
-      </c>
-      <c r="L175">
-        <v>234</v>
-      </c>
-      <c r="M175">
-        <v>345</v>
+        <v>1</v>
+      </c>
+      <c r="K175" t="s">
+        <v>121</v>
+      </c>
+      <c r="L175" t="s">
+        <v>122</v>
+      </c>
+      <c r="M175" t="s">
+        <v>121</v>
       </c>
       <c r="N175"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="M176"/>
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>3</v>
+      </c>
       <c r="N176"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D177">
+        <v>250</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
-      <c r="M177"/>
+      <c r="K177" t="s">
+        <v>190</v>
+      </c>
+      <c r="L177" t="s">
+        <v>190</v>
+      </c>
+      <c r="M177" t="s">
+        <v>200</v>
+      </c>
       <c r="N177"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>10</v>
       </c>
       <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L178" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M178" s="4" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>123</v>
+      </c>
+      <c r="L178">
+        <v>234</v>
+      </c>
+      <c r="M178">
+        <v>345</v>
       </c>
       <c r="N178"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -4385,80 +4377,82 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
         <v>0</v>
       </c>
       <c r="M180"/>
       <c r="N180"/>
     </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N181"/>
+    </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M182"/>
       <c r="N182"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D183">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F183">
         <v>1</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
       </c>
       <c r="M183"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184">
-        <v>13</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="M184"/>
-      <c r="N184"/>
-    </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B185" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>50</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4468,276 +4462,286 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>50</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186"/>
       <c r="N186"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F187">
         <v>1</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
       </c>
       <c r="M187"/>
       <c r="N187"/>
     </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="M188"/>
+      <c r="N188"/>
+    </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L189" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M189" t="s">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M189"/>
       <c r="N189"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="M190"/>
+      <c r="N190"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
         <v>50</v>
       </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="K190" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L190" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M190" t="s">
-        <v>198</v>
-      </c>
-      <c r="N190"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191">
-        <v>20</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="K191" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L191" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M191">
-        <v>790790790</v>
-      </c>
-      <c r="N191"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>77</v>
-      </c>
-      <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192">
-        <v>20</v>
-      </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M192">
-        <v>210210210</v>
+        <v>134</v>
+      </c>
+      <c r="M192" t="s">
+        <v>197</v>
       </c>
       <c r="N192"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M193">
-        <v>210210211</v>
+        <v>135</v>
+      </c>
+      <c r="M193" t="s">
+        <v>198</v>
       </c>
       <c r="N193"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="K194" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L194" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M194" s="6" t="s">
-        <v>199</v>
+        <v>0</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M194">
+        <v>790790790</v>
       </c>
       <c r="N194"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M195"/>
+        <v>149</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M195">
+        <v>210210210</v>
+      </c>
       <c r="N195"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="M196"/>
+        <v>0</v>
+      </c>
+      <c r="K196" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L196" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M196">
+        <v>210210211</v>
+      </c>
       <c r="N196"/>
     </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="K197" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L197" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M197" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N197"/>
+    </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B198" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M198"/>
+      <c r="N198"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
-      <c r="K199" s="4" t="s">
-        <v>133</v>
+      <c r="G199">
+        <v>0</v>
       </c>
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>182</v>
-      </c>
-      <c r="C200" t="s">
-        <v>24</v>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M200"/>
-      <c r="N200"/>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>50</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B202" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -4745,63 +4749,53 @@
       <c r="F202">
         <v>1</v>
       </c>
+      <c r="K202" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="M202"/>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F203">
         <v>1</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
-        <v>82</v>
-      </c>
-      <c r="C204" t="s">
-        <v>20</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="I204">
-        <v>1</v>
-      </c>
-      <c r="M204"/>
-      <c r="N204"/>
-    </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B205" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205"/>
       <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
-      </c>
-      <c r="E206" t="s">
-        <v>185</v>
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>100</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -4811,129 +4805,129 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="C207" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
-      <c r="G207">
-        <v>0</v>
+      <c r="I207">
+        <v>1</v>
       </c>
       <c r="M207"/>
       <c r="N207"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M208"/>
       <c r="N208"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E209" t="s">
+        <v>185</v>
       </c>
       <c r="F209">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M209"/>
       <c r="N209"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
+      <c r="M210"/>
       <c r="N210"/>
     </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="M211"/>
+      <c r="N211"/>
+    </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N212"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="C213" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="N213"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+      <c r="C215" t="s">
         <v>213</v>
       </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="N213"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214">
-        <v>100</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="N214"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215">
-        <v>12</v>
-      </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N215"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4942,295 +4936,292 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N217"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N218"/>
     </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="N219"/>
+    </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B220" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
       </c>
       <c r="D220">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F220">
         <v>1</v>
-      </c>
-      <c r="K220" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="N220"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>86</v>
-      </c>
-      <c r="C222" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222">
-        <v>2</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="N222"/>
-    </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B223" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>50</v>
       </c>
       <c r="F223">
-        <v>0</v>
-      </c>
-      <c r="H223" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M223" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="N223"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="N224"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>86</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="N225"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>87</v>
+      </c>
+      <c r="C226" t="s">
         <v>33</v>
       </c>
-      <c r="D224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="N224"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B226" t="s">
-        <v>91</v>
-      </c>
-      <c r="C226" t="s">
-        <v>24</v>
-      </c>
       <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="K226" s="4">
-        <v>1</v>
-      </c>
-      <c r="L226" s="4">
-        <v>1</v>
-      </c>
-      <c r="M226" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>45</v>
       </c>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D227">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
-      <c r="K227" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L227" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M227" s="4" t="s">
-        <v>106</v>
+      <c r="G227">
+        <v>0</v>
       </c>
       <c r="N227"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>89</v>
-      </c>
-      <c r="C228" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228">
-        <v>2</v>
-      </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-      <c r="N228"/>
-    </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B229" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1</v>
+      </c>
+      <c r="L229" s="4">
+        <v>1</v>
+      </c>
+      <c r="M229" s="4">
+        <v>1</v>
       </c>
       <c r="N229"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
-      <c r="G230">
-        <v>0</v>
+      <c r="K230" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L230" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M230" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N230"/>
     </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="N231"/>
+    </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
       </c>
       <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="K232" s="4">
-        <v>1</v>
-      </c>
-      <c r="L232" s="4">
-        <v>1</v>
-      </c>
-      <c r="M232" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N232"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
       </c>
       <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
         <v>0</v>
       </c>
       <c r="N233"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
-        <v>23</v>
-      </c>
-      <c r="C234" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234">
-        <v>100</v>
-      </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L234" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M234" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N234"/>
-    </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K235" s="4">
+        <v>1</v>
+      </c>
+      <c r="L235" s="4">
+        <v>1</v>
+      </c>
+      <c r="M235" s="4">
+        <v>1</v>
       </c>
       <c r="N235"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C236" t="s">
         <v>24</v>
@@ -5242,202 +5233,220 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C237" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
-      <c r="G237">
-        <v>0</v>
+      <c r="K237" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L237" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M237" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N237"/>
     </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>72</v>
+      </c>
+      <c r="C238" t="s">
+        <v>24</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="N238"/>
+    </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B239" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N239"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C240" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D240">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
       <c r="N240"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>95</v>
-      </c>
-      <c r="C241" t="s">
-        <v>20</v>
-      </c>
-      <c r="N241"/>
-    </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B242" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D242">
+        <v>50</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
       </c>
       <c r="N242"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="N243"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>95</v>
+      </c>
+      <c r="C244" t="s">
         <v>20</v>
       </c>
-      <c r="N243"/>
+      <c r="N244"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B245" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N245"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246">
-        <v>50</v>
-      </c>
-      <c r="F246">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N246"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
-        <v>188</v>
-      </c>
-      <c r="C247" t="s">
-        <v>20</v>
-      </c>
-      <c r="N247"/>
-    </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B248" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C248" t="s">
-        <v>20</v>
-      </c>
-      <c r="I248">
+        <v>24</v>
+      </c>
+      <c r="F248">
         <v>1</v>
       </c>
       <c r="N248"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>50</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="N249"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>188</v>
+      </c>
+      <c r="C250" t="s">
         <v>20</v>
       </c>
-      <c r="I249">
-        <v>1</v>
-      </c>
-      <c r="N249"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N250"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251">
-        <v>50</v>
-      </c>
-      <c r="F251">
+        <v>20</v>
+      </c>
+      <c r="I251">
         <v>1</v>
       </c>
       <c r="N251"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
+        <v>192</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="N252"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N253"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B254" t="s">
+        <v>51</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>50</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="N254"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
         <v>42</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C255" t="s">
         <v>24</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="N252"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>21</v>
-      </c>
-      <c r="C253" t="s">
-        <v>22</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="N253"/>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B255" t="s">
-        <v>115</v>
-      </c>
-      <c r="C255" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255">
-        <v>250</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5446,40 +5455,28 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="C256" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256">
+        <v>22</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="N256"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B258" t="s">
+        <v>115</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258">
         <v>250</v>
-      </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="N256"/>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
-        <v>117</v>
-      </c>
-      <c r="C257" t="s">
-        <v>20</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="N257"/>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>118</v>
-      </c>
-      <c r="C258" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258">
-        <v>20</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -5488,68 +5485,68 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>250</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
-      <c r="M259"/>
       <c r="N259"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C260" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
-      <c r="M260"/>
       <c r="N260"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
-      <c r="M261"/>
       <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M262"/>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C263" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D263">
+        <v>32</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -5559,210 +5556,213 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="C264" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264">
         <v>0</v>
       </c>
       <c r="M264"/>
       <c r="N264"/>
     </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C265" t="s">
+        <v>22</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="M265"/>
+      <c r="N265"/>
+    </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B266" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
-        <v>12</v>
-      </c>
-      <c r="D266">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="K266" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L266" s="4" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="M266"/>
       <c r="N266"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
       </c>
       <c r="F267">
         <v>1</v>
       </c>
-      <c r="K267" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L267" s="4" t="s">
-        <v>140</v>
+      <c r="G267">
+        <v>0</v>
       </c>
       <c r="M267"/>
       <c r="N267"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>47</v>
-      </c>
-      <c r="C268" t="s">
-        <v>22</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="M268"/>
-      <c r="N268"/>
-    </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B269" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C269" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F269">
         <v>1</v>
       </c>
-      <c r="G269">
-        <v>0</v>
+      <c r="K269" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="M269"/>
       <c r="N269"/>
     </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="K270" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L270" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M270"/>
+      <c r="N270"/>
+    </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="B271" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C271" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="K271" s="4" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="M271"/>
       <c r="N271"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F272">
         <v>1</v>
       </c>
-      <c r="K272" s="4" t="s">
-        <v>161</v>
+      <c r="G272">
+        <v>0</v>
       </c>
       <c r="M272"/>
       <c r="N272"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>23</v>
-      </c>
-      <c r="C273" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273">
-        <v>50</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="K273" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M273"/>
-      <c r="N273"/>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B274" t="s">
+        <v>159</v>
+      </c>
+      <c r="C274" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M274"/>
+      <c r="N274"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B275" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C275" t="s">
         <v>12</v>
       </c>
       <c r="D275">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
+      <c r="K275" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M275"/>
+      <c r="N275"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="C276" t="s">
         <v>12</v>
       </c>
       <c r="D276">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
-        <v>195</v>
-      </c>
-      <c r="C277" t="s">
-        <v>196</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>0</v>
-      </c>
+      <c r="K276" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M276"/>
+      <c r="N276"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B278" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C278" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D278">
+        <v>50</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -5770,24 +5770,24 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D279">
+        <v>40</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="C280" t="s">
-        <v>33</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -5796,82 +5796,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>21</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B282" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="C282" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="C283" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D283">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
-        <v>227</v>
-      </c>
-      <c r="C284" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284">
-        <v>250</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
+      <c r="G283">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="B285" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
       </c>
       <c r="D285">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D286">
+        <v>250</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D287">
+        <v>250</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -5879,109 +5882,91 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="C288" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>228</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="F289">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="B290" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
-      <c r="M290"/>
-      <c r="N290"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
-      </c>
-      <c r="E291" t="s">
-        <v>156</v>
+        <v>33</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
       </c>
       <c r="F291">
         <v>1</v>
       </c>
-      <c r="G291" t="s">
-        <v>157</v>
-      </c>
-      <c r="K291"/>
-      <c r="L291"/>
-      <c r="M291"/>
-      <c r="N291"/>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
-        <v>42</v>
-      </c>
-      <c r="C292" t="s">
-        <v>24</v>
-      </c>
-      <c r="F292">
-        <v>0</v>
-      </c>
-      <c r="K292"/>
-      <c r="L292"/>
-      <c r="M292"/>
-      <c r="N292"/>
+      <c r="G291">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B293" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C293" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>30</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-      <c r="K293"/>
-      <c r="L293"/>
       <c r="M293"/>
       <c r="N293"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>164</v>
-      </c>
-      <c r="D294" t="s">
-        <v>171</v>
+        <v>35</v>
+      </c>
+      <c r="E294" t="s">
+        <v>156</v>
       </c>
       <c r="F294">
         <v>1</v>
       </c>
-      <c r="G294">
-        <v>0</v>
+      <c r="G294" t="s">
+        <v>157</v>
       </c>
       <c r="K294"/>
       <c r="L294"/>
@@ -5990,16 +5975,13 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C295" t="s">
-        <v>164</v>
-      </c>
-      <c r="D295" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="F295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K295"/>
       <c r="L295"/>
@@ -6008,12 +5990,15 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
         <v>1</v>
       </c>
       <c r="K296"/>
@@ -6023,12 +6008,18 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="D297" t="s">
+        <v>171</v>
       </c>
       <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
         <v>0</v>
       </c>
       <c r="K297"/>
@@ -6038,37 +6029,46 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C298" t="s">
-        <v>33</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="D298" t="s">
+        <v>165</v>
       </c>
       <c r="F298">
         <v>1</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
       </c>
       <c r="K298"/>
       <c r="L298"/>
       <c r="M298"/>
       <c r="N298"/>
     </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>21</v>
+      </c>
+      <c r="C299" t="s">
+        <v>22</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299"/>
+    </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B300" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C300" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K300"/>
       <c r="L300"/>
@@ -6077,12 +6077,18 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="C301" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
       </c>
       <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
         <v>0</v>
       </c>
       <c r="K301"/>
@@ -6090,38 +6096,17 @@
       <c r="M301"/>
       <c r="N301"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
-        <v>169</v>
-      </c>
-      <c r="C302" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302">
-        <v>50</v>
-      </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-      <c r="K302"/>
-      <c r="L302"/>
-      <c r="M302"/>
-      <c r="N302"/>
-    </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B303" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C303" t="s">
-        <v>164</v>
-      </c>
-      <c r="D303" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
         <v>1</v>
       </c>
       <c r="K303"/>
@@ -6131,7 +6116,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C304" t="s">
         <v>24</v>
@@ -6145,21 +6130,17 @@
       <c r="N304"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A305"/>
       <c r="B305" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C305" t="s">
-        <v>164</v>
-      </c>
-      <c r="D305" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="D305">
+        <v>50</v>
       </c>
       <c r="F305">
         <v>1</v>
-      </c>
-      <c r="G305">
-        <v>0</v>
       </c>
       <c r="K305"/>
       <c r="L305"/>
@@ -6167,17 +6148,19 @@
       <c r="N305"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A306"/>
       <c r="B306" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C306" t="s">
         <v>164</v>
       </c>
       <c r="D306" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
         <v>1</v>
       </c>
       <c r="K306"/>
@@ -6185,17 +6168,73 @@
       <c r="M306"/>
       <c r="N306"/>
     </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>172</v>
+      </c>
+      <c r="C307" t="s">
+        <v>24</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="K307"/>
+      <c r="L307"/>
+      <c r="M307"/>
+      <c r="N307"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308" t="s">
+        <v>173</v>
+      </c>
+      <c r="C308" t="s">
+        <v>164</v>
+      </c>
+      <c r="D308" t="s">
+        <v>171</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="K308"/>
+      <c r="L308"/>
+      <c r="M308"/>
+      <c r="N308"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309" t="s">
+        <v>176</v>
+      </c>
+      <c r="C309" t="s">
+        <v>164</v>
+      </c>
+      <c r="D309" t="s">
+        <v>171</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="N309"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K154" r:id="rId1"/>
-    <hyperlink ref="K156" r:id="rId2"/>
-    <hyperlink ref="K115" r:id="rId3"/>
-    <hyperlink ref="L115" r:id="rId4"/>
-    <hyperlink ref="M115" r:id="rId5"/>
-    <hyperlink ref="K194" r:id="rId6"/>
-    <hyperlink ref="L194" r:id="rId7"/>
-    <hyperlink ref="M194" r:id="rId8"/>
-    <hyperlink ref="N115" r:id="rId9"/>
+    <hyperlink ref="K157" r:id="rId1"/>
+    <hyperlink ref="K159" r:id="rId2"/>
+    <hyperlink ref="K118" r:id="rId3"/>
+    <hyperlink ref="L118" r:id="rId4"/>
+    <hyperlink ref="M118" r:id="rId5"/>
+    <hyperlink ref="K197" r:id="rId6"/>
+    <hyperlink ref="L197" r:id="rId7"/>
+    <hyperlink ref="M197" r:id="rId8"/>
+    <hyperlink ref="N118" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="336">
   <si>
     <t>field</t>
   </si>
@@ -1003,6 +1003,27 @@
   </si>
   <si>
     <t>TECHNICAL SERVICES</t>
+  </si>
+  <si>
+    <t>app_audit_log</t>
+  </si>
+  <si>
+    <t>customer_context</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>Add,Update,Delete</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U309"/>
+  <dimension ref="A1:U316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1397,9 @@
     <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="10" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="10" width="4.85546875" customWidth="1"/>
     <col min="11" max="11" width="17" style="4" customWidth="1"/>
     <col min="12" max="16" width="21.140625" style="4" customWidth="1"/>
     <col min="17" max="20" width="13.28515625" style="4" customWidth="1"/>
@@ -3760,12 +3783,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B139" t="s">
+        <v>330</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
@@ -3776,27 +3813,27 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="E141" t="s">
+        <v>334</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
         <v>50</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
-        <v>100</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -3804,13 +3841,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>51</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -3818,61 +3852,38 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>37</v>
-      </c>
-      <c r="C146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" t="s">
-        <v>54</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -3880,126 +3891,128 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>23</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" t="s">
         <v>33</v>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B151" t="s">
-        <v>57</v>
-      </c>
-      <c r="C151" t="s">
-        <v>24</v>
+      <c r="D151">
+        <v>1</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
-      <c r="K151" s="4">
-        <v>1</v>
+      <c r="G151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>1</v>
       </c>
-      <c r="K152" s="4" t="s">
-        <v>110</v>
+      <c r="G152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="E153" t="s">
+        <v>54</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
-      <c r="K153" s="4" t="s">
-        <v>111</v>
+      <c r="G153" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F154">
         <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
-      </c>
-      <c r="D156" t="s">
-        <v>174</v>
+        <v>33</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4007,172 +4020,172 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="K156" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>98</v>
-      </c>
-      <c r="C157" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157">
-        <v>255</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="K157" s="5" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B158" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
-      <c r="K158" s="4" t="s">
-        <v>231</v>
+      <c r="K158" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
-      <c r="K159" s="5" t="s">
-        <v>113</v>
+      <c r="K159" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>20</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>206</v>
+        <v>24</v>
       </c>
       <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-      <c r="K162"/>
-      <c r="L162"/>
-      <c r="M162"/>
-      <c r="N162"/>
+        <v>1</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163">
-        <v>200</v>
+        <v>164</v>
+      </c>
+      <c r="D163" t="s">
+        <v>174</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-      <c r="K163"/>
-      <c r="L163"/>
-      <c r="M163"/>
-      <c r="N163"/>
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>98</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="C165" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>20</v>
       </c>
       <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-      <c r="K165"/>
-      <c r="L165"/>
-      <c r="M165"/>
-      <c r="N165"/>
+        <v>1</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
       <c r="D166">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="K166"/>
-      <c r="L166"/>
-      <c r="M166"/>
-      <c r="N166"/>
+        <v>1</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4187,13 +4200,10 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4206,30 +4216,33 @@
       <c r="M169"/>
       <c r="N169"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171" t="s">
-        <v>183</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171">
-        <v>100</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="K171"/>
-      <c r="L171"/>
-      <c r="M171"/>
-      <c r="N171"/>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>200</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B172" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C172" t="s">
         <v>205</v>
@@ -4268,226 +4281,224 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
-      </c>
-      <c r="D175">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="K175" t="s">
-        <v>121</v>
-      </c>
-      <c r="L175" t="s">
-        <v>122</v>
-      </c>
-      <c r="M175" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
       <c r="N175"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>200</v>
       </c>
       <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176">
-        <v>2</v>
-      </c>
-      <c r="M176">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
       <c r="N176"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>70</v>
-      </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177">
-        <v>250</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>190</v>
-      </c>
-      <c r="L177" t="s">
-        <v>190</v>
-      </c>
-      <c r="M177" t="s">
-        <v>200</v>
-      </c>
-      <c r="N177"/>
-    </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B178" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
         <v>12</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>123</v>
-      </c>
-      <c r="L178">
-        <v>234</v>
-      </c>
-      <c r="M178">
-        <v>345</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
       <c r="N178"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="K179"/>
+      <c r="L179"/>
       <c r="M179"/>
       <c r="N179"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>200</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="K180"/>
+      <c r="L180"/>
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>21</v>
-      </c>
-      <c r="C181" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="K181" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L181" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M181" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N181"/>
-    </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B182" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D182">
+        <v>50</v>
       </c>
       <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="M182"/>
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>121</v>
+      </c>
+      <c r="L182" t="s">
+        <v>122</v>
+      </c>
+      <c r="M182" t="s">
+        <v>121</v>
+      </c>
       <c r="N182"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="M183"/>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>3</v>
+      </c>
       <c r="N183"/>
     </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>250</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>190</v>
+      </c>
+      <c r="L184" t="s">
+        <v>190</v>
+      </c>
+      <c r="M184" t="s">
+        <v>200</v>
+      </c>
+      <c r="N184"/>
+    </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="M185"/>
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>123</v>
+      </c>
+      <c r="L185">
+        <v>234</v>
+      </c>
+      <c r="M185">
+        <v>345</v>
+      </c>
       <c r="N185"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M186"/>
       <c r="N186"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M187"/>
       <c r="N187"/>
@@ -4502,7 +4513,15 @@
       <c r="F188">
         <v>1</v>
       </c>
-      <c r="M188"/>
+      <c r="K188" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M188" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -4539,7 +4558,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
@@ -4553,15 +4572,7 @@
       <c r="F192">
         <v>1</v>
       </c>
-      <c r="K192" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L192" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M192" t="s">
-        <v>197</v>
-      </c>
+      <c r="M192"/>
       <c r="N192"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -4577,474 +4588,476 @@
       <c r="F193">
         <v>1</v>
       </c>
-      <c r="K193" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L193" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M193" t="s">
-        <v>198</v>
-      </c>
+      <c r="M193"/>
       <c r="N193"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L194" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M194">
-        <v>790790790</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M194"/>
       <c r="N194"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L195" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M195">
-        <v>210210210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M195"/>
       <c r="N195"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
-      </c>
-      <c r="D196">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
-      <c r="K196" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L196" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M196">
-        <v>210210211</v>
-      </c>
+      <c r="M196"/>
       <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D197">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
-      <c r="K197" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L197" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M197" s="6" t="s">
-        <v>199</v>
-      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>44</v>
-      </c>
-      <c r="C198" t="s">
-        <v>24</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="K198" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M198"/>
-      <c r="N198"/>
-    </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="M199"/>
+      <c r="K199" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L199" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M199" t="s">
+        <v>197</v>
+      </c>
       <c r="N199"/>
     </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>50</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="K200" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L200" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M200" t="s">
+        <v>198</v>
+      </c>
+      <c r="N200"/>
+    </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M201">
+        <v>790790790</v>
+      </c>
+      <c r="N201"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>20</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M202"/>
+        <v>149</v>
+      </c>
+      <c r="L202" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M202">
+        <v>210210210</v>
+      </c>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>20</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M203"/>
+        <v>151</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M203">
+        <v>210210211</v>
+      </c>
       <c r="N203"/>
     </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>255</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M204" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N204"/>
+    </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M205"/>
       <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D206">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F206">
         <v>1</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
       </c>
       <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>82</v>
-      </c>
-      <c r="C207" t="s">
-        <v>20</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="I207">
-        <v>1</v>
-      </c>
-      <c r="M207"/>
-      <c r="N207"/>
-    </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B208" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>50</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="M208"/>
-      <c r="N208"/>
+        <v>1</v>
+      </c>
+      <c r="K208" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="F209">
         <v>1</v>
+      </c>
+      <c r="K209" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M209"/>
       <c r="N209"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C210" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>21</v>
-      </c>
-      <c r="C211" t="s">
-        <v>22</v>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="M211"/>
-      <c r="N211"/>
-    </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F212">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M212"/>
       <c r="N212"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
+      <c r="M213"/>
       <c r="N213"/>
     </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>82</v>
+      </c>
+      <c r="C214" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="M214"/>
+      <c r="N214"/>
+    </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="C215" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F215">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M215"/>
       <c r="N215"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="C216" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="E216" t="s">
+        <v>185</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
+      <c r="M216"/>
       <c r="N216"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="M217"/>
       <c r="N217"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M218"/>
       <c r="N218"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>1</v>
       </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
       <c r="N220"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>218</v>
-      </c>
-      <c r="C221" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221">
-        <v>100</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="N221"/>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B222" t="s">
+        <v>211</v>
+      </c>
+      <c r="C222" t="s">
+        <v>213</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="N222"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="C223" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="F223">
         <v>1</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L223" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M223" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="N223"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -5053,13 +5066,13 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5068,62 +5081,53 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
       <c r="N227"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B229" t="s">
-        <v>91</v>
-      </c>
-      <c r="C229" t="s">
-        <v>24</v>
-      </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="K229" s="4">
-        <v>1</v>
-      </c>
-      <c r="L229" s="4">
-        <v>1</v>
-      </c>
-      <c r="M229" s="4">
-        <v>1</v>
-      </c>
-      <c r="N229"/>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>100</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="N228"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B230" t="s">
         <v>23</v>
       </c>
@@ -5131,25 +5135,25 @@
         <v>12</v>
       </c>
       <c r="D230">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N230"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
@@ -5164,7 +5168,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -5179,55 +5183,58 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C233" t="s">
         <v>33</v>
       </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
       <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H233" t="s">
+        <v>45</v>
       </c>
       <c r="N233"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B235" t="s">
-        <v>32</v>
-      </c>
-      <c r="C235" t="s">
-        <v>24</v>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="K235" s="4">
-        <v>1</v>
-      </c>
-      <c r="L235" s="4">
-        <v>1</v>
-      </c>
-      <c r="M235" s="4">
-        <v>1</v>
-      </c>
-      <c r="N235"/>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>40</v>
+      </c>
+      <c r="C234" t="s">
+        <v>33</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="N234"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B236" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C236" t="s">
         <v>24</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K236" s="4">
+        <v>1</v>
+      </c>
+      <c r="L236" s="4">
+        <v>1</v>
+      </c>
+      <c r="M236" s="4">
+        <v>1</v>
       </c>
       <c r="N236"/>
     </row>
@@ -5239,28 +5246,31 @@
         <v>12</v>
       </c>
       <c r="D237">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N237"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
       </c>
       <c r="F238">
         <v>0</v>
@@ -5269,10 +5279,13 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -5299,82 +5312,112 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B242" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C242" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1</v>
+      </c>
+      <c r="L242" s="4">
+        <v>1</v>
+      </c>
+      <c r="M242" s="4">
         <v>1</v>
       </c>
       <c r="N242"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>100</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N244"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
       </c>
       <c r="N245"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
       </c>
       <c r="N246"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B248" t="s">
-        <v>187</v>
-      </c>
-      <c r="C248" t="s">
-        <v>24</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="N248"/>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" t="s">
+        <v>33</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="N247"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B249" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
@@ -5383,288 +5426,258 @@
         <v>50</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N249"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>100</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
       </c>
       <c r="N250"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
       </c>
-      <c r="I251">
-        <v>1</v>
-      </c>
       <c r="N251"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="C252" t="s">
         <v>20</v>
       </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
       <c r="N252"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>97</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
       <c r="N253"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B254" t="s">
-        <v>51</v>
-      </c>
-      <c r="C254" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254">
-        <v>50</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="N254"/>
-    </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="B255" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C255" t="s">
         <v>24</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D256">
+        <v>50</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256"/>
     </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>188</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="N257"/>
+    </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B258" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="C258" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258">
-        <v>250</v>
-      </c>
-      <c r="F258">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
       </c>
       <c r="N258"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C259" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259">
-        <v>250</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
       </c>
       <c r="N259"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
-        <v>117</v>
-      </c>
-      <c r="C260" t="s">
-        <v>20</v>
-      </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
       <c r="N260"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B261" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
-      <c r="M262"/>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="M263"/>
+        <v>1</v>
+      </c>
       <c r="N263"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
-        <v>221</v>
-      </c>
-      <c r="C264" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264">
-        <v>50</v>
-      </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="M264"/>
-      <c r="N264"/>
-    </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B265" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D265">
+        <v>250</v>
       </c>
       <c r="F265">
-        <v>1</v>
-      </c>
-      <c r="M265"/>
+        <v>0</v>
+      </c>
       <c r="N265"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D266">
+        <v>250</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
-      <c r="M266"/>
       <c r="N266"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C267" t="s">
-        <v>33</v>
-      </c>
-      <c r="D267">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="M267"/>
+        <v>0</v>
+      </c>
       <c r="N267"/>
     </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>118</v>
+      </c>
+      <c r="C268" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268">
+        <v>20</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="N268"/>
+    </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B269" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F269">
-        <v>1</v>
-      </c>
-      <c r="K269" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L269" s="4" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="M269"/>
       <c r="N269"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D270">
+        <v>32</v>
       </c>
       <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="K270" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L270" s="4" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M270"/>
       <c r="N270"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D271">
+        <v>50</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5674,65 +5687,53 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C272" t="s">
-        <v>33</v>
-      </c>
-      <c r="D272">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F272">
         <v>1</v>
-      </c>
-      <c r="G272">
-        <v>0</v>
       </c>
       <c r="M272"/>
       <c r="N272"/>
     </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>47</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="M273"/>
+      <c r="N273"/>
+    </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="B274" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
-      <c r="K274" s="4" t="s">
-        <v>112</v>
+      <c r="G274">
+        <v>0</v>
       </c>
       <c r="M274"/>
       <c r="N274"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
-        <v>160</v>
-      </c>
-      <c r="C275" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275">
-        <v>3</v>
-      </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M275"/>
-      <c r="N275"/>
-    </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B276" t="s">
         <v>23</v>
       </c>
@@ -5746,107 +5747,137 @@
         <v>1</v>
       </c>
       <c r="K276" s="4" t="s">
-        <v>162</v>
+        <v>180</v>
+      </c>
+      <c r="L276" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="M276"/>
       <c r="N276"/>
     </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>21</v>
+      </c>
+      <c r="C277" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="K277" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L277" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M277"/>
+      <c r="N277"/>
+    </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B278" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F278">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M278"/>
+      <c r="N278"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D279">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>195</v>
-      </c>
-      <c r="C280" t="s">
-        <v>196</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="M279"/>
+      <c r="N279"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B281" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C281" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
       </c>
       <c r="F281">
         <v>1</v>
       </c>
+      <c r="K281" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M281"/>
+      <c r="N281"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
       </c>
       <c r="F282">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K282" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M282"/>
+      <c r="N282"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C283" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
+      <c r="K283" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M283"/>
+      <c r="N283"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="B285" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
       </c>
       <c r="D285">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -5854,13 +5885,13 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C286" t="s">
         <v>12</v>
       </c>
       <c r="D286">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -5868,38 +5899,35 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="C287" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="F287">
         <v>1</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -5907,206 +5935,185 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C290" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
       </c>
       <c r="F290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B292" t="s">
+        <v>225</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292">
         <v>40</v>
       </c>
-      <c r="C291" t="s">
-        <v>33</v>
-      </c>
-      <c r="D291">
-        <v>1</v>
-      </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
+      <c r="F292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="B293" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="C293" t="s">
         <v>12</v>
       </c>
       <c r="D293">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
-      <c r="M293"/>
-      <c r="N293"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="C294" t="s">
-        <v>35</v>
-      </c>
-      <c r="E294" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>250</v>
       </c>
       <c r="F294">
         <v>1</v>
       </c>
-      <c r="G294" t="s">
-        <v>157</v>
-      </c>
-      <c r="K294"/>
-      <c r="L294"/>
-      <c r="M294"/>
-      <c r="N294"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>250</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
-      <c r="K295"/>
-      <c r="L295"/>
-      <c r="M295"/>
-      <c r="N295"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
-      <c r="N296"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>164</v>
-      </c>
-      <c r="D297" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="K297"/>
-      <c r="L297"/>
-      <c r="M297"/>
-      <c r="N297"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C298" t="s">
-        <v>164</v>
-      </c>
-      <c r="D298" t="s">
-        <v>165</v>
+        <v>33</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
-      <c r="K298"/>
-      <c r="L298"/>
-      <c r="M298"/>
-      <c r="N298"/>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>21</v>
-      </c>
-      <c r="C299" t="s">
-        <v>22</v>
-      </c>
-      <c r="F299">
-        <v>1</v>
-      </c>
-      <c r="K299"/>
-      <c r="L299"/>
-      <c r="M299"/>
-      <c r="N299"/>
+      <c r="G298">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B300" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D300">
+        <v>30</v>
       </c>
       <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="K300"/>
-      <c r="L300"/>
+        <v>1</v>
+      </c>
       <c r="M300"/>
       <c r="N300"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>33</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E301" t="s">
+        <v>156</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
-      <c r="G301">
-        <v>0</v>
+      <c r="G301" t="s">
+        <v>157</v>
       </c>
       <c r="K301"/>
       <c r="L301"/>
       <c r="M301"/>
       <c r="N301"/>
     </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" t="s">
+        <v>24</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302"/>
+    </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B303" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C303" t="s">
         <v>24</v>
       </c>
       <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
         <v>1</v>
       </c>
       <c r="K303"/>
@@ -6116,12 +6123,18 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D304" t="s">
+        <v>171</v>
       </c>
       <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
         <v>0</v>
       </c>
       <c r="K304"/>
@@ -6131,13 +6144,13 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="C305" t="s">
-        <v>12</v>
-      </c>
-      <c r="D305">
-        <v>50</v>
+        <v>164</v>
+      </c>
+      <c r="D305" t="s">
+        <v>165</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -6149,18 +6162,12 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>164</v>
-      </c>
-      <c r="D306" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F306">
-        <v>1</v>
-      </c>
-      <c r="G306">
         <v>1</v>
       </c>
       <c r="K306"/>
@@ -6170,10 +6177,10 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="C307" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6184,15 +6191,14 @@
       <c r="N307"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A308"/>
       <c r="B308" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="C308" t="s">
-        <v>164</v>
-      </c>
-      <c r="D308" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -6205,35 +6211,144 @@
       <c r="M308"/>
       <c r="N308"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A309"/>
-      <c r="B309" t="s">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B310" t="s">
+        <v>167</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="K310"/>
+      <c r="L310"/>
+      <c r="M310"/>
+      <c r="N310"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>168</v>
+      </c>
+      <c r="C311" t="s">
+        <v>24</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="K311"/>
+      <c r="L311"/>
+      <c r="M311"/>
+      <c r="N311"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>169</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312">
+        <v>50</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="K312"/>
+      <c r="L312"/>
+      <c r="M312"/>
+      <c r="N312"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>170</v>
+      </c>
+      <c r="C313" t="s">
+        <v>164</v>
+      </c>
+      <c r="D313" t="s">
+        <v>175</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="K313"/>
+      <c r="L313"/>
+      <c r="M313"/>
+      <c r="N313"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>172</v>
+      </c>
+      <c r="C314" t="s">
+        <v>24</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="K314"/>
+      <c r="L314"/>
+      <c r="M314"/>
+      <c r="N314"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315" t="s">
+        <v>173</v>
+      </c>
+      <c r="C315" t="s">
+        <v>164</v>
+      </c>
+      <c r="D315" t="s">
+        <v>171</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="K315"/>
+      <c r="L315"/>
+      <c r="M315"/>
+      <c r="N315"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="B316" t="s">
         <v>176</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C316" t="s">
         <v>164</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D316" t="s">
         <v>171</v>
       </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="K309"/>
-      <c r="L309"/>
-      <c r="M309"/>
-      <c r="N309"/>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="K316"/>
+      <c r="L316"/>
+      <c r="M316"/>
+      <c r="N316"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K157" r:id="rId1"/>
-    <hyperlink ref="K159" r:id="rId2"/>
+    <hyperlink ref="K164" r:id="rId1"/>
+    <hyperlink ref="K166" r:id="rId2"/>
     <hyperlink ref="K118" r:id="rId3"/>
     <hyperlink ref="L118" r:id="rId4"/>
     <hyperlink ref="M118" r:id="rId5"/>
-    <hyperlink ref="K197" r:id="rId6"/>
-    <hyperlink ref="L197" r:id="rId7"/>
-    <hyperlink ref="M197" r:id="rId8"/>
+    <hyperlink ref="K204" r:id="rId6"/>
+    <hyperlink ref="L204" r:id="rId7"/>
+    <hyperlink ref="M204" r:id="rId8"/>
     <hyperlink ref="N118" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="337">
   <si>
     <t>field</t>
   </si>
@@ -1024,6 +1024,9 @@
   </si>
   <si>
     <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>gps_accuracy</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U316"/>
+  <dimension ref="A1:U317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:XFD148"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3081,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3106,13 +3109,13 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3120,18 +3123,21 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
@@ -3153,18 +3159,18 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -3197,7 +3203,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
@@ -3208,75 +3214,60 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
         <v>22</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>40</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>33</v>
       </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>25</v>
-      </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113">
-        <v>100</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -3288,148 +3279,148 @@
         <v>1</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L118" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N118" s="5" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="K119" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>246</v>
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -3441,21 +3432,21 @@
         <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -3467,105 +3458,102 @@
         <v>1</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>40</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
       <c r="K123" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
-      <c r="G124">
-        <v>1</v>
+      <c r="G124" t="s">
+        <v>43</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
         <v>33</v>
@@ -3594,36 +3582,42 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
       <c r="K126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>132</v>
@@ -3640,53 +3634,62 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>40</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>33</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="K128" s="4" t="s">
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L128" s="4" t="s">
+      <c r="L129" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M128" s="4" t="s">
+      <c r="M129" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N128" s="4" t="s">
+      <c r="N129" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130">
-        <v>100</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>14</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
@@ -3695,41 +3698,41 @@
         <v>100</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>15</v>
       </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132">
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
         <v>255</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133">
-        <v>20</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>17</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -3741,163 +3744,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135">
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
         <v>100</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>19</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>20</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>21</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>22</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>100</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>330</v>
       </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139">
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
         <v>30</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>331</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>24</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>227</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>35</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E142" t="s">
         <v>334</v>
       </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>332</v>
       </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
         <v>50</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>333</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>24</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" t="s">
-        <v>335</v>
-      </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" t="s">
+        <v>335</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>21</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>22</v>
       </c>
-      <c r="D145">
+      <c r="D146">
         <v>100</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>42</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>24</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>49</v>
-      </c>
-      <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148">
-        <v>100</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -3919,13 +3922,13 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
       </c>
       <c r="D150">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -3933,24 +3936,21 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F151">
         <v>1</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C152" t="s">
         <v>33</v>
@@ -3967,97 +3967,97 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
-      <c r="G153" t="s">
-        <v>55</v>
+      <c r="G153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E154" t="s">
+        <v>54</v>
       </c>
       <c r="F154">
         <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>40</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>33</v>
       </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>57</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>24</v>
       </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="K158" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>58</v>
-      </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159">
-        <v>20</v>
-      </c>
       <c r="F159">
         <v>1</v>
       </c>
-      <c r="K159" s="4" t="s">
-        <v>110</v>
+      <c r="K159" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -4069,138 +4069,137 @@
         <v>1</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>20</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
       <c r="K161" s="4" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
       <c r="K162" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
-      </c>
-      <c r="D163" t="s">
-        <v>174</v>
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
-      <c r="G163">
-        <v>0</v>
-      </c>
       <c r="K163" s="4" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164">
-        <v>255</v>
+        <v>164</v>
+      </c>
+      <c r="D164" t="s">
+        <v>174</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
-      <c r="K164" s="5" t="s">
-        <v>184</v>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
-      <c r="K165" s="4" t="s">
-        <v>231</v>
+      <c r="K165" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>20</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>61</v>
       </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166">
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
         <v>255</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="K166" s="5" t="s">
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="K167" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>64</v>
-      </c>
-      <c r="C168" t="s">
-        <v>206</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-      <c r="K168"/>
-      <c r="L168"/>
-      <c r="M168"/>
-      <c r="N168"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>223</v>
       </c>
       <c r="C169" t="s">
         <v>206</v>
@@ -4218,13 +4217,10 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
-      </c>
-      <c r="D170">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -4237,36 +4233,36 @@
       <c r="M170"/>
       <c r="N170"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>200</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>209</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>205</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-      <c r="K172"/>
-      <c r="L172"/>
-      <c r="M172"/>
-      <c r="N172"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>65</v>
-      </c>
-      <c r="C173" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173">
-        <v>200</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4279,36 +4275,36 @@
       <c r="M173"/>
       <c r="N173"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>200</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>67</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>205</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="K175"/>
-      <c r="L175"/>
-      <c r="M175"/>
-      <c r="N175"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>65</v>
-      </c>
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176">
-        <v>200</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4321,38 +4317,41 @@
       <c r="M176"/>
       <c r="N176"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177">
+        <v>200</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>183</v>
       </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178">
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179">
         <v>100</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="K178"/>
-      <c r="L178"/>
-      <c r="M178"/>
-      <c r="N178"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>67</v>
-      </c>
-      <c r="C179" t="s">
-        <v>205</v>
-      </c>
       <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="I179">
         <v>1</v>
       </c>
       <c r="K179"/>
@@ -4362,13 +4361,10 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4381,118 +4377,126 @@
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>65</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>200</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>23</v>
       </c>
-      <c r="C182" t="s">
-        <v>12</v>
-      </c>
-      <c r="D182">
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
         <v>50</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="K182" t="s">
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="K183" t="s">
         <v>121</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L183" t="s">
         <v>122</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M183" t="s">
         <v>121</v>
-      </c>
-      <c r="N182"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>74</v>
-      </c>
-      <c r="C183" t="s">
-        <v>24</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183">
-        <v>2</v>
-      </c>
-      <c r="M183">
-        <v>3</v>
       </c>
       <c r="N183"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="K184" t="s">
-        <v>190</v>
-      </c>
-      <c r="L184" t="s">
-        <v>190</v>
-      </c>
-      <c r="M184" t="s">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
       </c>
       <c r="N184"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
-      <c r="K185">
-        <v>123</v>
-      </c>
-      <c r="L185">
-        <v>234</v>
-      </c>
-      <c r="M185">
-        <v>345</v>
+      <c r="K185" t="s">
+        <v>190</v>
+      </c>
+      <c r="L185" t="s">
+        <v>190</v>
+      </c>
+      <c r="M185" t="s">
+        <v>200</v>
       </c>
       <c r="N185"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
-      <c r="M186"/>
+      <c r="K186">
+        <v>123</v>
+      </c>
+      <c r="L186">
+        <v>234</v>
+      </c>
+      <c r="M186">
+        <v>345</v>
+      </c>
       <c r="N186"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C187" t="s">
         <v>24</v>
@@ -4505,79 +4509,76 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L188" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M188" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M188"/>
       <c r="N188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
         <v>22</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="M189"/>
+        <v>1</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M189" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N189"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
-      </c>
-      <c r="D190">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
         <v>0</v>
       </c>
       <c r="M190"/>
       <c r="N190"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="M191"/>
+      <c r="N191"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>25</v>
-      </c>
-      <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192">
-        <v>50</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="M192"/>
-      <c r="N192"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>27</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
@@ -4593,13 +4594,13 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -4609,10 +4610,13 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C195" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>13</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -4622,66 +4626,55 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
         <v>22</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196"/>
       <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
         <v>0</v>
       </c>
       <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="M198"/>
+      <c r="N198"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>25</v>
-      </c>
-      <c r="C199" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199">
-        <v>50</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L199" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M199" t="s">
-        <v>197</v>
-      </c>
-      <c r="N199"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>27</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
@@ -4693,43 +4686,43 @@
         <v>1</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N200"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M201">
-        <v>790790790</v>
+        <v>135</v>
+      </c>
+      <c r="M201" t="s">
+        <v>198</v>
       </c>
       <c r="N201"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
@@ -4741,19 +4734,19 @@
         <v>0</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M202">
-        <v>210210210</v>
+        <v>790790790</v>
       </c>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
@@ -4765,114 +4758,122 @@
         <v>0</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M203">
-        <v>210210211</v>
+        <v>210210210</v>
       </c>
       <c r="N203"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L204" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M204" s="6" t="s">
-        <v>199</v>
+        <v>0</v>
+      </c>
+      <c r="K204" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M204">
+        <v>210210211</v>
       </c>
       <c r="N204"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>255</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="K205" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M205"/>
+        <v>1</v>
+      </c>
+      <c r="K205" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L205" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M205" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="M207"/>
+      <c r="N207"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>23</v>
       </c>
-      <c r="C208" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208">
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209">
         <v>50</v>
       </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>80</v>
-      </c>
-      <c r="C209" t="s">
-        <v>24</v>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="K209" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M209"/>
-      <c r="N209"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -4881,36 +4882,36 @@
         <v>1</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>182</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M211"/>
+      <c r="N211"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>220</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>24</v>
-      </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="M212"/>
-      <c r="N212"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>18</v>
-      </c>
-      <c r="C213" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213">
-        <v>100</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4920,15 +4921,15 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>100</v>
       </c>
       <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="I214">
         <v>1</v>
       </c>
       <c r="M214"/>
@@ -4936,110 +4937,114 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F215">
         <v>0</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
       </c>
       <c r="M215"/>
       <c r="N215"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216"/>
       <c r="N216"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="C217" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="E217" t="s">
+        <v>185</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217"/>
       <c r="N217"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
       </c>
       <c r="M218"/>
       <c r="N218"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C219" t="s">
         <v>22</v>
       </c>
       <c r="F219">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M219"/>
       <c r="N219"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="N220"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>40</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>33</v>
       </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="N220"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="N221"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>211</v>
-      </c>
-      <c r="C222" t="s">
-        <v>213</v>
-      </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="N222"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>212</v>
       </c>
       <c r="C223" t="s">
         <v>213</v>
@@ -5051,28 +5056,25 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C224" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5081,28 +5083,28 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C226" t="s">
         <v>12</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -5111,64 +5113,64 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
+        <v>217</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="N228"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>218</v>
       </c>
-      <c r="C228" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228">
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
         <v>100</v>
       </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="N228"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="N229"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>23</v>
       </c>
-      <c r="C230" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230">
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
         <v>50</v>
       </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="K230" s="4" t="s">
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L230" s="4" t="s">
+      <c r="L231" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M230" s="4" t="s">
+      <c r="M231" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="N230"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>85</v>
-      </c>
-      <c r="C231" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
       </c>
       <c r="N231"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -5183,103 +5185,103 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C233" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
       </c>
       <c r="F233">
         <v>0</v>
-      </c>
-      <c r="H233" t="s">
-        <v>45</v>
       </c>
       <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C234" t="s">
         <v>33</v>
       </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
       <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="G234">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H234" t="s">
+        <v>45</v>
       </c>
       <c r="N234"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>40</v>
+      </c>
+      <c r="C235" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="N235"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>91</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>24</v>
       </c>
-      <c r="F236">
-        <v>1</v>
-      </c>
-      <c r="K236" s="4">
-        <v>1</v>
-      </c>
-      <c r="L236" s="4">
-        <v>1</v>
-      </c>
-      <c r="M236" s="4">
-        <v>1</v>
-      </c>
-      <c r="N236"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>23</v>
-      </c>
-      <c r="C237" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237">
-        <v>75</v>
-      </c>
       <c r="F237">
         <v>1</v>
       </c>
-      <c r="K237" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L237" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M237" s="4" t="s">
-        <v>106</v>
+      <c r="K237" s="4">
+        <v>1</v>
+      </c>
+      <c r="L237" s="4">
+        <v>1</v>
+      </c>
+      <c r="M237" s="4">
+        <v>1</v>
       </c>
       <c r="N237"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L238" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M238" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N238"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
@@ -5294,97 +5296,100 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
+        <v>90</v>
+      </c>
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="N240"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>40</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>33</v>
       </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="N240"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="N241"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>32</v>
-      </c>
-      <c r="C242" t="s">
-        <v>24</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="K242" s="4">
-        <v>1</v>
-      </c>
-      <c r="L242" s="4">
-        <v>1</v>
-      </c>
-      <c r="M242" s="4">
-        <v>1</v>
-      </c>
-      <c r="N242"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
-        <v>92</v>
       </c>
       <c r="C243" t="s">
         <v>24</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K243" s="4">
+        <v>1</v>
+      </c>
+      <c r="L243" s="4">
+        <v>1</v>
+      </c>
+      <c r="M243" s="4">
+        <v>1</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="K244" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L244" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M244" s="4" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N244"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D245">
+        <v>100</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K245" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M245" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N245"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C246" t="s">
         <v>24</v>
@@ -5396,49 +5401,46 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
+        <v>73</v>
+      </c>
+      <c r="C247" t="s">
+        <v>24</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="N247"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>40</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" t="s">
         <v>33</v>
       </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>0</v>
-      </c>
-      <c r="N247"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="N248"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>23</v>
       </c>
-      <c r="C249" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249">
+      <c r="C250" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250">
         <v>50</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="N249"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
-        <v>18</v>
-      </c>
-      <c r="C250" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250">
-        <v>100</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -5447,16 +5449,22 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>100</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
       </c>
       <c r="N251"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C252" t="s">
         <v>20</v>
@@ -5465,67 +5473,64 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
       </c>
       <c r="N253"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>97</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="N254"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>187</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>24</v>
       </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="N255"/>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
-        <v>189</v>
-      </c>
-      <c r="C256" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256">
-        <v>50</v>
-      </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>50</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
       </c>
       <c r="N257"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C258" t="s">
         <v>20</v>
       </c>
-      <c r="I258">
-        <v>1</v>
-      </c>
       <c r="N258"/>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
@@ -5536,71 +5541,68 @@
       <c r="N259"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>192</v>
+      </c>
+      <c r="C260" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
       <c r="N260"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="N261"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>51</v>
       </c>
-      <c r="C261" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261">
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262">
         <v>50</v>
       </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="N261"/>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>42</v>
-      </c>
-      <c r="C262" t="s">
-        <v>24</v>
-      </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
+        <v>42</v>
+      </c>
+      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="N263"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
         <v>21</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" t="s">
         <v>22</v>
       </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="N263"/>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="N264"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>115</v>
-      </c>
-      <c r="C265" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265">
-        <v>250</v>
-      </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="N265"/>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>116</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
@@ -5615,10 +5617,13 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <v>250</v>
       </c>
       <c r="F267">
         <v>0</v>
@@ -5627,12 +5632,9 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C268" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268">
         <v>20</v>
       </c>
       <c r="F268">
@@ -5642,26 +5644,25 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C269" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269">
         <v>20</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
-      <c r="M269"/>
       <c r="N269"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C270" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -5671,13 +5672,13 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
       </c>
       <c r="D271">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F271">
         <v>0</v>
@@ -5687,150 +5688,147 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D272">
+        <v>50</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M272"/>
       <c r="N272"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C273" t="s">
         <v>22</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M273"/>
       <c r="N273"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
-        <v>33</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
         <v>0</v>
       </c>
       <c r="M274"/>
       <c r="N274"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>40</v>
+      </c>
+      <c r="C275" t="s">
+        <v>33</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="M275"/>
+      <c r="N275"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>23</v>
       </c>
-      <c r="C276" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276">
+      <c r="C277" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277">
         <v>50</v>
       </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="K276" s="4" t="s">
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="L276" s="4" t="s">
+      <c r="L277" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="M276"/>
-      <c r="N276"/>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
-        <v>21</v>
-      </c>
-      <c r="C277" t="s">
-        <v>22</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="K277" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L277" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="M277"/>
       <c r="N277"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L278" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="M278"/>
       <c r="N278"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C279" t="s">
-        <v>33</v>
-      </c>
-      <c r="D279">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
         <v>0</v>
       </c>
       <c r="M279"/>
       <c r="N279"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>40</v>
+      </c>
+      <c r="C280" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="M280"/>
+      <c r="N280"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>159</v>
-      </c>
-      <c r="C281" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281">
-        <v>3</v>
-      </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-      <c r="K281" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M281"/>
-      <c r="N281"/>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
-        <v>160</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -5842,56 +5840,61 @@
         <v>1</v>
       </c>
       <c r="K282" s="4" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="M282"/>
       <c r="N282"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C283" t="s">
         <v>12</v>
       </c>
       <c r="D283">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
       <c r="K283" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M283"/>
       <c r="N283"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284">
+        <v>50</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="K284" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M284"/>
+      <c r="N284"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>23</v>
       </c>
-      <c r="C285" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285">
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286">
         <v>50</v>
-      </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
-        <v>194</v>
-      </c>
-      <c r="C286" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286">
-        <v>40</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -5899,83 +5902,83 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C287" t="s">
-        <v>196</v>
+        <v>12</v>
+      </c>
+      <c r="D287">
+        <v>40</v>
       </c>
       <c r="F287">
         <v>1</v>
-      </c>
-      <c r="G287">
-        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="F288">
         <v>1</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
+        <v>47</v>
+      </c>
+      <c r="C290" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
         <v>40</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" t="s">
         <v>33</v>
       </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>225</v>
       </c>
-      <c r="C292" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292">
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
         <v>40</v>
-      </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
-        <v>226</v>
-      </c>
-      <c r="C293" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293">
-        <v>250</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -5983,7 +5986,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C294" t="s">
         <v>12</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -6006,15 +6009,18 @@
         <v>250</v>
       </c>
       <c r="F295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>250</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -6022,81 +6028,77 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
+        <v>21</v>
+      </c>
+      <c r="C298" t="s">
+        <v>22</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>40</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" t="s">
         <v>33</v>
       </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>155</v>
       </c>
-      <c r="C300" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300">
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301">
         <v>30</v>
       </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="M300"/>
-      <c r="N300"/>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
-        <v>1</v>
-      </c>
-      <c r="C301" t="s">
-        <v>35</v>
-      </c>
-      <c r="E301" t="s">
-        <v>156</v>
-      </c>
       <c r="F301">
         <v>1</v>
       </c>
-      <c r="G301" t="s">
-        <v>157</v>
-      </c>
-      <c r="K301"/>
-      <c r="L301"/>
       <c r="M301"/>
       <c r="N301"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E302" t="s">
+        <v>156</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G302" t="s">
+        <v>157</v>
       </c>
       <c r="K302"/>
       <c r="L302"/>
@@ -6105,16 +6107,13 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="C303" t="s">
         <v>24</v>
       </c>
       <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303"/>
       <c r="L303"/>
@@ -6123,19 +6122,16 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C304" t="s">
-        <v>164</v>
-      </c>
-      <c r="D304" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F304">
         <v>1</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304"/>
       <c r="L304"/>
@@ -6144,16 +6140,19 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="C305" t="s">
         <v>164</v>
       </c>
       <c r="D305" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F305">
         <v>1</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
       </c>
       <c r="K305"/>
       <c r="L305"/>
@@ -6162,10 +6161,13 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C306" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="D306" t="s">
+        <v>165</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -6177,13 +6179,13 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
         <v>22</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307"/>
       <c r="L307"/>
@@ -6192,18 +6194,12 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C308" t="s">
-        <v>33</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F308">
-        <v>1</v>
-      </c>
-      <c r="G308">
         <v>0</v>
       </c>
       <c r="K308"/>
@@ -6211,33 +6207,39 @@
       <c r="M308"/>
       <c r="N308"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>40</v>
+      </c>
+      <c r="C309" t="s">
+        <v>33</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="K309"/>
+      <c r="L309"/>
+      <c r="M309"/>
+      <c r="N309"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>167</v>
-      </c>
-      <c r="C310" t="s">
-        <v>24</v>
-      </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
-      <c r="K310"/>
-      <c r="L310"/>
-      <c r="M310"/>
-      <c r="N310"/>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
-        <v>168</v>
       </c>
       <c r="C311" t="s">
         <v>24</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311"/>
       <c r="L311"/>
@@ -6246,16 +6248,13 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C312" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312"/>
       <c r="L312"/>
@@ -6264,18 +6263,15 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C313" t="s">
-        <v>164</v>
-      </c>
-      <c r="D313" t="s">
-        <v>175</v>
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>50</v>
       </c>
       <c r="F313">
-        <v>1</v>
-      </c>
-      <c r="G313">
         <v>1</v>
       </c>
       <c r="K313"/>
@@ -6285,13 +6281,19 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D314" t="s">
+        <v>175</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
       </c>
       <c r="K314"/>
       <c r="L314"/>
@@ -6299,20 +6301,13 @@
       <c r="N314"/>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A315"/>
       <c r="B315" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C315" t="s">
-        <v>164</v>
-      </c>
-      <c r="D315" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F315">
-        <v>1</v>
-      </c>
-      <c r="G315">
         <v>0</v>
       </c>
       <c r="K315"/>
@@ -6323,7 +6318,7 @@
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316"/>
       <c r="B316" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C316" t="s">
         <v>164</v>
@@ -6333,23 +6328,45 @@
       </c>
       <c r="F316">
         <v>1</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
       </c>
       <c r="K316"/>
       <c r="L316"/>
       <c r="M316"/>
       <c r="N316"/>
     </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317" t="s">
+        <v>176</v>
+      </c>
+      <c r="C317" t="s">
+        <v>164</v>
+      </c>
+      <c r="D317" t="s">
+        <v>171</v>
+      </c>
+      <c r="F317">
+        <v>1</v>
+      </c>
+      <c r="K317"/>
+      <c r="L317"/>
+      <c r="M317"/>
+      <c r="N317"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K164" r:id="rId1"/>
-    <hyperlink ref="K166" r:id="rId2"/>
-    <hyperlink ref="K118" r:id="rId3"/>
-    <hyperlink ref="L118" r:id="rId4"/>
-    <hyperlink ref="M118" r:id="rId5"/>
-    <hyperlink ref="K204" r:id="rId6"/>
-    <hyperlink ref="L204" r:id="rId7"/>
-    <hyperlink ref="M204" r:id="rId8"/>
-    <hyperlink ref="N118" r:id="rId9"/>
+    <hyperlink ref="K165" r:id="rId1"/>
+    <hyperlink ref="K167" r:id="rId2"/>
+    <hyperlink ref="K119" r:id="rId3"/>
+    <hyperlink ref="L119" r:id="rId4"/>
+    <hyperlink ref="M119" r:id="rId5"/>
+    <hyperlink ref="K205" r:id="rId6"/>
+    <hyperlink ref="L205" r:id="rId7"/>
+    <hyperlink ref="M205" r:id="rId8"/>
+    <hyperlink ref="N119" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="342">
   <si>
     <t>field</t>
   </si>
@@ -1027,6 +1027,21 @@
   </si>
   <si>
     <t>gps_accuracy</t>
+  </si>
+  <si>
+    <t>asset_id</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>previous_condition_id</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U317"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>283</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>336</v>
       </c>
@@ -3093,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>284</v>
       </c>
@@ -3107,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>285</v>
       </c>
@@ -3121,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>286</v>
       </c>
@@ -3135,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>253</v>
       </c>
@@ -3146,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>254</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>255</v>
       </c>
@@ -3168,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>287</v>
       </c>
@@ -3179,20 +3194,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>250</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>292</v>
-      </c>
-      <c r="C106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -3201,9 +3219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
@@ -3212,9 +3230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -3223,595 +3241,579 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>21</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>22</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>47</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>22</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>40</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>33</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" t="s">
-        <v>25</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
       <c r="D114">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L114" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N114" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115">
-        <v>100</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L115" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M115" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N115" s="4" t="s">
-        <v>198</v>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L116" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M116" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N116" s="4" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>100</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N117" s="4" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="F118">
         <v>1</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M118" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N118" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N119" s="5" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D121">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122">
-        <v>40</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>100</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>100</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
       <c r="K125" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
       <c r="K126" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
       </c>
       <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L128" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N128" s="4" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
         <v>40</v>
       </c>
-      <c r="C129" t="s">
-        <v>33</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>130</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>40</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F131">
         <v>1</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>230</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
-      <c r="G132" s="2"/>
+      <c r="K132" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133">
-        <v>255</v>
+        <v>35</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
       </c>
       <c r="F133">
         <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D135">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F136">
         <v>0</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D138">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>329</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -3819,24 +3821,28 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>331</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>100</v>
       </c>
       <c r="F141">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G141" s="2"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" t="s">
-        <v>334</v>
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3844,514 +3850,500 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
       </c>
       <c r="D143">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>20</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147">
+        <v>100</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>30</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" t="s">
+        <v>334</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>50</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>333</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C153" t="s">
         <v>24</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>228</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C154" t="s">
         <v>335</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146">
-        <v>100</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" t="s">
-        <v>42</v>
-      </c>
-      <c r="C148" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149">
-        <v>100</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>50</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150">
-        <v>100</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>51</v>
-      </c>
-      <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151">
-        <v>23</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>53</v>
-      </c>
-      <c r="C153" t="s">
-        <v>33</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>37</v>
-      </c>
-      <c r="C154" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" t="s">
-        <v>54</v>
-      </c>
       <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
       </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
       <c r="F155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>100</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>100</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>23</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="C163" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>47</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C165" t="s">
         <v>22</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>40</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C166" t="s">
         <v>33</v>
       </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B168" t="s">
         <v>57</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C168" t="s">
         <v>24</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="K159" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>58</v>
       </c>
-      <c r="C160" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160">
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169">
         <v>20</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>59</v>
       </c>
-      <c r="C161" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161">
+      <c r="C170" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170">
         <v>20</v>
       </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="K161" s="4" t="s">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>163</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C171" t="s">
         <v>24</v>
       </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>60</v>
       </c>
-      <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163">
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172">
         <v>5</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="K163" s="4" t="s">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>178</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C173" t="s">
         <v>164</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D173" t="s">
         <v>174</v>
       </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>98</v>
       </c>
-      <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165">
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174">
         <v>255</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="K165" s="5" t="s">
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="K174" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>99</v>
       </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166">
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175">
         <v>20</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>61</v>
       </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167">
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176">
         <v>255</v>
       </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="K167" s="5" t="s">
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="K176" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B178" t="s">
         <v>64</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C178" t="s">
         <v>206</v>
       </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-      <c r="K169"/>
-      <c r="L169"/>
-      <c r="M169"/>
-      <c r="N169"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>223</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C179" t="s">
         <v>206</v>
       </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="K170"/>
-      <c r="L170"/>
-      <c r="M170"/>
-      <c r="N170"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>65</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171">
-        <v>200</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="K171"/>
-      <c r="L171"/>
-      <c r="M171"/>
-      <c r="N171"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B173" t="s">
-        <v>209</v>
-      </c>
-      <c r="C173" t="s">
-        <v>205</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="I173">
-        <v>1</v>
-      </c>
-      <c r="K173"/>
-      <c r="L173"/>
-      <c r="M173"/>
-      <c r="N173"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>65</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174">
-        <v>200</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="K174"/>
-      <c r="L174"/>
-      <c r="M174"/>
-      <c r="N174"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B176" t="s">
-        <v>67</v>
-      </c>
-      <c r="C176" t="s">
-        <v>205</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="K176"/>
-      <c r="L176"/>
-      <c r="M176"/>
-      <c r="N176"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>65</v>
-      </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177">
-        <v>200</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="K177"/>
-      <c r="L177"/>
-      <c r="M177"/>
-      <c r="N177"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B179" t="s">
-        <v>183</v>
-      </c>
-      <c r="C179" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179">
-        <v>100</v>
-      </c>
       <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="I179">
         <v>1</v>
       </c>
       <c r="K179"/>
@@ -4361,10 +4353,13 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C180" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>200</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -4377,272 +4372,265 @@
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>205</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>65</v>
       </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181">
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
         <v>200</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-      <c r="K181"/>
-      <c r="L181"/>
-      <c r="M181"/>
-      <c r="N181"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B183" t="s">
-        <v>23</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183">
-        <v>50</v>
-      </c>
       <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="K183" t="s">
-        <v>121</v>
-      </c>
-      <c r="L183" t="s">
-        <v>122</v>
-      </c>
-      <c r="M183" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>74</v>
-      </c>
-      <c r="C184" t="s">
-        <v>24</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184">
-        <v>2</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
-      <c r="N184"/>
-    </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
-      <c r="K185" t="s">
-        <v>190</v>
-      </c>
-      <c r="L185" t="s">
-        <v>190</v>
-      </c>
-      <c r="M185" t="s">
-        <v>200</v>
-      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
       <c r="N185"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
-      <c r="K186">
-        <v>123</v>
-      </c>
-      <c r="L186">
-        <v>234</v>
-      </c>
-      <c r="M186">
-        <v>345</v>
-      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
       <c r="N186"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>72</v>
-      </c>
-      <c r="C187" t="s">
-        <v>24</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="M187"/>
-      <c r="N187"/>
-    </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>100</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K188"/>
+      <c r="L188"/>
       <c r="M188"/>
       <c r="N188"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L189" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M189" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
       <c r="N189"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>200</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="K190"/>
+      <c r="L190"/>
       <c r="M190"/>
       <c r="N190"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>40</v>
-      </c>
-      <c r="C191" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="M191"/>
-      <c r="N191"/>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>50</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>121</v>
+      </c>
+      <c r="L192" t="s">
+        <v>122</v>
+      </c>
+      <c r="M192" t="s">
+        <v>121</v>
+      </c>
+      <c r="N192"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F193">
         <v>1</v>
       </c>
-      <c r="M193"/>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
       <c r="N193"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="M194"/>
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>190</v>
+      </c>
+      <c r="L194" t="s">
+        <v>190</v>
+      </c>
+      <c r="M194" t="s">
+        <v>200</v>
+      </c>
       <c r="N194"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="M195"/>
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>123</v>
+      </c>
+      <c r="L195">
+        <v>234</v>
+      </c>
+      <c r="M195">
+        <v>345</v>
+      </c>
       <c r="N195"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M196"/>
       <c r="N196"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -4652,182 +4640,130 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
+        <v>21</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M198" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N198"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="M199"/>
+      <c r="N199"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>40</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C200" t="s">
         <v>33</v>
       </c>
-      <c r="D198">
-        <v>1</v>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="M198"/>
-      <c r="N198"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="M200"/>
+      <c r="N200"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
         <v>25</v>
       </c>
-      <c r="C200" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200">
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
         <v>50</v>
       </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M200" t="s">
-        <v>197</v>
-      </c>
-      <c r="N200"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>27</v>
-      </c>
-      <c r="C201" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201">
-        <v>50</v>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L201" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M201" t="s">
-        <v>198</v>
-      </c>
-      <c r="N201"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>20</v>
-      </c>
       <c r="F202">
-        <v>0</v>
-      </c>
-      <c r="K202" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M202">
-        <v>790790790</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M202"/>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
       <c r="D203">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L203" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M203">
-        <v>210210210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M203"/>
       <c r="N203"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L204" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M204">
-        <v>210210211</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M204"/>
       <c r="N204"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
-      </c>
-      <c r="D205">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
-      <c r="K205" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L205" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M205" s="6" t="s">
-        <v>199</v>
-      </c>
+      <c r="M205"/>
       <c r="N205"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F206">
         <v>0</v>
-      </c>
-      <c r="K206" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="M206"/>
       <c r="N206"/>
@@ -4853,10 +4789,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -4868,747 +4804,833 @@
         <v>1</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L209" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M209" t="s">
+        <v>197</v>
+      </c>
+      <c r="N209"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>50</v>
       </c>
       <c r="F210">
         <v>1</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M210"/>
+        <v>124</v>
+      </c>
+      <c r="L210" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M210" t="s">
+        <v>198</v>
+      </c>
       <c r="N210"/>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>20</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M211"/>
+        <v>127</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M211">
+        <v>790790790</v>
+      </c>
       <c r="N211"/>
     </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>77</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M212">
+        <v>210210210</v>
+      </c>
+      <c r="N212"/>
+    </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
       </c>
       <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="M213"/>
+        <v>0</v>
+      </c>
+      <c r="K213" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M213">
+        <v>210210211</v>
+      </c>
       <c r="N213"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
       </c>
       <c r="D214">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F214">
         <v>1</v>
       </c>
-      <c r="M214"/>
+      <c r="K214" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M214" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="N214"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
-      <c r="I215">
-        <v>1</v>
+      <c r="K215" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="M215"/>
       <c r="N215"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
       </c>
       <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
         <v>0</v>
       </c>
       <c r="M216"/>
       <c r="N216"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
-        <v>37</v>
-      </c>
-      <c r="C217" t="s">
-        <v>35</v>
-      </c>
-      <c r="E217" t="s">
-        <v>185</v>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="M217"/>
-      <c r="N217"/>
-    </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B218" t="s">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="C218" t="s">
-        <v>46</v>
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>50</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="M218"/>
-      <c r="N218"/>
+        <v>1</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F219">
         <v>1</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M219"/>
       <c r="N219"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F220">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M220"/>
       <c r="N220"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>40</v>
-      </c>
-      <c r="C221" t="s">
-        <v>33</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="N221"/>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222" t="s">
+        <v>220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="M222"/>
+      <c r="N222"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B223" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="C223" t="s">
-        <v>213</v>
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>100</v>
       </c>
       <c r="F223">
         <v>1</v>
       </c>
+      <c r="M223"/>
       <c r="N223"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="C224" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="F224">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="M224"/>
       <c r="N224"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
+      <c r="M225"/>
       <c r="N225"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="E226" t="s">
+        <v>185</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M226"/>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="F227">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="M227"/>
       <c r="N227"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
+      <c r="M228"/>
       <c r="N228"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N229"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B231" t="s">
-        <v>23</v>
-      </c>
-      <c r="C231" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231">
-        <v>50</v>
-      </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-      <c r="K231" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L231" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M231" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N231"/>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>40</v>
+      </c>
+      <c r="C230" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="N230"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B232" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N232"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>100</v>
       </c>
       <c r="F234">
         <v>0</v>
-      </c>
-      <c r="H234" t="s">
-        <v>45</v>
       </c>
       <c r="N234"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="C235" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="G235">
         <v>0</v>
       </c>
       <c r="N235"/>
     </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>216</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="N236"/>
+    </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B237" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
       </c>
       <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="K237" s="4">
-        <v>1</v>
-      </c>
-      <c r="L237" s="4">
-        <v>1</v>
-      </c>
-      <c r="M237" s="4">
         <v>1</v>
       </c>
       <c r="N237"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
+        <v>218</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>100</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="N238"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B240" t="s">
         <v>23</v>
       </c>
-      <c r="C238" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238">
-        <v>75</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L238" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M238" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N238"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
-        <v>89</v>
-      </c>
-      <c r="C239" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="N239"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
-        <v>90</v>
-      </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L240" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="N240"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C241" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="N241"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="N242"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>87</v>
+      </c>
+      <c r="C243" t="s">
         <v>33</v>
       </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="N241"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B243" t="s">
-        <v>32</v>
-      </c>
-      <c r="C243" t="s">
-        <v>24</v>
-      </c>
       <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="K243" s="4">
-        <v>1</v>
-      </c>
-      <c r="L243" s="4">
-        <v>1</v>
-      </c>
-      <c r="M243" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>45</v>
       </c>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
       </c>
       <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
         <v>0</v>
       </c>
       <c r="N244"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>23</v>
-      </c>
-      <c r="C245" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245">
-        <v>100</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="K245" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L245" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M245" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N245"/>
-    </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B246" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C246" t="s">
         <v>24</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K246" s="4">
+        <v>1</v>
+      </c>
+      <c r="L246" s="4">
+        <v>1</v>
+      </c>
+      <c r="M246" s="4">
+        <v>1</v>
       </c>
       <c r="N246"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D247">
+        <v>75</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K247" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M247" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N247"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
+        <v>89</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="N248"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="N249"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
         <v>40</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>33</v>
       </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>0</v>
-      </c>
-      <c r="N248"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B250" t="s">
-        <v>23</v>
-      </c>
-      <c r="C250" t="s">
-        <v>12</v>
-      </c>
       <c r="D250">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
       <c r="N250"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>18</v>
-      </c>
-      <c r="C251" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251">
-        <v>100</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="N251"/>
-    </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B252" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="K252" s="4">
+        <v>1</v>
+      </c>
+      <c r="L252" s="4">
+        <v>1</v>
+      </c>
+      <c r="M252" s="4">
+        <v>1</v>
       </c>
       <c r="N252"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
       </c>
       <c r="N253"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>100</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N254"/>
     </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>72</v>
+      </c>
+      <c r="C255" t="s">
+        <v>24</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="N255"/>
+    </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B256" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
         <v>24</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="N257"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259">
         <v>50</v>
       </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="N257"/>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>188</v>
-      </c>
-      <c r="C258" t="s">
-        <v>20</v>
-      </c>
-      <c r="N258"/>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>191</v>
-      </c>
-      <c r="C259" t="s">
-        <v>20</v>
-      </c>
-      <c r="I259">
+      <c r="F259">
         <v>1</v>
       </c>
       <c r="N259"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>100</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="N260"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>95</v>
+      </c>
+      <c r="C261" t="s">
         <v>20</v>
       </c>
-      <c r="I260">
-        <v>1</v>
-      </c>
-      <c r="N260"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C262" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262">
-        <v>50</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C263" t="s">
+        <v>20</v>
+      </c>
+      <c r="N263"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B265" t="s">
+        <v>187</v>
+      </c>
+      <c r="C265" t="s">
         <v>24</v>
       </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="N263"/>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
-        <v>21</v>
-      </c>
-      <c r="C264" t="s">
-        <v>22</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="N264"/>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="N265"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B266" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
       </c>
       <c r="D266">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -5617,89 +5639,68 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267">
-        <v>250</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N267"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
       </c>
-      <c r="F268">
-        <v>0</v>
+      <c r="I268">
+        <v>1</v>
       </c>
       <c r="N268"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269">
         <v>20</v>
       </c>
-      <c r="F269">
-        <v>0</v>
+      <c r="I269">
+        <v>1</v>
       </c>
       <c r="N269"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>119</v>
-      </c>
-      <c r="C270" t="s">
-        <v>20</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="M270"/>
       <c r="N270"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B271" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
       </c>
       <c r="D271">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="M271"/>
+        <v>1</v>
+      </c>
       <c r="N271"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
-      <c r="M272"/>
       <c r="N272"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
@@ -5712,91 +5713,74 @@
       <c r="F273">
         <v>1</v>
       </c>
-      <c r="M273"/>
       <c r="N273"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>47</v>
-      </c>
-      <c r="C274" t="s">
-        <v>22</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="M274"/>
-      <c r="N274"/>
-    </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B275" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C275" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="M275"/>
+        <v>0</v>
+      </c>
       <c r="N275"/>
     </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>116</v>
+      </c>
+      <c r="C276" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276">
+        <v>250</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="N276"/>
+    </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B277" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C277" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="K277" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L277" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="M277"/>
+        <v>0</v>
+      </c>
       <c r="N277"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C278" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D278">
+        <v>20</v>
       </c>
       <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="K278" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L278" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M278"/>
+        <v>0</v>
+      </c>
       <c r="N278"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -5806,86 +5790,84 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C280" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
         <v>0</v>
       </c>
       <c r="M280"/>
       <c r="N280"/>
     </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>221</v>
+      </c>
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>50</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="M281"/>
+      <c r="N281"/>
+    </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="B282" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F282">
         <v>1</v>
-      </c>
-      <c r="K282" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="M282"/>
       <c r="N282"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C283" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="K283" s="4" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="M283"/>
       <c r="N283"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D284">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F284">
         <v>1</v>
       </c>
-      <c r="K284" s="4" t="s">
-        <v>162</v>
+      <c r="G284">
+        <v>0</v>
       </c>
       <c r="M284"/>
       <c r="N284"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B286" t="s">
         <v>23</v>
@@ -5899,114 +5881,138 @@
       <c r="F286">
         <v>1</v>
       </c>
+      <c r="K286" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L286" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M286"/>
+      <c r="N286"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F287">
         <v>1</v>
       </c>
+      <c r="K287" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L287" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M287"/>
+      <c r="N287"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="C288" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M288"/>
+      <c r="N288"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
       </c>
       <c r="F289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
-        <v>47</v>
-      </c>
-      <c r="C290" t="s">
-        <v>22</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="M289"/>
+      <c r="N289"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B291" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C291" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F291">
         <v>1</v>
       </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
+      <c r="K291" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M291"/>
+      <c r="N291"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>160</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="K292" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M292"/>
+      <c r="N292"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B293" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="C293" t="s">
         <v>12</v>
       </c>
       <c r="D293">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>226</v>
-      </c>
-      <c r="C294" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294">
-        <v>250</v>
-      </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
+      <c r="K293" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M293"/>
+      <c r="N293"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B295" t="s">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
       </c>
       <c r="D295">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -6014,26 +6020,29 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="C296" t="s">
         <v>12</v>
       </c>
       <c r="D296">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
         <v>0</v>
       </c>
     </row>
@@ -6050,132 +6059,101 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" t="s">
+        <v>22</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
         <v>40</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>33</v>
       </c>
-      <c r="D299">
-        <v>1</v>
-      </c>
-      <c r="F299">
-        <v>1</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B301" t="s">
-        <v>155</v>
-      </c>
-      <c r="C301" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301">
-        <v>30</v>
-      </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="M301"/>
-      <c r="N301"/>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="B302" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="C302" t="s">
-        <v>35</v>
-      </c>
-      <c r="E302" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>40</v>
       </c>
       <c r="F302">
         <v>1</v>
       </c>
-      <c r="G302" t="s">
-        <v>157</v>
-      </c>
-      <c r="K302"/>
-      <c r="L302"/>
-      <c r="M302"/>
-      <c r="N302"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D303">
+        <v>250</v>
       </c>
       <c r="F303">
-        <v>0</v>
-      </c>
-      <c r="K303"/>
-      <c r="L303"/>
-      <c r="M303"/>
-      <c r="N303"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C304" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>250</v>
       </c>
       <c r="F304">
         <v>1</v>
       </c>
-      <c r="G304">
-        <v>1</v>
-      </c>
-      <c r="K304"/>
-      <c r="L304"/>
-      <c r="M304"/>
-      <c r="N304"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C305" t="s">
-        <v>164</v>
-      </c>
-      <c r="D305" t="s">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="D305">
+        <v>250</v>
       </c>
       <c r="F305">
-        <v>1</v>
-      </c>
-      <c r="G305">
-        <v>0</v>
-      </c>
-      <c r="K305"/>
-      <c r="L305"/>
-      <c r="M305"/>
-      <c r="N305"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C306" t="s">
-        <v>164</v>
-      </c>
-      <c r="D306" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F306">
-        <v>1</v>
-      </c>
-      <c r="K306"/>
-      <c r="L306"/>
-      <c r="M306"/>
-      <c r="N306"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
@@ -6187,59 +6165,58 @@
       <c r="F307">
         <v>1</v>
       </c>
-      <c r="K307"/>
-      <c r="L307"/>
-      <c r="M307"/>
-      <c r="N307"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
       </c>
       <c r="F308">
-        <v>0</v>
-      </c>
-      <c r="K308"/>
-      <c r="L308"/>
-      <c r="M308"/>
-      <c r="N308"/>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
-        <v>40</v>
-      </c>
-      <c r="C309" t="s">
-        <v>33</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
-      </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
-      </c>
-      <c r="K309"/>
-      <c r="L309"/>
-      <c r="M309"/>
-      <c r="N309"/>
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B310" t="s">
+        <v>155</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310">
+        <v>30</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="M310"/>
+      <c r="N310"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B311" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E311" t="s">
+        <v>156</v>
       </c>
       <c r="F311">
         <v>1</v>
+      </c>
+      <c r="G311" t="s">
+        <v>157</v>
       </c>
       <c r="K311"/>
       <c r="L311"/>
@@ -6248,7 +6225,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="C312" t="s">
         <v>24</v>
@@ -6263,15 +6240,15 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
         <v>1</v>
       </c>
       <c r="K313"/>
@@ -6281,19 +6258,19 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C314" t="s">
         <v>164</v>
       </c>
       <c r="D314" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F314">
         <v>1</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K314"/>
       <c r="L314"/>
@@ -6302,13 +6279,16 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="C315" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D315" t="s">
+        <v>165</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K315"/>
       <c r="L315"/>
@@ -6316,21 +6296,14 @@
       <c r="N315"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A316"/>
       <c r="B316" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>164</v>
-      </c>
-      <c r="D316" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F316">
         <v>1</v>
-      </c>
-      <c r="G316">
-        <v>0</v>
       </c>
       <c r="K316"/>
       <c r="L316"/>
@@ -6338,35 +6311,180 @@
       <c r="N316"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A317"/>
       <c r="B317" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C317" t="s">
-        <v>164</v>
-      </c>
-      <c r="D317" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K317"/>
       <c r="L317"/>
       <c r="M317"/>
       <c r="N317"/>
     </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>40</v>
+      </c>
+      <c r="C318" t="s">
+        <v>33</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="K318"/>
+      <c r="L318"/>
+      <c r="M318"/>
+      <c r="N318"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B320" t="s">
+        <v>167</v>
+      </c>
+      <c r="C320" t="s">
+        <v>24</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="K320"/>
+      <c r="L320"/>
+      <c r="M320"/>
+      <c r="N320"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>168</v>
+      </c>
+      <c r="C321" t="s">
+        <v>24</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="K321"/>
+      <c r="L321"/>
+      <c r="M321"/>
+      <c r="N321"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>169</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322">
+        <v>50</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="K322"/>
+      <c r="L322"/>
+      <c r="M322"/>
+      <c r="N322"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>170</v>
+      </c>
+      <c r="C323" t="s">
+        <v>164</v>
+      </c>
+      <c r="D323" t="s">
+        <v>175</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="K323"/>
+      <c r="L323"/>
+      <c r="M323"/>
+      <c r="N323"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>172</v>
+      </c>
+      <c r="C324" t="s">
+        <v>24</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="K324"/>
+      <c r="L324"/>
+      <c r="M324"/>
+      <c r="N324"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325" t="s">
+        <v>173</v>
+      </c>
+      <c r="C325" t="s">
+        <v>164</v>
+      </c>
+      <c r="D325" t="s">
+        <v>171</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="K325"/>
+      <c r="L325"/>
+      <c r="M325"/>
+      <c r="N325"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="B326" t="s">
+        <v>176</v>
+      </c>
+      <c r="C326" t="s">
+        <v>164</v>
+      </c>
+      <c r="D326" t="s">
+        <v>171</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="K326"/>
+      <c r="L326"/>
+      <c r="M326"/>
+      <c r="N326"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K165" r:id="rId1"/>
-    <hyperlink ref="K167" r:id="rId2"/>
-    <hyperlink ref="K119" r:id="rId3"/>
-    <hyperlink ref="L119" r:id="rId4"/>
-    <hyperlink ref="M119" r:id="rId5"/>
-    <hyperlink ref="K205" r:id="rId6"/>
-    <hyperlink ref="L205" r:id="rId7"/>
-    <hyperlink ref="M205" r:id="rId8"/>
-    <hyperlink ref="N119" r:id="rId9"/>
+    <hyperlink ref="K174" r:id="rId1"/>
+    <hyperlink ref="K176" r:id="rId2"/>
+    <hyperlink ref="K128" r:id="rId3"/>
+    <hyperlink ref="L128" r:id="rId4"/>
+    <hyperlink ref="M128" r:id="rId5"/>
+    <hyperlink ref="K214" r:id="rId6"/>
+    <hyperlink ref="L214" r:id="rId7"/>
+    <hyperlink ref="M214" r:id="rId8"/>
+    <hyperlink ref="N128" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="354">
   <si>
     <t>field</t>
   </si>
@@ -1063,6 +1063,21 @@
   </si>
   <si>
     <t>packet</t>
+  </si>
+  <si>
+    <t>previous_town_id</t>
+  </si>
+  <si>
+    <t>previous_street_id</t>
+  </si>
+  <si>
+    <t>previous_building_id</t>
+  </si>
+  <si>
+    <t>previous_floor_id</t>
+  </si>
+  <si>
+    <t>previous_room_id</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U335"/>
+  <dimension ref="A1:U340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,24 +3196,21 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3206,13 +3218,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3220,13 +3229,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3234,13 +3240,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3248,112 +3251,121 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>50</v>
       </c>
       <c r="F112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>50</v>
       </c>
       <c r="F113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>50</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
         <v>24</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
@@ -3362,633 +3374,620 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>250</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>341</v>
-      </c>
-      <c r="C120" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>47</v>
-      </c>
-      <c r="C122" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>40</v>
-      </c>
-      <c r="C123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B125" t="s">
-        <v>337</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
       </c>
       <c r="F125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
         <v>100</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>338</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C132" t="s">
         <v>339</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>40</v>
-      </c>
-      <c r="C130" t="s">
-        <v>33</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132">
-        <v>100</v>
-      </c>
       <c r="F132">
         <v>1</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F133">
         <v>1</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M133" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N133" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F134">
         <v>0</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M134" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N134" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
-      <c r="K135" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M135" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N135" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136">
-        <v>20</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M136" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N136" s="4" t="s">
-        <v>201</v>
+      <c r="G135">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
       <c r="D137">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="K137" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L137" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M137" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N137" s="5" t="s">
-        <v>202</v>
+        <v>1</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
       </c>
       <c r="D139">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" t="s">
-        <v>230</v>
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
-      <c r="G142" t="s">
-        <v>43</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N142" s="4" t="s">
-        <v>43</v>
+      <c r="K142" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
         <v>1</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
         <v>1</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>40</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E146" t="s">
+        <v>230</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
         <v>33</v>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M147" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N147" s="4" t="s">
-        <v>130</v>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D149">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
-      <c r="G150" s="2"/>
+      <c r="K150" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M151" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>17</v>
-      </c>
-      <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153">
-        <v>20</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
@@ -3997,138 +3996,159 @@
         <v>100</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
+      <c r="G155" s="2"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D156">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
     </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157">
+        <v>20</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>331</v>
+        <v>18</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>100</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="F160">
         <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D161">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>333</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="C163" t="s">
-        <v>335</v>
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>30</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
     </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" t="s">
+        <v>334</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B166" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>50</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4136,13 +4156,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>49</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4150,89 +4167,66 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>52</v>
-      </c>
-      <c r="C170" t="s">
-        <v>33</v>
-      </c>
-      <c r="D170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>0</v>
-      </c>
-    </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F171">
         <v>1</v>
-      </c>
-      <c r="G171">
-        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>100</v>
       </c>
       <c r="F172">
         <v>1</v>
-      </c>
-      <c r="G172" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>100</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -4240,18 +4234,21 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>23</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
         <v>33</v>
@@ -4266,131 +4263,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E177" t="s">
+        <v>54</v>
       </c>
       <c r="F177">
         <v>1</v>
       </c>
-      <c r="K177" s="4">
-        <v>1</v>
+      <c r="G177" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F178">
         <v>1</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s">
         <v>24</v>
       </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>60</v>
-      </c>
-      <c r="C181" t="s">
-        <v>12</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="K181" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>178</v>
-      </c>
-      <c r="C182" t="s">
-        <v>164</v>
-      </c>
-      <c r="D182" t="s">
-        <v>174</v>
-      </c>
       <c r="F182">
         <v>1</v>
       </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="K182" s="4" t="s">
-        <v>179</v>
+      <c r="K182" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
       </c>
       <c r="D183">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="K183" s="5" t="s">
-        <v>184</v>
+      <c r="K183" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -4402,116 +4384,123 @@
         <v>1</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
-      <c r="K185" s="5" t="s">
-        <v>113</v>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>60</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="C187" t="s">
-        <v>206</v>
+        <v>164</v>
+      </c>
+      <c r="D187" t="s">
+        <v>174</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-      <c r="K187"/>
-      <c r="L187"/>
-      <c r="M187"/>
-      <c r="N187"/>
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="C188" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-      <c r="K188"/>
-      <c r="L188"/>
-      <c r="M188"/>
-      <c r="N188"/>
+        <v>1</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="K189"/>
-      <c r="L189"/>
-      <c r="M189"/>
-      <c r="N189"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B191" t="s">
-        <v>209</v>
-      </c>
-      <c r="C191" t="s">
-        <v>205</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="K191"/>
-      <c r="L191"/>
-      <c r="M191"/>
-      <c r="N191"/>
+        <v>1</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>61</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B192" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -4524,15 +4513,33 @@
       <c r="M192"/>
       <c r="N192"/>
     </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" t="s">
+        <v>206</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+    </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B194" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C194" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>200</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -4545,41 +4552,41 @@
       <c r="M194"/>
       <c r="N194"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" t="s">
+        <v>205</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>65</v>
       </c>
-      <c r="C195" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195">
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
         <v>200</v>
       </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="I195">
-        <v>1</v>
-      </c>
-      <c r="K195"/>
-      <c r="L195"/>
-      <c r="M195"/>
-      <c r="N195"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B197" t="s">
-        <v>183</v>
-      </c>
-      <c r="C197" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197">
-        <v>100</v>
-      </c>
       <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="I197">
         <v>1</v>
       </c>
       <c r="K197"/>
@@ -4587,33 +4594,15 @@
       <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" t="s">
         <v>67</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>205</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>65</v>
-      </c>
-      <c r="C199" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199">
-        <v>200</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4626,610 +4615,617 @@
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B201" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201">
-        <v>50</v>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="K201" t="s">
-        <v>121</v>
-      </c>
-      <c r="L201" t="s">
-        <v>122</v>
-      </c>
-      <c r="M201" t="s">
-        <v>121</v>
-      </c>
-      <c r="N201"/>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>65</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>200</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B202" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>100</v>
       </c>
       <c r="F202">
         <v>1</v>
       </c>
-      <c r="K202">
-        <v>1</v>
-      </c>
-      <c r="L202">
-        <v>2</v>
-      </c>
-      <c r="M202">
-        <v>3</v>
-      </c>
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
       <c r="N202"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
-      <c r="K203" t="s">
-        <v>190</v>
-      </c>
-      <c r="L203" t="s">
-        <v>190</v>
-      </c>
-      <c r="M203" t="s">
-        <v>200</v>
-      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
       <c r="N203"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
-      <c r="K204">
-        <v>123</v>
-      </c>
-      <c r="L204">
-        <v>234</v>
-      </c>
-      <c r="M204">
-        <v>345</v>
-      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
       <c r="N204"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>72</v>
-      </c>
-      <c r="C205" t="s">
-        <v>24</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="M205"/>
-      <c r="N205"/>
-    </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>50</v>
       </c>
       <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="M206"/>
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>121</v>
+      </c>
+      <c r="L206" t="s">
+        <v>122</v>
+      </c>
+      <c r="M206" t="s">
+        <v>121</v>
+      </c>
       <c r="N206"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F207">
         <v>1</v>
       </c>
-      <c r="K207" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L207" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M207" s="4" t="s">
-        <v>140</v>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>3</v>
       </c>
       <c r="N207"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>250</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
-      <c r="M208"/>
+      <c r="K208" t="s">
+        <v>190</v>
+      </c>
+      <c r="L208" t="s">
+        <v>190</v>
+      </c>
+      <c r="M208" t="s">
+        <v>200</v>
+      </c>
       <c r="N208"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="M209"/>
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>123</v>
+      </c>
+      <c r="L209">
+        <v>234</v>
+      </c>
+      <c r="M209">
+        <v>345</v>
+      </c>
       <c r="N209"/>
     </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>72</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="M210"/>
+      <c r="N210"/>
+    </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
-      </c>
-      <c r="D211">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M211"/>
       <c r="N211"/>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
-      <c r="M212"/>
+      <c r="K212" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M212" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N212"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>12</v>
-      </c>
-      <c r="D213">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213"/>
       <c r="N213"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
       </c>
       <c r="F214">
         <v>1</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
       </c>
       <c r="M214"/>
       <c r="N214"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
-        <v>47</v>
-      </c>
-      <c r="C215" t="s">
-        <v>22</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-      <c r="M215"/>
-      <c r="N215"/>
-    </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F216">
         <v>1</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
       </c>
       <c r="M216"/>
       <c r="N216"/>
     </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>50</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="M217"/>
+      <c r="N217"/>
+    </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B218" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
-      <c r="K218" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L218" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M218" t="s">
-        <v>197</v>
-      </c>
+      <c r="M218"/>
       <c r="N218"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
-      <c r="K219" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L219" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M219" t="s">
-        <v>198</v>
-      </c>
+      <c r="M219"/>
       <c r="N219"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C220" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
-      <c r="K220" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M220">
-        <v>790790790</v>
-      </c>
+      <c r="M220"/>
       <c r="N220"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C221" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>0</v>
-      </c>
-      <c r="K221" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L221" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M221">
-        <v>210210210</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="M221"/>
       <c r="N221"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
-        <v>78</v>
-      </c>
-      <c r="C222" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222">
-        <v>20</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L222" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M222">
-        <v>210210211</v>
-      </c>
-      <c r="N222"/>
-    </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="D223">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="K223" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L223" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M223" s="6" t="s">
-        <v>199</v>
+      <c r="K223" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M223" t="s">
+        <v>197</v>
       </c>
       <c r="N223"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>50</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M224"/>
+        <v>124</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M224" t="s">
+        <v>198</v>
+      </c>
       <c r="N224"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="M225"/>
+        <v>0</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M225">
+        <v>790790790</v>
+      </c>
       <c r="N225"/>
     </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>77</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>20</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M226">
+        <v>210210210</v>
+      </c>
+      <c r="N226"/>
+    </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B227" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
       </c>
       <c r="D227">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M227">
+        <v>210210211</v>
+      </c>
+      <c r="N227"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>255</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
-      <c r="K228" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M228"/>
+      <c r="K228" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M228" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="N228"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="C229" t="s">
         <v>24</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M229"/>
       <c r="N229"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B231" t="s">
-        <v>220</v>
-      </c>
-      <c r="C231" t="s">
-        <v>24</v>
-      </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-      <c r="M231"/>
-      <c r="N231"/>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>40</v>
+      </c>
+      <c r="C230" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="M230"/>
+      <c r="N230"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B232" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F232">
         <v>1</v>
       </c>
-      <c r="M232"/>
-      <c r="N232"/>
+      <c r="K232" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F233">
-        <v>0</v>
-      </c>
-      <c r="I233">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M233"/>
       <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="C234" t="s">
         <v>24</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M234"/>
       <c r="N234"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
-        <v>37</v>
-      </c>
-      <c r="C235" t="s">
-        <v>35</v>
-      </c>
-      <c r="E235" t="s">
-        <v>185</v>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="M235"/>
-      <c r="N235"/>
-    </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B236" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C236" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236"/>
       <c r="N236"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>100</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -5239,70 +5235,84 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="M238"/>
       <c r="N238"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M239"/>
       <c r="N239"/>
     </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>37</v>
+      </c>
+      <c r="C240" t="s">
+        <v>35</v>
+      </c>
+      <c r="E240" t="s">
+        <v>185</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="M240"/>
+      <c r="N240"/>
+    </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B241" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C241" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="F241">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="M241"/>
       <c r="N241"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="C242" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
+      <c r="M242"/>
       <c r="N242"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5311,43 +5321,31 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
         <v>0</v>
       </c>
       <c r="N244"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
-        <v>216</v>
-      </c>
-      <c r="C245" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="N245"/>
-    </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B246" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -5356,49 +5354,49 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
-      </c>
-      <c r="D247">
+        <v>213</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="N247"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>214</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248">
         <v>100</v>
       </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="N247"/>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="N248"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B249" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="K249" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L249" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M249" s="4" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N249"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="C250" t="s">
         <v>12</v>
@@ -5407,184 +5405,187 @@
         <v>2</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N250"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N251"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="C252" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D252">
+        <v>100</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-      <c r="H252" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N252"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>40</v>
-      </c>
-      <c r="C253" t="s">
-        <v>33</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>0</v>
-      </c>
-      <c r="N253"/>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>50</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="K254" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N254"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="B255" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
       </c>
       <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="K255" s="4">
-        <v>1</v>
-      </c>
-      <c r="L255" s="4">
-        <v>1</v>
-      </c>
-      <c r="M255" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N255"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
       </c>
       <c r="D256">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="K256" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L256" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M256" s="4" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N256"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F257">
         <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>45</v>
       </c>
       <c r="N257"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C258" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
         <v>0</v>
       </c>
       <c r="N258"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>40</v>
-      </c>
-      <c r="C259" t="s">
-        <v>33</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-      <c r="N259"/>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B260" t="s">
+        <v>91</v>
+      </c>
+      <c r="C260" t="s">
+        <v>24</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="K260" s="4">
+        <v>1</v>
+      </c>
+      <c r="L260" s="4">
+        <v>1</v>
+      </c>
+      <c r="M260" s="4">
+        <v>1</v>
+      </c>
+      <c r="N260"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>75</v>
       </c>
       <c r="F261">
         <v>1</v>
       </c>
-      <c r="K261" s="4">
-        <v>1</v>
-      </c>
-      <c r="L261" s="4">
-        <v>1</v>
-      </c>
-      <c r="M261" s="4">
-        <v>1</v>
+      <c r="K261" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L261" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M261" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5593,74 +5594,74 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
       </c>
       <c r="D263">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="K263" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L263" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M263" s="4" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N263"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C264" t="s">
+        <v>33</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="N264"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B266" t="s">
+        <v>32</v>
+      </c>
+      <c r="C266" t="s">
         <v>24</v>
       </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="N264"/>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>73</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="K266" s="4">
+        <v>1</v>
+      </c>
+      <c r="L266" s="4">
+        <v>1</v>
+      </c>
+      <c r="M266" s="4">
+        <v>1</v>
+      </c>
+      <c r="N266"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>92</v>
+      </c>
+      <c r="C267" t="s">
         <v>24</v>
       </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-      <c r="N265"/>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
-        <v>40</v>
-      </c>
-      <c r="C266" t="s">
-        <v>33</v>
-      </c>
-      <c r="D266">
-        <v>1</v>
-      </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <v>0</v>
-      </c>
-      <c r="N266"/>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="N267"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B268" t="s">
         <v>23</v>
       </c>
@@ -5668,64 +5669,91 @@
         <v>12</v>
       </c>
       <c r="D268">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F268">
         <v>1</v>
+      </c>
+      <c r="K268" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L268" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M268" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N268"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C269" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N269"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
       </c>
       <c r="N270"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
       </c>
       <c r="N271"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
-        <v>97</v>
-      </c>
-      <c r="C272" t="s">
-        <v>20</v>
-      </c>
-      <c r="N272"/>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273">
+        <v>50</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="N273"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="B274" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D274">
+        <v>100</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -5734,22 +5762,16 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275">
-        <v>50</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N275"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
@@ -5758,37 +5780,31 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C277" t="s">
         <v>20</v>
       </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
       <c r="N277"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
-        <v>192</v>
-      </c>
-      <c r="C278" t="s">
-        <v>20</v>
-      </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
-      <c r="N278"/>
-    </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B279" t="s">
+        <v>187</v>
+      </c>
+      <c r="C279" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
       <c r="N279"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="B280" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -5797,73 +5813,70 @@
         <v>50</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N280"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="C281" t="s">
-        <v>24</v>
-      </c>
-      <c r="F281">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N281"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="C282" t="s">
-        <v>22</v>
-      </c>
-      <c r="F282">
+        <v>20</v>
+      </c>
+      <c r="I282">
         <v>1</v>
       </c>
       <c r="N282"/>
     </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>192</v>
+      </c>
+      <c r="C283" t="s">
+        <v>20</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="N283"/>
+    </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B284" t="s">
-        <v>115</v>
-      </c>
-      <c r="C284" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284">
-        <v>250</v>
-      </c>
-      <c r="F284">
-        <v>0</v>
-      </c>
       <c r="N284"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B285" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C285" t="s">
         <v>12</v>
       </c>
       <c r="D285">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N285"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -5872,115 +5885,108 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N287"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
-        <v>119</v>
-      </c>
-      <c r="C288" t="s">
-        <v>20</v>
-      </c>
-      <c r="F288">
-        <v>0</v>
-      </c>
-      <c r="M288"/>
-      <c r="N288"/>
-    </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B289" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C289" t="s">
         <v>12</v>
       </c>
       <c r="D289">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
-      <c r="M289"/>
       <c r="N289"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="C290" t="s">
         <v>12</v>
       </c>
       <c r="D290">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
-      <c r="M290"/>
       <c r="N290"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C291" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="M291"/>
+        <v>0</v>
+      </c>
       <c r="N291"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>20</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
-      <c r="M292"/>
       <c r="N292"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C293" t="s">
-        <v>33</v>
-      </c>
-      <c r="D293">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
         <v>0</v>
       </c>
       <c r="M293"/>
       <c r="N293"/>
     </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>120</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>32</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="M294"/>
+      <c r="N294"/>
+    </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -5989,13 +5995,7 @@
         <v>50</v>
       </c>
       <c r="F295">
-        <v>1</v>
-      </c>
-      <c r="K295" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L295" s="4" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="M295"/>
       <c r="N295"/>
@@ -6010,12 +6010,6 @@
       <c r="F296">
         <v>1</v>
       </c>
-      <c r="K296" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L296" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="M296"/>
       <c r="N296"/>
     </row>
@@ -6053,174 +6047,191 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B300" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="C300" t="s">
         <v>12</v>
       </c>
       <c r="D300">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="K300" s="4" t="s">
-        <v>112</v>
+        <v>180</v>
+      </c>
+      <c r="L300" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="M300"/>
       <c r="N300"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
       <c r="K301" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="L301" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="M301"/>
       <c r="N301"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C302" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F302">
-        <v>1</v>
-      </c>
-      <c r="K302" s="4" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M302"/>
       <c r="N302"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B304" t="s">
-        <v>23</v>
-      </c>
-      <c r="C304" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304">
-        <v>50</v>
-      </c>
-      <c r="F304">
-        <v>1</v>
-      </c>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>40</v>
+      </c>
+      <c r="C303" t="s">
+        <v>33</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>1</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="M303"/>
+      <c r="N303"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B305" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C305" t="s">
         <v>12</v>
       </c>
       <c r="D305">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F305">
         <v>1</v>
       </c>
+      <c r="K305" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M305"/>
+      <c r="N305"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C306" t="s">
-        <v>196</v>
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
       </c>
       <c r="F306">
         <v>1</v>
       </c>
-      <c r="G306">
-        <v>0</v>
-      </c>
+      <c r="K306" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M306"/>
+      <c r="N306"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D307">
+        <v>50</v>
       </c>
       <c r="F307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
-        <v>47</v>
-      </c>
-      <c r="C308" t="s">
-        <v>22</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
+      <c r="K307" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M307"/>
+      <c r="N307"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B309" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309">
+        <v>50</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>194</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310">
         <v>40</v>
       </c>
-      <c r="C309" t="s">
-        <v>33</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
-      </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
+      <c r="F310">
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B311" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
-      </c>
-      <c r="D311">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="F311">
         <v>1</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -6228,49 +6239,44 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="C313" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="C314" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D314">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="F314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
-        <v>228</v>
-      </c>
-      <c r="C315" t="s">
-        <v>20</v>
-      </c>
-      <c r="F315">
+        <v>1</v>
+      </c>
+      <c r="G314">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="B316" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D316">
+        <v>40</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -6278,142 +6284,119 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="C317" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F317">
         <v>1</v>
       </c>
-      <c r="G317">
-        <v>0</v>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>227</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318">
+        <v>250</v>
+      </c>
+      <c r="F318">
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="B319" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="C319" t="s">
         <v>12</v>
       </c>
       <c r="D319">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F319">
-        <v>1</v>
-      </c>
-      <c r="M319"/>
-      <c r="N319"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="C320" t="s">
-        <v>35</v>
-      </c>
-      <c r="E320" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="F320">
-        <v>1</v>
-      </c>
-      <c r="G320" t="s">
-        <v>157</v>
-      </c>
-      <c r="K320"/>
-      <c r="L320"/>
-      <c r="M320"/>
-      <c r="N320"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F321">
-        <v>0</v>
-      </c>
-      <c r="K321"/>
-      <c r="L321"/>
-      <c r="M321"/>
-      <c r="N321"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="C322" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
       </c>
       <c r="F322">
         <v>1</v>
       </c>
       <c r="G322">
-        <v>1</v>
-      </c>
-      <c r="K322"/>
-      <c r="L322"/>
-      <c r="M322"/>
-      <c r="N322"/>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
-        <v>173</v>
-      </c>
-      <c r="C323" t="s">
-        <v>164</v>
-      </c>
-      <c r="D323" t="s">
-        <v>171</v>
-      </c>
-      <c r="F323">
-        <v>1</v>
-      </c>
-      <c r="G323">
-        <v>0</v>
-      </c>
-      <c r="K323"/>
-      <c r="L323"/>
-      <c r="M323"/>
-      <c r="N323"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B324" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="C324" t="s">
-        <v>164</v>
-      </c>
-      <c r="D324" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="D324">
+        <v>30</v>
       </c>
       <c r="F324">
         <v>1</v>
       </c>
-      <c r="K324"/>
-      <c r="L324"/>
       <c r="M324"/>
       <c r="N324"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E325" t="s">
+        <v>156</v>
       </c>
       <c r="F325">
         <v>1</v>
+      </c>
+      <c r="G325" t="s">
+        <v>157</v>
       </c>
       <c r="K325"/>
       <c r="L325"/>
@@ -6422,10 +6405,10 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C326" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -6437,34 +6420,52 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C327" t="s">
-        <v>33</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K327"/>
       <c r="L327"/>
       <c r="M327"/>
       <c r="N327"/>
     </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>173</v>
+      </c>
+      <c r="C328" t="s">
+        <v>164</v>
+      </c>
+      <c r="D328" t="s">
+        <v>171</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="K328"/>
+      <c r="L328"/>
+      <c r="M328"/>
+      <c r="N328"/>
+    </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B329" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D329" t="s">
+        <v>165</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -6476,13 +6477,13 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330"/>
       <c r="L330"/>
@@ -6491,16 +6492,13 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="C331" t="s">
-        <v>12</v>
-      </c>
-      <c r="D331">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K331"/>
       <c r="L331"/>
@@ -6509,56 +6507,37 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C332" t="s">
-        <v>164</v>
-      </c>
-      <c r="D332" t="s">
-        <v>175</v>
+        <v>33</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
       </c>
       <c r="F332">
         <v>1</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K332"/>
       <c r="L332"/>
       <c r="M332"/>
       <c r="N332"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
-        <v>172</v>
-      </c>
-      <c r="C333" t="s">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B334" t="s">
+        <v>167</v>
+      </c>
+      <c r="C334" t="s">
         <v>24</v>
       </c>
-      <c r="F333">
-        <v>0</v>
-      </c>
-      <c r="K333"/>
-      <c r="L333"/>
-      <c r="M333"/>
-      <c r="N333"/>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A334"/>
-      <c r="B334" t="s">
-        <v>173</v>
-      </c>
-      <c r="C334" t="s">
-        <v>164</v>
-      </c>
-      <c r="D334" t="s">
-        <v>171</v>
-      </c>
       <c r="F334">
         <v>1</v>
-      </c>
-      <c r="G334">
-        <v>0</v>
       </c>
       <c r="K334"/>
       <c r="L334"/>
@@ -6566,35 +6545,126 @@
       <c r="N334"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A335"/>
       <c r="B335" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C335" t="s">
-        <v>164</v>
-      </c>
-      <c r="D335" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K335"/>
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335"/>
     </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>169</v>
+      </c>
+      <c r="C336" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336">
+        <v>50</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="K336"/>
+      <c r="L336"/>
+      <c r="M336"/>
+      <c r="N336"/>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>170</v>
+      </c>
+      <c r="C337" t="s">
+        <v>164</v>
+      </c>
+      <c r="D337" t="s">
+        <v>175</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="K337"/>
+      <c r="L337"/>
+      <c r="M337"/>
+      <c r="N337"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>172</v>
+      </c>
+      <c r="C338" t="s">
+        <v>24</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="K338"/>
+      <c r="L338"/>
+      <c r="M338"/>
+      <c r="N338"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="s">
+        <v>164</v>
+      </c>
+      <c r="D339" t="s">
+        <v>171</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="K339"/>
+      <c r="L339"/>
+      <c r="M339"/>
+      <c r="N339"/>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="B340" t="s">
+        <v>176</v>
+      </c>
+      <c r="C340" t="s">
+        <v>164</v>
+      </c>
+      <c r="D340" t="s">
+        <v>171</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="K340"/>
+      <c r="L340"/>
+      <c r="M340"/>
+      <c r="N340"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K183" r:id="rId1"/>
-    <hyperlink ref="K185" r:id="rId2"/>
-    <hyperlink ref="K137" r:id="rId3"/>
-    <hyperlink ref="L137" r:id="rId4"/>
-    <hyperlink ref="M137" r:id="rId5"/>
-    <hyperlink ref="K223" r:id="rId6"/>
-    <hyperlink ref="L223" r:id="rId7"/>
-    <hyperlink ref="M223" r:id="rId8"/>
-    <hyperlink ref="N137" r:id="rId9"/>
+    <hyperlink ref="K188" r:id="rId1"/>
+    <hyperlink ref="K190" r:id="rId2"/>
+    <hyperlink ref="K142" r:id="rId3"/>
+    <hyperlink ref="L142" r:id="rId4"/>
+    <hyperlink ref="M142" r:id="rId5"/>
+    <hyperlink ref="K228" r:id="rId6"/>
+    <hyperlink ref="L228" r:id="rId7"/>
+    <hyperlink ref="M228" r:id="rId8"/>
+    <hyperlink ref="N142" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="318">
   <si>
     <t>field</t>
   </si>
@@ -558,12 +558,6 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>Auctioning Service</t>
-  </si>
-  <si>
-    <t>Arbitration</t>
-  </si>
-  <si>
     <t>footer_lib_photo_id</t>
   </si>
   <si>
@@ -720,30 +714,6 @@
     <t>js</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>Hi, this is the home page!</t>
-  </si>
-  <si>
-    <t>Hi! Setting page here :)</t>
-  </si>
-  <si>
-    <t>2013-03-16 19:30:00</t>
-  </si>
-  <si>
-    <t>alert("home page loaded");</t>
-  </si>
-  <si>
-    <t>alert("settings page loaded");</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -786,69 +756,9 @@
     <t>asset_description_id</t>
   </si>
   <si>
-    <t>INFRASTRUCTURE</t>
-  </si>
-  <si>
-    <t>OTHER ASSETS</t>
-  </si>
-  <si>
     <t>2013-03-30 08:15:00</t>
   </si>
   <si>
-    <t>WATER</t>
-  </si>
-  <si>
-    <t>ELECTRICITY</t>
-  </si>
-  <si>
-    <t>ROAD SIGNS</t>
-  </si>
-  <si>
-    <t>FURNITURE &amp; FITTNGS</t>
-  </si>
-  <si>
-    <t>MOTOR VEHICLES</t>
-  </si>
-  <si>
-    <t>OFFICE EQUIPMENT</t>
-  </si>
-  <si>
-    <t>COMPUTER EQUIPMENT</t>
-  </si>
-  <si>
-    <t>PLANT &amp; MACHINERY</t>
-  </si>
-  <si>
-    <t>RESERVOIR</t>
-  </si>
-  <si>
-    <t>WATERTANK</t>
-  </si>
-  <si>
-    <t>WATERTANK ON STAND</t>
-  </si>
-  <si>
-    <t>WOODEN POLE</t>
-  </si>
-  <si>
-    <t>PALLISADE FENCE</t>
-  </si>
-  <si>
-    <t>POLE NO LIGHT</t>
-  </si>
-  <si>
-    <t>STREET LIGHT</t>
-  </si>
-  <si>
-    <t>REGULATORY SIGN</t>
-  </si>
-  <si>
-    <t>WARNING SIGN</t>
-  </si>
-  <si>
-    <t>INFORMATION SIGN</t>
-  </si>
-  <si>
     <t>STEEL</t>
   </si>
   <si>
@@ -954,42 +864,6 @@
     <t>town_id</t>
   </si>
   <si>
-    <t>BOSHOF</t>
-  </si>
-  <si>
-    <t>DEALESVILLE</t>
-  </si>
-  <si>
-    <t>SERETSE</t>
-  </si>
-  <si>
-    <t>DONKERHOEK</t>
-  </si>
-  <si>
-    <t>A RE YENG STREET</t>
-  </si>
-  <si>
-    <t>WESSELS STREET</t>
-  </si>
-  <si>
-    <t>COMMUNITY HALL</t>
-  </si>
-  <si>
-    <t>MUNICIPAL BUILDING</t>
-  </si>
-  <si>
-    <t>A1234</t>
-  </si>
-  <si>
-    <t>A4321</t>
-  </si>
-  <si>
-    <t>A234</t>
-  </si>
-  <si>
-    <t>A432</t>
-  </si>
-  <si>
     <t>street_id</t>
   </si>
   <si>
@@ -999,9 +873,6 @@
     <t>owner_id</t>
   </si>
   <si>
-    <t>TOKOLOGO LOCAL MUNICIPALITY</t>
-  </si>
-  <si>
     <t>TECHNICAL SERVICES</t>
   </si>
   <si>
@@ -1078,6 +949,27 @@
   </si>
   <si>
     <t>previous_room_id</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>CORPORATE SERVICES</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>MUNICIPAL MANAGER</t>
+  </si>
+  <si>
+    <t>MAYOR</t>
+  </si>
+  <si>
+    <t>TOKOLOGO</t>
+  </si>
+  <si>
+    <t>department_id</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U340"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,10 +1415,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1540,7 +1432,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1551,7 +1443,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1562,7 +1454,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -1573,10 +1465,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1587,7 +1479,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1601,7 +1493,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1626,12 +1518,6 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1646,16 +1532,10 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1663,28 +1543,16 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="F15">
         <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1697,14 +1565,8 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -1714,14 +1576,8 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1737,16 +1593,10 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1761,13 +1611,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -1778,13 +1625,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -1795,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -1814,16 +1658,13 @@
       <c r="K23" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1831,14 +1672,8 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1851,14 +1686,8 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1868,14 +1697,8 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>47</v>
       </c>
@@ -1886,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1902,19 +1725,13 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1922,14 +1739,8 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
@@ -1942,14 +1753,8 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -1959,14 +1764,8 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -1993,19 +1792,13 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -2013,14 +1806,8 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>23</v>
       </c>
@@ -2033,14 +1820,8 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -2050,14 +1831,8 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
@@ -2068,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>40</v>
       </c>
@@ -2084,19 +1859,13 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
@@ -2104,14 +1873,8 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -2124,14 +1887,8 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -2141,14 +1898,8 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>47</v>
       </c>
@@ -2159,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -2175,31 +1926,19 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="F49">
         <v>1</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -2215,12 +1954,6 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -2233,12 +1966,6 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -2267,16 +1994,10 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -2289,12 +2010,6 @@
       </c>
       <c r="F55">
         <v>1</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -2307,12 +2022,6 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -2341,49 +2050,19 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="K58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="F60">
         <v>1</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -2399,30 +2078,6 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="K61" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -2434,30 +2089,6 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="K62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -2486,73 +2117,19 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R64" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
       <c r="F66">
         <v>1</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="T66" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -2568,36 +2145,6 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S67" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="T67" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="U67" s="4"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -2610,36 +2157,6 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="S68" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="T68" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -2668,43 +2185,13 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="K70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="S70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="T70" s="4" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
@@ -2768,7 +2255,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -2783,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
@@ -2806,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
@@ -2860,7 +2347,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -2875,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -2895,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -2943,7 +2430,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
@@ -2958,22 +2445,22 @@
         <v>1</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -2987,22 +2474,22 @@
         <v>1</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -3053,7 +2540,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -3066,12 +2553,6 @@
       </c>
       <c r="F93">
         <v>1</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L93" s="4" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -3084,12 +2565,6 @@
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L94" s="4" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -3118,96 +2593,136 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="K96" s="4" t="s">
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L101" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B99" t="s">
-        <v>288</v>
-      </c>
-      <c r="C99" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>324</v>
-      </c>
-      <c r="C101" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>308</v>
-      </c>
-      <c r="C102" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>309</v>
-      </c>
-      <c r="C103" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="B104" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
@@ -3216,9 +2731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -3227,9 +2742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
@@ -3238,9 +2753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -3249,90 +2764,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>284</v>
       </c>
-      <c r="C113" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113">
-        <v>50</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>285</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114">
-        <v>50</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>286</v>
-      </c>
       <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
@@ -3341,100 +2841,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>50</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>254</v>
       </c>
-      <c r="C117" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>50</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>255</v>
       </c>
-      <c r="C118" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>287</v>
-      </c>
-      <c r="C119" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>340</v>
-      </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
       </c>
       <c r="F121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
         <v>24</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
         <v>24</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
@@ -3443,79 +2955,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>250</v>
       </c>
       <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
-      <c r="G128">
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>338</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3523,49 +3037,49 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" t="s">
-        <v>33</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -3576,520 +3090,502 @@
       <c r="F137">
         <v>1</v>
       </c>
-      <c r="K137" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M137" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N137" s="4" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="F138">
         <v>1</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L138" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N138" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M139" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F140">
         <v>0</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M140" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N140" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M141" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N141" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142">
-        <v>255</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="K142" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L142" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M142" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N142" s="5" t="s">
-        <v>202</v>
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B143" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>243</v>
+        <v>123</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>20</v>
       </c>
       <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M148" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N148" s="4" t="s">
-        <v>129</v>
+      <c r="K148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
         <v>1</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>40</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>40</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" t="s">
+        <v>228</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>43</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" t="s">
         <v>33</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="M152" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>12</v>
-      </c>
       <c r="D154">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D155">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="G155" s="2"/>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M155" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="F156">
         <v>0</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N157" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D158">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N158" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160">
         <v>100</v>
       </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" t="s">
-        <v>20</v>
-      </c>
       <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D161">
         <v>100</v>
@@ -4097,370 +3593,350 @@
       <c r="F161">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
       <c r="D163">
+        <v>20</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>20</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>100</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>100</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B169" t="s">
+        <v>287</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169">
         <v>30</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>331</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" t="s">
         <v>24</v>
       </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>227</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>225</v>
+      </c>
+      <c r="C171" t="s">
         <v>35</v>
       </c>
-      <c r="E165" t="s">
-        <v>334</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>332</v>
-      </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166">
+      <c r="E171" t="s">
+        <v>291</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172">
         <v>50</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>333</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" t="s">
         <v>24</v>
       </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>228</v>
-      </c>
-      <c r="C168" t="s">
-        <v>335</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>226</v>
+      </c>
+      <c r="C174" t="s">
+        <v>292</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>21</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C175" t="s">
         <v>22</v>
       </c>
-      <c r="D169">
+      <c r="D175">
         <v>100</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B177" t="s">
         <v>42</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C177" t="s">
         <v>24</v>
       </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>49</v>
       </c>
-      <c r="C172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172">
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178">
         <v>100</v>
       </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>50</v>
       </c>
-      <c r="C173" t="s">
-        <v>12</v>
-      </c>
-      <c r="D173">
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179">
         <v>100</v>
       </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>51</v>
       </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174">
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180">
         <v>23</v>
       </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>52</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C181" t="s">
         <v>33</v>
       </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>53</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C182" t="s">
         <v>33</v>
       </c>
-      <c r="D176">
-        <v>1</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>37</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C183" t="s">
         <v>35</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E183" t="s">
         <v>54</v>
       </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177" t="s">
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>21</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C184" t="s">
         <v>22</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>47</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C185" t="s">
         <v>22</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>40</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C186" t="s">
         <v>33</v>
       </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B188" t="s">
         <v>57</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C188" t="s">
         <v>24</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="K182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="K188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>58</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183">
-        <v>20</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="K183" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>59</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184">
-        <v>20</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>163</v>
-      </c>
-      <c r="C185" t="s">
-        <v>24</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="K185" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>60</v>
-      </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="K186" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" t="s">
-        <v>164</v>
-      </c>
-      <c r="D187" t="s">
-        <v>174</v>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="K187" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>98</v>
-      </c>
-      <c r="C188" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188">
-        <v>255</v>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="K188" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
@@ -4472,137 +3948,158 @@
         <v>1</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
       </c>
       <c r="D190">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
-      <c r="K190" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="K190" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>163</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="K192"/>
-      <c r="L192"/>
-      <c r="M192"/>
-      <c r="N192"/>
+        <v>1</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="C193" t="s">
-        <v>206</v>
+        <v>164</v>
+      </c>
+      <c r="D193" t="s">
+        <v>174</v>
       </c>
       <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-      <c r="K193"/>
-      <c r="L193"/>
-      <c r="M193"/>
-      <c r="N193"/>
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="I194">
-        <v>1</v>
-      </c>
-      <c r="K194"/>
-      <c r="L194"/>
-      <c r="M194"/>
-      <c r="N194"/>
+        <v>1</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>99</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B196" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="C196" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="I196">
-        <v>1</v>
-      </c>
-      <c r="K196"/>
-      <c r="L196"/>
-      <c r="M196"/>
-      <c r="N196"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
-        <v>65</v>
-      </c>
-      <c r="C197" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197">
-        <v>200</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-      <c r="K197"/>
-      <c r="L197"/>
-      <c r="M197"/>
-      <c r="N197"/>
+        <v>1</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" t="s">
+        <v>64</v>
+      </c>
+      <c r="C198" t="s">
+        <v>204</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B199" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="C199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -4638,18 +4135,18 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="I202">
         <v>1</v>
       </c>
       <c r="K202"/>
@@ -4659,10 +4156,13 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C203" t="s">
-        <v>205</v>
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>200</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -4675,304 +4175,305 @@
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="s">
+        <v>203</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>65</v>
       </c>
-      <c r="C204" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204">
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206">
         <v>200</v>
       </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-      <c r="I204">
-        <v>1</v>
-      </c>
-      <c r="K204"/>
-      <c r="L204"/>
-      <c r="M204"/>
-      <c r="N204"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B206" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206">
-        <v>50</v>
-      </c>
       <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="K206" t="s">
-        <v>121</v>
-      </c>
-      <c r="L206" t="s">
-        <v>122</v>
-      </c>
-      <c r="M206" t="s">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
-        <v>74</v>
-      </c>
-      <c r="C207" t="s">
-        <v>24</v>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="K207">
-        <v>1</v>
-      </c>
-      <c r="L207">
-        <v>2</v>
-      </c>
-      <c r="M207">
-        <v>3</v>
-      </c>
-      <c r="N207"/>
-    </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B208" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
       </c>
       <c r="D208">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="K208" t="s">
-        <v>190</v>
-      </c>
-      <c r="L208" t="s">
-        <v>190</v>
-      </c>
-      <c r="M208" t="s">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
       <c r="N208"/>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
-      </c>
-      <c r="D209">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
-      <c r="K209">
-        <v>123</v>
-      </c>
-      <c r="L209">
-        <v>234</v>
-      </c>
-      <c r="M209">
-        <v>345</v>
-      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
       <c r="N209"/>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>200</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="K210"/>
+      <c r="L210"/>
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
-        <v>73</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-      <c r="M211"/>
-      <c r="N211"/>
-    </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B212" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>50</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
-      <c r="K212" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L212" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M212" s="4" t="s">
-        <v>140</v>
+      <c r="K212" t="s">
+        <v>121</v>
+      </c>
+      <c r="L212" t="s">
+        <v>122</v>
+      </c>
+      <c r="M212" t="s">
+        <v>121</v>
       </c>
       <c r="N212"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-      <c r="M213"/>
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>3</v>
+      </c>
       <c r="N213"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="M214"/>
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>188</v>
+      </c>
+      <c r="L214" t="s">
+        <v>188</v>
+      </c>
+      <c r="M214" t="s">
+        <v>198</v>
+      </c>
       <c r="N214"/>
     </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>123</v>
+      </c>
+      <c r="L215">
+        <v>234</v>
+      </c>
+      <c r="M215">
+        <v>345</v>
+      </c>
+      <c r="N215"/>
+    </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B216" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216"/>
       <c r="N216"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
-      </c>
-      <c r="D217">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M217"/>
       <c r="N217"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
-      </c>
-      <c r="D218">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
-      <c r="M218"/>
+      <c r="K218" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L218" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M218" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="N218"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C219" t="s">
         <v>22</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219"/>
       <c r="N219"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
       </c>
       <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
         <v>0</v>
       </c>
       <c r="M220"/>
       <c r="N220"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
-        <v>40</v>
-      </c>
-      <c r="C221" t="s">
-        <v>33</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="M221"/>
-      <c r="N221"/>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>50</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="M222"/>
+      <c r="N222"/>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
@@ -4983,323 +4484,313 @@
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="K223" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L223" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M223" t="s">
-        <v>197</v>
-      </c>
+      <c r="M223"/>
       <c r="N223"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F224">
         <v>1</v>
       </c>
-      <c r="K224" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L224" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M224" t="s">
-        <v>198</v>
-      </c>
+      <c r="M224"/>
       <c r="N224"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="K225" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L225" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M225">
-        <v>790790790</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M225"/>
       <c r="N225"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
-      <c r="K226" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L226" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M226">
-        <v>210210210</v>
-      </c>
+      <c r="M226"/>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D227">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="K227" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L227" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M227">
-        <v>210210211</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="M227"/>
       <c r="N227"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>15</v>
-      </c>
-      <c r="C228" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228">
-        <v>255</v>
-      </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="K228" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L228" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M228" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="N228"/>
-    </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B229" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>50</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M229"/>
+        <v>123</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M229" t="s">
+        <v>195</v>
+      </c>
       <c r="N229"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="M230"/>
+      <c r="K230" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L230" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M230" t="s">
+        <v>196</v>
+      </c>
       <c r="N230"/>
     </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>16</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>20</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L231" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M231">
+        <v>790790790</v>
+      </c>
+      <c r="N231"/>
+    </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="L232" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M232">
+        <v>210210210</v>
+      </c>
+      <c r="N232"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C233" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M233"/>
+        <v>151</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M233">
+        <v>210210211</v>
+      </c>
       <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>255</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M234" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N234"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>44</v>
+      </c>
+      <c r="C235" t="s">
         <v>24</v>
       </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M234"/>
-      <c r="N234"/>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M235"/>
+      <c r="N235"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B236" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
       </c>
       <c r="F236">
         <v>1</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
       </c>
       <c r="M236"/>
       <c r="N236"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
-        <v>18</v>
-      </c>
-      <c r="C237" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237">
-        <v>100</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="M237"/>
-      <c r="N237"/>
-    </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B238" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>50</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
-      <c r="M238"/>
-      <c r="N238"/>
+        <v>1</v>
+      </c>
+      <c r="K238" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C239" t="s">
         <v>24</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="M239"/>
       <c r="N239"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="C240" t="s">
-        <v>35</v>
-      </c>
-      <c r="E240" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="F240">
         <v>1</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M240"/>
       <c r="N240"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
-        <v>204</v>
-      </c>
-      <c r="C241" t="s">
-        <v>46</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="M241"/>
-      <c r="N241"/>
-    </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B242" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -5309,85 +4800,100 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
       </c>
       <c r="F243">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M243"/>
       <c r="N243"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C244" t="s">
-        <v>33</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F244">
-        <v>1</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="M244"/>
       <c r="N244"/>
     </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>83</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="M245"/>
+      <c r="N245"/>
+    </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="B246" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="C246" t="s">
-        <v>213</v>
+        <v>35</v>
+      </c>
+      <c r="E246" t="s">
+        <v>183</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
+      <c r="M246"/>
       <c r="N246"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C247" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="F247">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="M247"/>
       <c r="N247"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F248">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M248"/>
       <c r="N248"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="C249" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -5396,85 +4902,73 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="C250" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
       <c r="N250"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
-        <v>217</v>
-      </c>
-      <c r="C251" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251">
-        <v>3</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="N251"/>
-    </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B252" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C252" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252">
+        <v>211</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="N252"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>210</v>
+      </c>
+      <c r="C253" t="s">
+        <v>211</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="N253"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>212</v>
+      </c>
+      <c r="C254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254">
         <v>100</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="N252"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B254" t="s">
-        <v>23</v>
-      </c>
-      <c r="C254" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254">
-        <v>50</v>
-      </c>
       <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="K254" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L254" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M254" s="4" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N254"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="C255" t="s">
         <v>12</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -5483,7 +4977,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
@@ -5492,94 +4986,85 @@
         <v>2</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C257" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-      <c r="H257" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="N257"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="C258" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F258">
         <v>1</v>
-      </c>
-      <c r="G258">
-        <v>0</v>
       </c>
       <c r="N258"/>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B260" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>50</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
-      <c r="K260" s="4">
-        <v>1</v>
-      </c>
-      <c r="L260" s="4">
-        <v>1</v>
-      </c>
-      <c r="M260" s="4">
-        <v>1</v>
+      <c r="K260" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L260" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M260" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="N260"/>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="K261" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L261" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M261" s="4" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N261"/>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C262" t="s">
         <v>12</v>
@@ -5594,16 +5079,16 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C263" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F263">
         <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>45</v>
       </c>
       <c r="N263"/>
     </row>
@@ -5627,10 +5112,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C266" t="s">
         <v>24</v>
@@ -5651,46 +5136,52 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <v>75</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K267" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L267" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M267" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N267"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
       </c>
       <c r="D268">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F268">
-        <v>1</v>
-      </c>
-      <c r="K268" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L268" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M268" s="4" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N268"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -5699,55 +5190,61 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C270" t="s">
+        <v>33</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="N270"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B272" t="s">
+        <v>32</v>
+      </c>
+      <c r="C272" t="s">
         <v>24</v>
       </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="N270"/>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
-        <v>40</v>
-      </c>
-      <c r="C271" t="s">
-        <v>33</v>
-      </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-      <c r="N271"/>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="K272" s="4">
+        <v>1</v>
+      </c>
+      <c r="L272" s="4">
+        <v>1</v>
+      </c>
+      <c r="M272" s="4">
+        <v>1</v>
+      </c>
+      <c r="N272"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B273" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C273" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N273"/>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C274" t="s">
         <v>12</v>
@@ -5758,44 +5255,71 @@
       <c r="F274">
         <v>1</v>
       </c>
+      <c r="K274" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L274" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M274" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="N274"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
       </c>
       <c r="N275"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
       </c>
       <c r="N276"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
       </c>
       <c r="N277"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B279" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="C279" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D279">
+        <v>50</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -5804,22 +5328,22 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
       </c>
       <c r="D280">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C281" t="s">
         <v>20</v>
@@ -5828,43 +5352,31 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="C282" t="s">
         <v>20</v>
       </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
       <c r="N282"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="C283" t="s">
         <v>20</v>
       </c>
-      <c r="I283">
-        <v>1</v>
-      </c>
       <c r="N283"/>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N284"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B285" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="C285" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -5873,10 +5385,13 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D286">
+        <v>50</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -5885,70 +5400,64 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
-      </c>
-      <c r="F287">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N287"/>
     </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>189</v>
+      </c>
+      <c r="C288" t="s">
+        <v>20</v>
+      </c>
+      <c r="I288">
+        <v>1</v>
+      </c>
+      <c r="N288"/>
+    </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B289" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C289" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289">
-        <v>250</v>
-      </c>
-      <c r="F289">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
       </c>
       <c r="N289"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
-        <v>116</v>
-      </c>
-      <c r="C290" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290">
-        <v>250</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
       <c r="N290"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="B291" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D291">
+        <v>50</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N291"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C292" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -5957,320 +5466,310 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F293">
-        <v>0</v>
-      </c>
-      <c r="M293"/>
+        <v>1</v>
+      </c>
       <c r="N293"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
-        <v>120</v>
-      </c>
-      <c r="C294" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294">
-        <v>32</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-      <c r="M294"/>
-      <c r="N294"/>
-    </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B295" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
       </c>
       <c r="D295">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
-      <c r="M295"/>
       <c r="N295"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>250</v>
       </c>
       <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="M296"/>
+        <v>0</v>
+      </c>
       <c r="N296"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C297" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F297">
         <v>0</v>
       </c>
-      <c r="M297"/>
       <c r="N297"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C298" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="M298"/>
+        <v>0</v>
+      </c>
       <c r="N298"/>
     </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>119</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="M299"/>
+      <c r="N299"/>
+    </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B300" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C300" t="s">
         <v>12</v>
       </c>
       <c r="D300">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F300">
-        <v>1</v>
-      </c>
-      <c r="K300" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L300" s="4" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="M300"/>
       <c r="N300"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="C301" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D301">
+        <v>50</v>
       </c>
       <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="K301" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L301" s="4" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M301"/>
       <c r="N301"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
         <v>22</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M302"/>
       <c r="N302"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C303" t="s">
-        <v>33</v>
-      </c>
-      <c r="D303">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
         <v>0</v>
       </c>
       <c r="M303"/>
       <c r="N303"/>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B305" t="s">
-        <v>159</v>
-      </c>
-      <c r="C305" t="s">
-        <v>12</v>
-      </c>
-      <c r="D305">
-        <v>3</v>
-      </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-      <c r="K305" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M305"/>
-      <c r="N305"/>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>40</v>
+      </c>
+      <c r="C304" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>1</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="M304"/>
+      <c r="N304"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B306" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="C306" t="s">
         <v>12</v>
       </c>
       <c r="D306">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F306">
         <v>1</v>
-      </c>
-      <c r="K306" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="M306"/>
       <c r="N306"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>12</v>
-      </c>
-      <c r="D307">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F307">
         <v>1</v>
-      </c>
-      <c r="K307" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="M307"/>
       <c r="N307"/>
     </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>47</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="M308"/>
+      <c r="N308"/>
+    </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="B309" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C309" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D309">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
-        <v>194</v>
-      </c>
-      <c r="C310" t="s">
-        <v>12</v>
-      </c>
-      <c r="D310">
-        <v>40</v>
-      </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="M309"/>
+      <c r="N309"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B311" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C311" t="s">
-        <v>196</v>
+        <v>12</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
-      <c r="G311">
-        <v>0</v>
-      </c>
+      <c r="K311" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M311"/>
+      <c r="N311"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C312" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
       </c>
       <c r="F312">
         <v>1</v>
       </c>
+      <c r="K312" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M312"/>
+      <c r="N312"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D313">
+        <v>50</v>
       </c>
       <c r="F313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
-        <v>40</v>
-      </c>
-      <c r="C314" t="s">
-        <v>33</v>
-      </c>
-      <c r="D314">
-        <v>1</v>
-      </c>
-      <c r="F314">
-        <v>1</v>
-      </c>
-      <c r="G314">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K313" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M313"/>
+      <c r="N313"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B315" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315">
+        <v>50</v>
+      </c>
+      <c r="F315">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B316" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="C316" t="s">
         <v>12</v>
@@ -6284,27 +5783,24 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C317" t="s">
-        <v>12</v>
-      </c>
-      <c r="D317">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F317">
         <v>1</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>12</v>
-      </c>
-      <c r="D318">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -6312,13 +5808,10 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="C319" t="s">
-        <v>12</v>
-      </c>
-      <c r="D319">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -6326,125 +5819,111 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
       </c>
       <c r="F320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
-        <v>21</v>
-      </c>
-      <c r="C321" t="s">
-        <v>22</v>
-      </c>
-      <c r="F321">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B322" t="s">
+        <v>223</v>
+      </c>
+      <c r="C322" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322">
         <v>40</v>
       </c>
-      <c r="C322" t="s">
-        <v>33</v>
-      </c>
-      <c r="D322">
-        <v>1</v>
-      </c>
       <c r="F322">
         <v>1</v>
       </c>
-      <c r="G322">
-        <v>0</v>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>224</v>
+      </c>
+      <c r="C323" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323">
+        <v>250</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="B324" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="C324" t="s">
         <v>12</v>
       </c>
       <c r="D324">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="F324">
         <v>1</v>
       </c>
-      <c r="M324"/>
-      <c r="N324"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="C325" t="s">
-        <v>35</v>
-      </c>
-      <c r="E325" t="s">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="D325">
+        <v>250</v>
       </c>
       <c r="F325">
-        <v>1</v>
-      </c>
-      <c r="G325" t="s">
-        <v>157</v>
-      </c>
-      <c r="K325"/>
-      <c r="L325"/>
-      <c r="M325"/>
-      <c r="N325"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="C326" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
-      <c r="K326"/>
-      <c r="L326"/>
-      <c r="M326"/>
-      <c r="N326"/>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F327">
         <v>1</v>
       </c>
-      <c r="G327">
-        <v>1</v>
-      </c>
-      <c r="K327"/>
-      <c r="L327"/>
-      <c r="M327"/>
-      <c r="N327"/>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="C328" t="s">
-        <v>164</v>
-      </c>
-      <c r="D328" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -6452,53 +5931,41 @@
       <c r="G328">
         <v>0</v>
       </c>
-      <c r="K328"/>
-      <c r="L328"/>
-      <c r="M328"/>
-      <c r="N328"/>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
-        <v>62</v>
-      </c>
-      <c r="C329" t="s">
-        <v>164</v>
-      </c>
-      <c r="D329" t="s">
-        <v>165</v>
-      </c>
-      <c r="F329">
-        <v>1</v>
-      </c>
-      <c r="K329"/>
-      <c r="L329"/>
-      <c r="M329"/>
-      <c r="N329"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B330" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D330">
+        <v>30</v>
       </c>
       <c r="F330">
         <v>1</v>
       </c>
-      <c r="K330"/>
-      <c r="L330"/>
       <c r="M330"/>
       <c r="N330"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E331" t="s">
+        <v>156</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G331" t="s">
+        <v>157</v>
       </c>
       <c r="K331"/>
       <c r="L331"/>
@@ -6507,18 +5974,12 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C332" t="s">
-        <v>33</v>
-      </c>
-      <c r="D332">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
         <v>0</v>
       </c>
       <c r="K332"/>
@@ -6526,18 +5987,39 @@
       <c r="M332"/>
       <c r="N332"/>
     </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>163</v>
+      </c>
+      <c r="C333" t="s">
+        <v>24</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="K333"/>
+      <c r="L333"/>
+      <c r="M333"/>
+      <c r="N333"/>
+    </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B334" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D334" t="s">
+        <v>171</v>
       </c>
       <c r="F334">
         <v>1</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
       </c>
       <c r="K334"/>
       <c r="L334"/>
@@ -6546,13 +6028,16 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C335" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="D335" t="s">
+        <v>165</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335"/>
       <c r="L335"/>
@@ -6561,13 +6046,10 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>12</v>
-      </c>
-      <c r="D336">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -6579,19 +6061,13 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="C337" t="s">
-        <v>164</v>
-      </c>
-      <c r="D337" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K337"/>
       <c r="L337"/>
@@ -6600,12 +6076,18 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="C338" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
       </c>
       <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
         <v>0</v>
       </c>
       <c r="K338"/>
@@ -6613,38 +6095,15 @@
       <c r="M338"/>
       <c r="N338"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A339"/>
-      <c r="B339" t="s">
-        <v>173</v>
-      </c>
-      <c r="C339" t="s">
-        <v>164</v>
-      </c>
-      <c r="D339" t="s">
-        <v>171</v>
-      </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>0</v>
-      </c>
-      <c r="K339"/>
-      <c r="L339"/>
-      <c r="M339"/>
-      <c r="N339"/>
-    </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A340"/>
+      <c r="A340" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B340" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C340" t="s">
-        <v>164</v>
-      </c>
-      <c r="D340" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -6654,17 +6113,127 @@
       <c r="M340"/>
       <c r="N340"/>
     </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>168</v>
+      </c>
+      <c r="C341" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="K341"/>
+      <c r="L341"/>
+      <c r="M341"/>
+      <c r="N341"/>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>169</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>50</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="K342"/>
+      <c r="L342"/>
+      <c r="M342"/>
+      <c r="N342"/>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>170</v>
+      </c>
+      <c r="C343" t="s">
+        <v>164</v>
+      </c>
+      <c r="D343" t="s">
+        <v>175</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="K343"/>
+      <c r="L343"/>
+      <c r="M343"/>
+      <c r="N343"/>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>172</v>
+      </c>
+      <c r="C344" t="s">
+        <v>24</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="K344"/>
+      <c r="L344"/>
+      <c r="M344"/>
+      <c r="N344"/>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="B345" t="s">
+        <v>173</v>
+      </c>
+      <c r="C345" t="s">
+        <v>164</v>
+      </c>
+      <c r="D345" t="s">
+        <v>171</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="K345"/>
+      <c r="L345"/>
+      <c r="M345"/>
+      <c r="N345"/>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+      <c r="B346" t="s">
+        <v>176</v>
+      </c>
+      <c r="C346" t="s">
+        <v>164</v>
+      </c>
+      <c r="D346" t="s">
+        <v>171</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="K346"/>
+      <c r="L346"/>
+      <c r="M346"/>
+      <c r="N346"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K188" r:id="rId1"/>
-    <hyperlink ref="K190" r:id="rId2"/>
-    <hyperlink ref="K142" r:id="rId3"/>
-    <hyperlink ref="L142" r:id="rId4"/>
-    <hyperlink ref="M142" r:id="rId5"/>
-    <hyperlink ref="K228" r:id="rId6"/>
-    <hyperlink ref="L228" r:id="rId7"/>
-    <hyperlink ref="M228" r:id="rId8"/>
-    <hyperlink ref="N142" r:id="rId9"/>
+    <hyperlink ref="K194" r:id="rId1"/>
+    <hyperlink ref="K196" r:id="rId2"/>
+    <hyperlink ref="K148" r:id="rId3"/>
+    <hyperlink ref="L148" r:id="rId4"/>
+    <hyperlink ref="M148" r:id="rId5"/>
+    <hyperlink ref="K234" r:id="rId6"/>
+    <hyperlink ref="L234" r:id="rId7"/>
+    <hyperlink ref="M234" r:id="rId8"/>
+    <hyperlink ref="N148" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="320">
   <si>
     <t>field</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>department_id</t>
+  </si>
+  <si>
+    <t>detail2</t>
+  </si>
+  <si>
+    <t>serial</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:U348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,10 +2977,13 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>250</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2982,18 +2991,21 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>250</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
         <v>24</v>
@@ -3002,9 +3014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
@@ -3013,9 +3025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C131" t="s">
         <v>24</v>
@@ -3024,334 +3036,304 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>21</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>22</v>
       </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>47</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C135" t="s">
         <v>22</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>40</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>33</v>
       </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" t="s">
         <v>294</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>24</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
         <v>100</v>
       </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>295</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>296</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>21</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>22</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>47</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C142" t="s">
         <v>22</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>40</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C143" t="s">
         <v>33</v>
       </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B145" t="s">
         <v>25</v>
       </c>
-      <c r="C143" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143">
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
         <v>100</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="K143" s="4" t="s">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L145" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M143" s="4" t="s">
+      <c r="M145" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N143" s="4" t="s">
+      <c r="N145" s="4" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144">
-        <v>100</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145">
-        <v>13</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>100</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
-      <c r="K148" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M148" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="N148" s="5" t="s">
-        <v>200</v>
+      <c r="K148" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
       </c>
       <c r="D149">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
       </c>
       <c r="D150">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M150" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N150" s="4" t="s">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -3363,275 +3345,299 @@
         <v>1</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" t="s">
-        <v>228</v>
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>40</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>40</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E154" t="s">
+        <v>228</v>
       </c>
       <c r="F154">
         <v>0</v>
       </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
       <c r="K154" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="E155" t="s">
+        <v>36</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
-      <c r="G155">
-        <v>1</v>
+      <c r="G155" t="s">
+        <v>43</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
       </c>
       <c r="F156">
         <v>0</v>
       </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
       <c r="K156" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
         <v>1</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N158" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>40</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>33</v>
       </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="L158" s="4" t="s">
+      <c r="L160" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M158" s="4" t="s">
+      <c r="M160" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N158" s="4" t="s">
+      <c r="N160" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>11</v>
       </c>
-      <c r="C160" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160">
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
         <v>100</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161">
-        <v>100</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>15</v>
-      </c>
-      <c r="C162" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162">
-        <v>255</v>
-      </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
+      <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3639,13 +3645,13 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3653,24 +3659,24 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166">
         <v>20</v>
       </c>
       <c r="F166">
         <v>0</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D167">
         <v>100</v>
@@ -3679,57 +3685,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169">
+        <v>100</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B171" t="s">
         <v>287</v>
       </c>
-      <c r="C169" t="s">
-        <v>12</v>
-      </c>
-      <c r="D169">
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
         <v>30</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>288</v>
-      </c>
-      <c r="C170" t="s">
-        <v>24</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>225</v>
-      </c>
-      <c r="C171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" t="s">
-        <v>291</v>
-      </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3737,77 +3743,77 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E173" t="s">
+        <v>291</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>50</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>226</v>
+      </c>
+      <c r="C176" t="s">
+        <v>292</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>21</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C177" t="s">
         <v>22</v>
       </c>
-      <c r="D175">
+      <c r="D177">
         <v>100</v>
       </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B179" t="s">
         <v>42</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C179" t="s">
         <v>24</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>49</v>
-      </c>
-      <c r="C178" t="s">
-        <v>12</v>
-      </c>
-      <c r="D178">
-        <v>100</v>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>50</v>
-      </c>
-      <c r="C179" t="s">
-        <v>12</v>
-      </c>
-      <c r="D179">
-        <v>100</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -3815,13 +3821,13 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -3829,236 +3835,230 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F181">
         <v>1</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F182">
         <v>1</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="G183" t="s">
-        <v>55</v>
+      <c r="G183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
       </c>
       <c r="F184">
         <v>1</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C185" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E185" t="s">
+        <v>54</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>40</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C188" t="s">
         <v>33</v>
       </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B190" t="s">
         <v>57</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C190" t="s">
         <v>24</v>
       </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="K188" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>58</v>
-      </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189">
-        <v>20</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="K189" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>59</v>
-      </c>
-      <c r="C190" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190">
-        <v>20</v>
-      </c>
       <c r="F190">
         <v>1</v>
       </c>
-      <c r="K190" s="4" t="s">
-        <v>111</v>
+      <c r="K190" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>20</v>
       </c>
       <c r="F191">
         <v>1</v>
       </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
       <c r="K191" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F192">
         <v>1</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C193" t="s">
-        <v>164</v>
-      </c>
-      <c r="D193" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="F193">
         <v>1</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="F194">
         <v>1</v>
       </c>
-      <c r="K194" s="5" t="s">
-        <v>182</v>
+      <c r="K194" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195">
-        <v>20</v>
+        <v>164</v>
+      </c>
+      <c r="D195" t="s">
+        <v>174</v>
       </c>
       <c r="F195">
         <v>1</v>
       </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
       <c r="K195" s="4" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
@@ -4070,57 +4070,52 @@
         <v>1</v>
       </c>
       <c r="K196" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>99</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>61</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="K198" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B200" t="s">
         <v>64</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C200" t="s">
         <v>204</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
-      <c r="K198"/>
-      <c r="L198"/>
-      <c r="M198"/>
-      <c r="N198"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>221</v>
-      </c>
-      <c r="C199" t="s">
-        <v>204</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>1</v>
-      </c>
-      <c r="K199"/>
-      <c r="L199"/>
-      <c r="M199"/>
-      <c r="N199"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>65</v>
-      </c>
-      <c r="C200" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200">
-        <v>200</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -4133,15 +4128,33 @@
       <c r="M200"/>
       <c r="N200"/>
     </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" t="s">
+        <v>204</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+    </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="B202" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>200</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -4154,36 +4167,36 @@
       <c r="M202"/>
       <c r="N202"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="C204" t="s">
+        <v>203</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>65</v>
       </c>
-      <c r="C203" t="s">
-        <v>12</v>
-      </c>
-      <c r="D203">
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205">
         <v>200</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <v>1</v>
-      </c>
-      <c r="K203"/>
-      <c r="L203"/>
-      <c r="M203"/>
-      <c r="N203"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B205" t="s">
-        <v>67</v>
-      </c>
-      <c r="C205" t="s">
-        <v>203</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -4196,41 +4209,41 @@
       <c r="M205"/>
       <c r="N205"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" t="s">
+        <v>67</v>
+      </c>
+      <c r="C207" t="s">
+        <v>203</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>65</v>
       </c>
-      <c r="C206" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206">
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
         <v>200</v>
       </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="I206">
-        <v>1</v>
-      </c>
-      <c r="K206"/>
-      <c r="L206"/>
-      <c r="M206"/>
-      <c r="N206"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B208" t="s">
-        <v>181</v>
-      </c>
-      <c r="C208" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208">
-        <v>100</v>
-      </c>
       <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="I208">
         <v>1</v>
       </c>
       <c r="K208"/>
@@ -4238,38 +4251,20 @@
       <c r="M208"/>
       <c r="N208"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
-        <v>67</v>
-      </c>
-      <c r="C209" t="s">
-        <v>203</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="K209"/>
-      <c r="L209"/>
-      <c r="M209"/>
-      <c r="N209"/>
-    </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B210" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
       </c>
       <c r="D210">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="I210">
         <v>1</v>
       </c>
       <c r="K210"/>
@@ -4277,155 +4272,160 @@
       <c r="M210"/>
       <c r="N210"/>
     </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" t="s">
+        <v>203</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+    </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="B212" t="s">
+        <v>65</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>200</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B214" t="s">
         <v>23</v>
       </c>
-      <c r="C212" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212">
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214">
         <v>50</v>
       </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="K212" t="s">
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="K214" t="s">
         <v>121</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L214" t="s">
         <v>122</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M214" t="s">
         <v>121</v>
-      </c>
-      <c r="N212"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>74</v>
-      </c>
-      <c r="C213" t="s">
-        <v>24</v>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="K213">
-        <v>1</v>
-      </c>
-      <c r="L213">
-        <v>2</v>
-      </c>
-      <c r="M213">
-        <v>3</v>
-      </c>
-      <c r="N213"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
-        <v>70</v>
-      </c>
-      <c r="C214" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214">
-        <v>250</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-      <c r="K214" t="s">
-        <v>188</v>
-      </c>
-      <c r="L214" t="s">
-        <v>188</v>
-      </c>
-      <c r="M214" t="s">
-        <v>198</v>
       </c>
       <c r="N214"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
-      </c>
-      <c r="D215">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K215">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="L215">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="M215">
-        <v>345</v>
+        <v>3</v>
       </c>
       <c r="N215"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>250</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
-      <c r="M216"/>
+      <c r="K216" t="s">
+        <v>188</v>
+      </c>
+      <c r="L216" t="s">
+        <v>188</v>
+      </c>
+      <c r="M216" t="s">
+        <v>198</v>
+      </c>
       <c r="N216"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
-      <c r="M217"/>
+      <c r="K217">
+        <v>123</v>
+      </c>
+      <c r="L217">
+        <v>234</v>
+      </c>
+      <c r="M217">
+        <v>345</v>
+      </c>
       <c r="N217"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L218" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M218" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M218"/>
       <c r="N218"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4435,67 +4435,69 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N220"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="M221"/>
+      <c r="N221"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
         <v>40</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>33</v>
       </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="M220"/>
-      <c r="N220"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B222" t="s">
-        <v>25</v>
-      </c>
-      <c r="C222" t="s">
-        <v>12</v>
-      </c>
       <c r="D222">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F222">
         <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
       </c>
       <c r="M222"/>
       <c r="N222"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
-        <v>27</v>
-      </c>
-      <c r="C223" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
         <v>50</v>
-      </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="M223"/>
-      <c r="N223"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
-        <v>26</v>
-      </c>
-      <c r="C224" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224">
-        <v>13</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -4505,10 +4507,13 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C225" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>50</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -4518,138 +4523,119 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>13</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M226"/>
       <c r="N226"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F227">
         <v>1</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
       </c>
       <c r="M227"/>
       <c r="N227"/>
     </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>47</v>
+      </c>
+      <c r="C228" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="M228"/>
+      <c r="N228"/>
+    </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="B229" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" t="s">
+        <v>33</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="M229"/>
+      <c r="N229"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B231" t="s">
         <v>25</v>
       </c>
-      <c r="C229" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229">
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
         <v>50</v>
       </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L229" s="4" t="s">
+      <c r="L231" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M231" t="s">
         <v>195</v>
-      </c>
-      <c r="N229"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
-        <v>27</v>
-      </c>
-      <c r="C230" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230">
-        <v>50</v>
-      </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="K230" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L230" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M230" t="s">
-        <v>196</v>
-      </c>
-      <c r="N230"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
-        <v>16</v>
-      </c>
-      <c r="C231" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231">
-        <v>20</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-      <c r="K231" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L231" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M231">
-        <v>790790790</v>
       </c>
       <c r="N231"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="M232">
-        <v>210210210</v>
+        <v>135</v>
+      </c>
+      <c r="M232" t="s">
+        <v>196</v>
       </c>
       <c r="N232"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
@@ -4661,133 +4647,162 @@
         <v>0</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M233">
-        <v>210210211</v>
+        <v>790790790</v>
       </c>
       <c r="N233"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
       </c>
       <c r="D234">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="K234" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L234" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="M234" s="6" t="s">
-        <v>197</v>
+        <v>0</v>
+      </c>
+      <c r="K234" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L234" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M234">
+        <v>210210210</v>
       </c>
       <c r="N234"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D235">
+        <v>20</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M235"/>
+        <v>151</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M235">
+        <v>210210211</v>
+      </c>
       <c r="N235"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>255</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M236" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N236"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="K237" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M237"/>
+      <c r="N237"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
         <v>40</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C238" t="s">
         <v>33</v>
       </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>1</v>
-      </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="M236"/>
-      <c r="N236"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="M238"/>
+      <c r="N238"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B240" t="s">
         <v>23</v>
       </c>
-      <c r="C238" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238">
+      <c r="C240" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240">
         <v>50</v>
       </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>80</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C241" t="s">
         <v>24</v>
       </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="K239" s="4" t="s">
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M239"/>
-      <c r="N239"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+      <c r="M241"/>
+      <c r="N241"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
         <v>180</v>
-      </c>
-      <c r="C240" t="s">
-        <v>24</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="K240" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M240"/>
-      <c r="N240"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B242" t="s">
-        <v>218</v>
       </c>
       <c r="C242" t="s">
         <v>24</v>
@@ -4795,36 +4810,23 @@
       <c r="F242">
         <v>1</v>
       </c>
+      <c r="K242" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="M242"/>
       <c r="N242"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
-        <v>18</v>
-      </c>
-      <c r="C243" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243">
-        <v>100</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="M243"/>
-      <c r="N243"/>
-    </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B244" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="I244">
         <v>1</v>
       </c>
       <c r="M244"/>
@@ -4832,28 +4834,31 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D245">
+        <v>100</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M245"/>
       <c r="N245"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
-      </c>
-      <c r="E246" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="I246">
         <v>1</v>
       </c>
       <c r="M246"/>
@@ -4861,15 +4866,12 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="C247" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-      <c r="G247">
         <v>0</v>
       </c>
       <c r="M247"/>
@@ -4877,10 +4879,13 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="E248" t="s">
+        <v>183</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -4890,385 +4895,378 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="M249"/>
       <c r="N249"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" t="s">
+        <v>22</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="M250"/>
+      <c r="N250"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>47</v>
+      </c>
+      <c r="C251" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="N251"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
         <v>40</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C252" t="s">
         <v>33</v>
       </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>0</v>
-      </c>
-      <c r="N250"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="N252"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B254" t="s">
         <v>209</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C254" t="s">
         <v>211</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="N252"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>210</v>
-      </c>
-      <c r="C253" t="s">
-        <v>211</v>
-      </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="N253"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
-        <v>212</v>
-      </c>
-      <c r="C254" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254">
-        <v>100</v>
-      </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C255" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256"/>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
+        <v>214</v>
+      </c>
+      <c r="C258" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="N258"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>215</v>
+      </c>
+      <c r="C259" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="N259"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>216</v>
       </c>
-      <c r="C258" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258">
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260">
         <v>100</v>
       </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-      <c r="N258"/>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="N260"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B262" t="s">
         <v>23</v>
       </c>
-      <c r="C260" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260">
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262">
         <v>50</v>
       </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L260" s="4" t="s">
+      <c r="L262" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M260" s="4" t="s">
+      <c r="M262" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="N260"/>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
-        <v>85</v>
-      </c>
-      <c r="C261" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261">
-        <v>2</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="N261"/>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
-        <v>86</v>
-      </c>
-      <c r="C262" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="F262">
-        <v>0</v>
       </c>
       <c r="N262"/>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C263" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
       </c>
       <c r="F263">
         <v>0</v>
-      </c>
-      <c r="H263" t="s">
-        <v>45</v>
       </c>
       <c r="N263"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
+        <v>86</v>
+      </c>
+      <c r="C264" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="N264"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>87</v>
+      </c>
+      <c r="C265" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>45</v>
+      </c>
+      <c r="N265"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
         <v>40</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C266" t="s">
         <v>33</v>
       </c>
-      <c r="D264">
-        <v>1</v>
-      </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-      <c r="N264"/>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="N266"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B268" t="s">
         <v>91</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C268" t="s">
         <v>24</v>
       </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="K266" s="4">
-        <v>1</v>
-      </c>
-      <c r="L266" s="4">
-        <v>1</v>
-      </c>
-      <c r="M266" s="4">
-        <v>1</v>
-      </c>
-      <c r="N266"/>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
-        <v>23</v>
-      </c>
-      <c r="C267" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267">
-        <v>75</v>
-      </c>
-      <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="K267" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L267" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M267" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N267"/>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
-        <v>89</v>
-      </c>
-      <c r="C268" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268">
-        <v>2</v>
-      </c>
       <c r="F268">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K268" s="4">
+        <v>1</v>
+      </c>
+      <c r="L268" s="4">
+        <v>1</v>
+      </c>
+      <c r="M268" s="4">
+        <v>1</v>
       </c>
       <c r="N268"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K269" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M269" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="N269"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
+        <v>89</v>
+      </c>
+      <c r="C270" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="N270"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="N271"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>40</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C272" t="s">
         <v>33</v>
       </c>
-      <c r="D270">
-        <v>1</v>
-      </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="G270">
-        <v>0</v>
-      </c>
-      <c r="N270"/>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="N272"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B274" t="s">
         <v>32</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C274" t="s">
         <v>24</v>
       </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-      <c r="K272" s="4">
-        <v>1</v>
-      </c>
-      <c r="L272" s="4">
-        <v>1</v>
-      </c>
-      <c r="M272" s="4">
-        <v>1</v>
-      </c>
-      <c r="N272"/>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
-        <v>92</v>
-      </c>
-      <c r="C273" t="s">
-        <v>24</v>
-      </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-      <c r="N273"/>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
-        <v>23</v>
-      </c>
-      <c r="C274" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274">
-        <v>100</v>
-      </c>
       <c r="F274">
         <v>1</v>
       </c>
-      <c r="K274" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L274" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M274" s="4" t="s">
-        <v>109</v>
+      <c r="K274" s="4">
+        <v>1</v>
+      </c>
+      <c r="L274" s="4">
+        <v>1</v>
+      </c>
+      <c r="M274" s="4">
+        <v>1</v>
       </c>
       <c r="N274"/>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C275" t="s">
         <v>24</v>
@@ -5280,241 +5278,250 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C276" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D276">
+        <v>100</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K276" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L276" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M276" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="N276"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
+        <v>72</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="N277"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>73</v>
+      </c>
+      <c r="C278" t="s">
+        <v>24</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="N278"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
         <v>40</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C279" t="s">
         <v>33</v>
       </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>0</v>
-      </c>
-      <c r="N277"/>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="N279"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B281" t="s">
         <v>23</v>
       </c>
-      <c r="C279" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279">
+      <c r="C281" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281">
         <v>50</v>
       </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="N279"/>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
-        <v>18</v>
-      </c>
-      <c r="C280" t="s">
-        <v>12</v>
-      </c>
-      <c r="D280">
-        <v>100</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="N280"/>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
-        <v>95</v>
-      </c>
-      <c r="C281" t="s">
-        <v>20</v>
+      <c r="F281">
+        <v>1</v>
       </c>
       <c r="N281"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D282">
+        <v>100</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
       </c>
       <c r="N282"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C283" t="s">
         <v>20</v>
       </c>
       <c r="N283"/>
     </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>96</v>
+      </c>
+      <c r="C284" t="s">
+        <v>20</v>
+      </c>
+      <c r="N284"/>
+    </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="B285" t="s">
+        <v>97</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="N285"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B287" t="s">
         <v>185</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C287" t="s">
         <v>24</v>
       </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-      <c r="N285"/>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
-        <v>187</v>
-      </c>
-      <c r="C286" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286">
-        <v>50</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="N286"/>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
-        <v>186</v>
-      </c>
-      <c r="C287" t="s">
-        <v>20</v>
+      <c r="F287">
+        <v>1</v>
       </c>
       <c r="N287"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
-      </c>
-      <c r="I288">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D288">
+        <v>50</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
       </c>
       <c r="N288"/>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C289" t="s">
         <v>20</v>
       </c>
-      <c r="I289">
-        <v>1</v>
-      </c>
       <c r="N289"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>189</v>
+      </c>
+      <c r="C290" t="s">
+        <v>20</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
       <c r="N290"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="B291" t="s">
+        <v>190</v>
+      </c>
+      <c r="C291" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="N291"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N292"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B293" t="s">
         <v>51</v>
       </c>
-      <c r="C291" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291">
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293">
         <v>50</v>
       </c>
-      <c r="F291">
-        <v>1</v>
-      </c>
-      <c r="N291"/>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="N293"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
         <v>42</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C294" t="s">
         <v>24</v>
       </c>
-      <c r="F292">
-        <v>0</v>
-      </c>
-      <c r="N292"/>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="N294"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
         <v>21</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C295" t="s">
         <v>22</v>
       </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="N293"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="N295"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B297" t="s">
         <v>115</v>
       </c>
-      <c r="C295" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295">
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297">
         <v>250</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="N295"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
-        <v>116</v>
-      </c>
-      <c r="C296" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296">
-        <v>250</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="N296"/>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
-        <v>117</v>
-      </c>
-      <c r="C297" t="s">
-        <v>20</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -5523,13 +5530,13 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C298" t="s">
         <v>12</v>
       </c>
       <c r="D298">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -5538,7 +5545,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C299" t="s">
         <v>20</v>
@@ -5546,34 +5553,29 @@
       <c r="F299">
         <v>0</v>
       </c>
-      <c r="M299"/>
       <c r="N299"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C300" t="s">
         <v>12</v>
       </c>
       <c r="D300">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
-      <c r="M300"/>
       <c r="N300"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="C301" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -5583,23 +5585,29 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>32</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M302"/>
       <c r="N302"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="C303" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D303">
+        <v>50</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -5609,151 +5617,155 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>33</v>
-      </c>
-      <c r="D304">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F304">
         <v>1</v>
-      </c>
-      <c r="G304">
-        <v>0</v>
       </c>
       <c r="M304"/>
       <c r="N304"/>
     </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" t="s">
+        <v>22</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="M305"/>
+      <c r="N305"/>
+    </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B306" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C306" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D306">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F306">
         <v>1</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
       </c>
       <c r="M306"/>
       <c r="N306"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
-        <v>21</v>
-      </c>
-      <c r="C307" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307">
-        <v>1</v>
-      </c>
-      <c r="M307"/>
-      <c r="N307"/>
-    </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B308" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D308">
+        <v>50</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308"/>
       <c r="N308"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>33</v>
-      </c>
-      <c r="D309">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F309">
         <v>1</v>
-      </c>
-      <c r="G309">
-        <v>0</v>
       </c>
       <c r="M309"/>
       <c r="N309"/>
     </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" t="s">
+        <v>22</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="M310"/>
+      <c r="N310"/>
+    </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="B311" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C311" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F311">
         <v>1</v>
       </c>
-      <c r="K311" s="4" t="s">
-        <v>112</v>
+      <c r="G311">
+        <v>0</v>
       </c>
       <c r="M311"/>
       <c r="N311"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
-        <v>160</v>
-      </c>
-      <c r="C312" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313">
         <v>3</v>
       </c>
-      <c r="F312">
-        <v>1</v>
-      </c>
-      <c r="K312" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="M312"/>
-      <c r="N312"/>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
-        <v>23</v>
-      </c>
-      <c r="C313" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313">
-        <v>50</v>
-      </c>
       <c r="F313">
         <v>1</v>
       </c>
       <c r="K313" s="4" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="M313"/>
       <c r="N313"/>
     </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>160</v>
+      </c>
+      <c r="C314" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="K314" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M314"/>
+      <c r="N314"/>
+    </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="B315" t="s">
         <v>23</v>
       </c>
@@ -5766,41 +5778,38 @@
       <c r="F315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
-        <v>192</v>
-      </c>
-      <c r="C316" t="s">
-        <v>12</v>
-      </c>
-      <c r="D316">
-        <v>40</v>
-      </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
+      <c r="K315" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M315"/>
+      <c r="N315"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="B317" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="C317" t="s">
-        <v>194</v>
+        <v>12</v>
+      </c>
+      <c r="D317">
+        <v>50</v>
       </c>
       <c r="F317">
         <v>1</v>
-      </c>
-      <c r="G317">
-        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="C318" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D318">
+        <v>40</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -5808,72 +5817,69 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320" t="s">
+        <v>22</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>47</v>
+      </c>
+      <c r="C321" t="s">
+        <v>22</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
         <v>40</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C322" t="s">
         <v>33</v>
       </c>
-      <c r="D320">
-        <v>1</v>
-      </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-      <c r="G320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B324" t="s">
         <v>223</v>
       </c>
-      <c r="C322" t="s">
-        <v>12</v>
-      </c>
-      <c r="D322">
+      <c r="C324" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324">
         <v>40</v>
-      </c>
-      <c r="F322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
-        <v>224</v>
-      </c>
-      <c r="C323" t="s">
-        <v>12</v>
-      </c>
-      <c r="D323">
-        <v>250</v>
-      </c>
-      <c r="F323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
-        <v>225</v>
-      </c>
-      <c r="C324" t="s">
-        <v>12</v>
-      </c>
-      <c r="D324">
-        <v>250</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -5881,7 +5887,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C325" t="s">
         <v>12</v>
@@ -5890,115 +5896,110 @@
         <v>250</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C326" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D326">
+        <v>250</v>
       </c>
       <c r="F326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C327" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D327">
+        <v>250</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
+        <v>226</v>
+      </c>
+      <c r="C328" t="s">
+        <v>20</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" t="s">
+        <v>22</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
         <v>40</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C330" t="s">
         <v>33</v>
       </c>
-      <c r="D328">
-        <v>1</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B332" t="s">
         <v>155</v>
       </c>
-      <c r="C330" t="s">
-        <v>12</v>
-      </c>
-      <c r="D330">
+      <c r="C332" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332">
         <v>30</v>
       </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="M330"/>
-      <c r="N330"/>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
-        <v>1</v>
-      </c>
-      <c r="C331" t="s">
-        <v>35</v>
-      </c>
-      <c r="E331" t="s">
-        <v>156</v>
-      </c>
-      <c r="F331">
-        <v>1</v>
-      </c>
-      <c r="G331" t="s">
-        <v>157</v>
-      </c>
-      <c r="K331"/>
-      <c r="L331"/>
-      <c r="M331"/>
-      <c r="N331"/>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
-        <v>42</v>
-      </c>
-      <c r="C332" t="s">
-        <v>24</v>
-      </c>
       <c r="F332">
-        <v>0</v>
-      </c>
-      <c r="K332"/>
-      <c r="L332"/>
+        <v>1</v>
+      </c>
       <c r="M332"/>
       <c r="N332"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="E333" t="s">
+        <v>156</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
-      <c r="G333">
-        <v>1</v>
+      <c r="G333" t="s">
+        <v>157</v>
       </c>
       <c r="K333"/>
       <c r="L333"/>
@@ -6007,18 +6008,12 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="C334" t="s">
-        <v>164</v>
-      </c>
-      <c r="D334" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F334">
-        <v>1</v>
-      </c>
-      <c r="G334">
         <v>0</v>
       </c>
       <c r="K334"/>
@@ -6028,15 +6023,15 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="C335" t="s">
-        <v>164</v>
-      </c>
-      <c r="D335" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="F335">
+        <v>1</v>
+      </c>
+      <c r="G335">
         <v>1</v>
       </c>
       <c r="K335"/>
@@ -6046,13 +6041,19 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="D336" t="s">
+        <v>171</v>
       </c>
       <c r="F336">
         <v>1</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
       </c>
       <c r="K336"/>
       <c r="L336"/>
@@ -6061,13 +6062,16 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>164</v>
+      </c>
+      <c r="D337" t="s">
+        <v>165</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337"/>
       <c r="L337"/>
@@ -6076,67 +6080,64 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>33</v>
-      </c>
-      <c r="D338">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F338">
         <v>1</v>
-      </c>
-      <c r="G338">
-        <v>0</v>
       </c>
       <c r="K338"/>
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338"/>
     </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>47</v>
+      </c>
+      <c r="C339" t="s">
+        <v>22</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="K339"/>
+      <c r="L339"/>
+      <c r="M339"/>
+      <c r="N339"/>
+    </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B340" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
       </c>
       <c r="F340">
         <v>1</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
       </c>
       <c r="K340"/>
       <c r="L340"/>
       <c r="M340"/>
       <c r="N340"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
-        <v>168</v>
-      </c>
-      <c r="C341" t="s">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B342" t="s">
+        <v>167</v>
+      </c>
+      <c r="C342" t="s">
         <v>24</v>
-      </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-      <c r="K341"/>
-      <c r="L341"/>
-      <c r="M341"/>
-      <c r="N341"/>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
-        <v>169</v>
-      </c>
-      <c r="C342" t="s">
-        <v>12</v>
-      </c>
-      <c r="D342">
-        <v>50</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -6148,19 +6149,13 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C343" t="s">
-        <v>164</v>
-      </c>
-      <c r="D343" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="F343">
-        <v>1</v>
-      </c>
-      <c r="G343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343"/>
       <c r="L343"/>
@@ -6169,13 +6164,16 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D344">
+        <v>50</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344"/>
       <c r="L344"/>
@@ -6183,21 +6181,20 @@
       <c r="N344"/>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A345"/>
       <c r="B345" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C345" t="s">
         <v>164</v>
       </c>
       <c r="D345" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F345">
         <v>1</v>
       </c>
       <c r="G345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345"/>
       <c r="L345"/>
@@ -6205,35 +6202,72 @@
       <c r="N345"/>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A346"/>
       <c r="B346" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C346" t="s">
-        <v>164</v>
-      </c>
-      <c r="D346" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K346"/>
       <c r="L346"/>
       <c r="M346"/>
       <c r="N346"/>
     </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+      <c r="B347" t="s">
+        <v>173</v>
+      </c>
+      <c r="C347" t="s">
+        <v>164</v>
+      </c>
+      <c r="D347" t="s">
+        <v>171</v>
+      </c>
+      <c r="F347">
+        <v>1</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="K347"/>
+      <c r="L347"/>
+      <c r="M347"/>
+      <c r="N347"/>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+      <c r="B348" t="s">
+        <v>176</v>
+      </c>
+      <c r="C348" t="s">
+        <v>164</v>
+      </c>
+      <c r="D348" t="s">
+        <v>171</v>
+      </c>
+      <c r="F348">
+        <v>1</v>
+      </c>
+      <c r="K348"/>
+      <c r="L348"/>
+      <c r="M348"/>
+      <c r="N348"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K194" r:id="rId1"/>
-    <hyperlink ref="K196" r:id="rId2"/>
-    <hyperlink ref="K148" r:id="rId3"/>
-    <hyperlink ref="L148" r:id="rId4"/>
-    <hyperlink ref="M148" r:id="rId5"/>
-    <hyperlink ref="K234" r:id="rId6"/>
-    <hyperlink ref="L234" r:id="rId7"/>
-    <hyperlink ref="M234" r:id="rId8"/>
-    <hyperlink ref="N148" r:id="rId9"/>
+    <hyperlink ref="K196" r:id="rId1"/>
+    <hyperlink ref="K198" r:id="rId2"/>
+    <hyperlink ref="K150" r:id="rId3"/>
+    <hyperlink ref="L150" r:id="rId4"/>
+    <hyperlink ref="M150" r:id="rId5"/>
+    <hyperlink ref="K236" r:id="rId6"/>
+    <hyperlink ref="L236" r:id="rId7"/>
+    <hyperlink ref="M236" r:id="rId8"/>
+    <hyperlink ref="N150" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
